--- a/в бланки заводов/Останкино КИ/ostankino_ki/SIMF/чистый бланк/ЗАКАЗ КРЫМ 04,12,25ц-выезд 06,12.xlsx
+++ b/в бланки заводов/Останкино КИ/ostankino_ki/SIMF/чистый бланк/ЗАКАЗ КРЫМ 04,12,25ц-выезд 06,12.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Uaer4\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\2025_05\в бланки заводов\Останкино КИ\ostankino_ki\SIMF\чистый бланк\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD1D2829-A172-46E2-BA70-4E71144DB15B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{020247E6-88DC-43A5-BDC2-D8651A8DFF4C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -254,9 +254,6 @@
   </si>
   <si>
     <t>МЯСНЫЕ Папа может сос п/о мгс 1.5*3</t>
-  </si>
-  <si>
-    <t>МЯСНЫЕ С ГОВЯД.ПМ сос п/о мгс 0.4кг_50с</t>
   </si>
   <si>
     <t>СЛИВОЧНЫЕ ПМ сос п/о мгс 0.41кг 10шт_50с</t>
@@ -821,6 +818,9 @@
   </si>
   <si>
     <t xml:space="preserve"> АРОМАТНАЯ С ЧЕСНОЧКОМ СН в/к мтс 0.330кг</t>
+  </si>
+  <si>
+    <t>МЯСНЫЕ С ГОВЯД.ПМ сос п/о мгс 0.4кг 6шт.</t>
   </si>
 </sst>
 </file>
@@ -2009,8 +2009,8 @@
   <dimension ref="A1:L1709"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
-      <pane ySplit="9" topLeftCell="A183" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J196" sqref="J196"/>
+      <pane ySplit="9" topLeftCell="A182" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G188" sqref="G188"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3466,16 +3466,16 @@
     <row r="61" spans="1:11" s="15" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="93" t="str">
         <f>RIGHT(D61:D225,4)</f>
-        <v>7077</v>
+        <v>7255</v>
       </c>
       <c r="B61" s="70" t="s">
-        <v>74</v>
+        <v>262</v>
       </c>
       <c r="C61" s="33" t="s">
         <v>27</v>
       </c>
       <c r="D61" s="28">
-        <v>1001025507077</v>
+        <v>1001025507255</v>
       </c>
       <c r="E61" s="24"/>
       <c r="F61" s="23"/>
@@ -3494,7 +3494,7 @@
         <v>7080</v>
       </c>
       <c r="B62" s="45" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C62" s="33" t="s">
         <v>27</v>
@@ -3524,7 +3524,7 @@
         <v>6762</v>
       </c>
       <c r="B63" s="45" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C63" s="33" t="s">
         <v>27</v>
@@ -3550,7 +3550,7 @@
         <v>5820</v>
       </c>
       <c r="B64" s="45" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C64" s="30" t="s">
         <v>23</v>
@@ -3576,7 +3576,7 @@
         <v>7082</v>
       </c>
       <c r="B65" s="45" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C65" s="30" t="s">
         <v>23</v>
@@ -3600,7 +3600,7 @@
         <v>6764</v>
       </c>
       <c r="B66" s="45" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C66" s="30" t="s">
         <v>23</v>
@@ -3624,7 +3624,7 @@
         <v>6761</v>
       </c>
       <c r="B67" s="45" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C67" s="30" t="s">
         <v>23</v>
@@ -3648,7 +3648,7 @@
         <v>6767</v>
       </c>
       <c r="B68" s="45" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C68" s="30" t="s">
         <v>23</v>
@@ -3672,7 +3672,7 @@
         <v>6765</v>
       </c>
       <c r="B69" s="45" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C69" s="33" t="s">
         <v>27</v>
@@ -3696,7 +3696,7 @@
         <v>6909</v>
       </c>
       <c r="B70" s="45" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C70" s="33" t="s">
         <v>27</v>
@@ -3722,7 +3722,7 @@
         <v>7284</v>
       </c>
       <c r="B71" s="45" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C71" s="33" t="s">
         <v>27</v>
@@ -3748,7 +3748,7 @@
         <v>7250</v>
       </c>
       <c r="B72" s="45" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C72" s="33" t="s">
         <v>27</v>
@@ -3774,7 +3774,7 @@
         <v>6987</v>
       </c>
       <c r="B73" s="45" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C73" s="33" t="s">
         <v>27</v>
@@ -3800,7 +3800,7 @@
         <v>7066</v>
       </c>
       <c r="B74" s="45" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C74" s="33" t="s">
         <v>27</v>
@@ -3830,7 +3830,7 @@
         <v>6837</v>
       </c>
       <c r="B75" s="45" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C75" s="33" t="s">
         <v>27</v>
@@ -3856,7 +3856,7 @@
         <v>7271</v>
       </c>
       <c r="B76" s="45" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C76" s="33" t="s">
         <v>23</v>
@@ -3880,7 +3880,7 @@
         <v>7244</v>
       </c>
       <c r="B77" s="45" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C77" s="33" t="s">
         <v>23</v>
@@ -3904,7 +3904,7 @@
         <v>6661</v>
       </c>
       <c r="B78" s="27" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C78" s="30" t="s">
         <v>23</v>
@@ -3929,7 +3929,7 @@
         <v>6713</v>
       </c>
       <c r="B79" s="27" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C79" s="35" t="s">
         <v>27</v>
@@ -3954,7 +3954,7 @@
         <v/>
       </c>
       <c r="B80" s="74" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C80" s="74"/>
       <c r="D80" s="74"/>
@@ -3971,7 +3971,7 @@
         <v>5698</v>
       </c>
       <c r="B81" s="46" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C81" s="30" t="s">
         <v>23</v>
@@ -4001,7 +4001,7 @@
         <v>6528</v>
       </c>
       <c r="B82" s="46" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C82" s="33" t="s">
         <v>27</v>
@@ -4025,7 +4025,7 @@
         <v>7059</v>
       </c>
       <c r="B83" s="46" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C83" s="33" t="s">
         <v>27</v>
@@ -4051,7 +4051,7 @@
         <v>6609</v>
       </c>
       <c r="B84" s="46" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C84" s="33" t="s">
         <v>27</v>
@@ -4077,7 +4077,7 @@
         <v>7001</v>
       </c>
       <c r="B85" s="46" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C85" s="33" t="s">
         <v>23</v>
@@ -4103,7 +4103,7 @@
         <v>6527</v>
       </c>
       <c r="B86" s="46" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C86" s="30" t="s">
         <v>23</v>
@@ -4133,7 +4133,7 @@
         <v/>
       </c>
       <c r="B87" s="74" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C87" s="74"/>
       <c r="D87" s="74"/>
@@ -4150,7 +4150,7 @@
         <v>7232</v>
       </c>
       <c r="B88" s="27" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C88" s="33" t="s">
         <v>27</v>
@@ -4178,7 +4178,7 @@
         <v>7332</v>
       </c>
       <c r="B89" s="27" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C89" s="33" t="s">
         <v>27</v>
@@ -4204,7 +4204,7 @@
         <v>6785</v>
       </c>
       <c r="B90" s="27" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C90" s="33" t="s">
         <v>27</v>
@@ -4228,7 +4228,7 @@
         <v>7149</v>
       </c>
       <c r="B91" s="96" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C91" s="33" t="s">
         <v>27</v>
@@ -4256,7 +4256,7 @@
         <v>6786</v>
       </c>
       <c r="B92" s="27" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C92" s="33" t="s">
         <v>23</v>
@@ -4280,7 +4280,7 @@
         <v>4903</v>
       </c>
       <c r="B93" s="27" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C93" s="33" t="s">
         <v>23</v>
@@ -4304,7 +4304,7 @@
         <v>7131</v>
       </c>
       <c r="B94" s="27" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C94" s="33" t="s">
         <v>23</v>
@@ -4330,7 +4330,7 @@
         <v>7241</v>
       </c>
       <c r="B95" s="27" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C95" s="33" t="s">
         <v>27</v>
@@ -4360,7 +4360,7 @@
         <v/>
       </c>
       <c r="B96" s="74" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C96" s="74"/>
       <c r="D96" s="74"/>
@@ -4377,7 +4377,7 @@
         <v>7154</v>
       </c>
       <c r="B97" s="27" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C97" s="33" t="s">
         <v>27</v>
@@ -4405,7 +4405,7 @@
         <v>6793</v>
       </c>
       <c r="B98" s="27" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C98" s="33" t="s">
         <v>27</v>
@@ -4429,7 +4429,7 @@
         <v>6795</v>
       </c>
       <c r="B99" s="27" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C99" s="33" t="s">
         <v>27</v>
@@ -4453,7 +4453,7 @@
         <v>6807</v>
       </c>
       <c r="B100" s="27" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C100" s="33" t="s">
         <v>27</v>
@@ -4477,7 +4477,7 @@
         <v>7236</v>
       </c>
       <c r="B101" s="27" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C101" s="33" t="s">
         <v>27</v>
@@ -4507,7 +4507,7 @@
         <v>7333</v>
       </c>
       <c r="B102" s="27" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C102" s="33" t="s">
         <v>27</v>
@@ -4533,7 +4533,7 @@
         <v>6787</v>
       </c>
       <c r="B103" s="27" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C103" s="33" t="s">
         <v>27</v>
@@ -4557,7 +4557,7 @@
         <v>6788</v>
       </c>
       <c r="B104" s="27" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C104" s="33" t="s">
         <v>23</v>
@@ -4581,7 +4581,7 @@
         <v>7157</v>
       </c>
       <c r="B105" s="27" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C105" s="33" t="s">
         <v>23</v>
@@ -4605,7 +4605,7 @@
         <v>6790</v>
       </c>
       <c r="B106" s="27" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C106" s="33" t="s">
         <v>23</v>
@@ -4629,7 +4629,7 @@
         <v>7169</v>
       </c>
       <c r="B107" s="64" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C107" s="33" t="s">
         <v>27</v>
@@ -4657,7 +4657,7 @@
         <v>6791</v>
       </c>
       <c r="B108" s="64" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C108" s="33" t="s">
         <v>27</v>
@@ -4681,7 +4681,7 @@
         <v>7166</v>
       </c>
       <c r="B109" s="64" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C109" s="30" t="s">
         <v>23</v>
@@ -4707,7 +4707,7 @@
         <v>6459</v>
       </c>
       <c r="B110" s="64" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C110" s="33" t="s">
         <v>27</v>
@@ -4733,7 +4733,7 @@
         <v>6586</v>
       </c>
       <c r="B111" s="64" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C111" s="33" t="s">
         <v>27</v>
@@ -4757,7 +4757,7 @@
         <v>6228</v>
       </c>
       <c r="B112" s="64" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C112" s="33" t="s">
         <v>27</v>
@@ -4781,7 +4781,7 @@
         <v>7087</v>
       </c>
       <c r="B113" s="64" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C113" s="33" t="s">
         <v>27</v>
@@ -4807,7 +4807,7 @@
         <v>5544</v>
       </c>
       <c r="B114" s="27" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C114" s="30" t="s">
         <v>23</v>
@@ -4837,7 +4837,7 @@
         <v>6697</v>
       </c>
       <c r="B115" s="27" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C115" s="36" t="s">
         <v>27</v>
@@ -4867,7 +4867,7 @@
         <v/>
       </c>
       <c r="B116" s="74" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C116" s="74"/>
       <c r="D116" s="74"/>
@@ -4884,7 +4884,7 @@
         <v>5706</v>
       </c>
       <c r="B117" s="27" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C117" s="33" t="s">
         <v>27</v>
@@ -4914,7 +4914,7 @@
         <v>6454</v>
       </c>
       <c r="B118" s="27" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C118" s="33" t="s">
         <v>27</v>
@@ -4944,7 +4944,7 @@
         <v>6222</v>
       </c>
       <c r="B119" s="27" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C119" s="33" t="s">
         <v>27</v>
@@ -4968,7 +4968,7 @@
         <v>5931</v>
       </c>
       <c r="B120" s="27" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C120" s="33" t="s">
         <v>27</v>
@@ -4998,7 +4998,7 @@
         <v>5708</v>
       </c>
       <c r="B121" s="27" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C121" s="30" t="s">
         <v>23</v>
@@ -5028,7 +5028,7 @@
         <v>1146</v>
       </c>
       <c r="B122" s="27" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C122" s="30" t="s">
         <v>23</v>
@@ -5052,7 +5052,7 @@
         <v>7150</v>
       </c>
       <c r="B123" s="27" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C123" s="30" t="s">
         <v>23</v>
@@ -5076,7 +5076,7 @@
         <v>6832</v>
       </c>
       <c r="B124" s="27" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C124" s="30" t="s">
         <v>23</v>
@@ -5100,7 +5100,7 @@
         <v>7299</v>
       </c>
       <c r="B125" s="27" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C125" s="30" t="s">
         <v>23</v>
@@ -5124,7 +5124,7 @@
         <v>6834</v>
       </c>
       <c r="B126" s="27" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C126" s="33" t="s">
         <v>27</v>
@@ -5148,7 +5148,7 @@
         <v>6448</v>
       </c>
       <c r="B127" s="27" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C127" s="33" t="s">
         <v>27</v>
@@ -5174,7 +5174,7 @@
         <v>6221</v>
       </c>
       <c r="B128" s="27" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C128" s="33" t="s">
         <v>27</v>
@@ -5200,7 +5200,7 @@
         <v>5679</v>
       </c>
       <c r="B129" s="27" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C129" s="33" t="s">
         <v>27</v>
@@ -5226,7 +5226,7 @@
         <v>4993</v>
       </c>
       <c r="B130" s="27" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C130" s="33" t="s">
         <v>27</v>
@@ -5256,7 +5256,7 @@
         <v>3986</v>
       </c>
       <c r="B131" s="27" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C131" s="33" t="s">
         <v>27</v>
@@ -5282,7 +5282,7 @@
         <v>7105</v>
       </c>
       <c r="B132" s="27" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C132" s="33" t="s">
         <v>27</v>
@@ -5308,7 +5308,7 @@
         <v>7106</v>
       </c>
       <c r="B133" s="27" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C133" s="33" t="s">
         <v>27</v>
@@ -5334,7 +5334,7 @@
         <v>7107</v>
       </c>
       <c r="B134" s="27" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C134" s="33" t="s">
         <v>27</v>
@@ -5360,7 +5360,7 @@
         <v>7147</v>
       </c>
       <c r="B135" s="27" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C135" s="33" t="s">
         <v>27</v>
@@ -5386,7 +5386,7 @@
         <v>7229</v>
       </c>
       <c r="B136" s="27" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C136" s="33" t="s">
         <v>27</v>
@@ -5412,7 +5412,7 @@
         <v>7225</v>
       </c>
       <c r="B137" s="27" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C137" s="33" t="s">
         <v>27</v>
@@ -5438,7 +5438,7 @@
         <v>7227</v>
       </c>
       <c r="B138" s="27" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C138" s="33" t="s">
         <v>27</v>
@@ -5464,7 +5464,7 @@
         <v>7226</v>
       </c>
       <c r="B139" s="27" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C139" s="33" t="s">
         <v>27</v>
@@ -5490,7 +5490,7 @@
         <v>3684</v>
       </c>
       <c r="B140" s="27" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C140" s="33" t="s">
         <v>27</v>
@@ -5516,7 +5516,7 @@
         <v>7382</v>
       </c>
       <c r="B141" s="27" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C141" s="33" t="s">
         <v>27</v>
@@ -5546,7 +5546,7 @@
         <v>4117</v>
       </c>
       <c r="B142" s="27" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C142" s="30" t="s">
         <v>23</v>
@@ -5576,7 +5576,7 @@
         <v>3680</v>
       </c>
       <c r="B143" s="27" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C143" s="30" t="s">
         <v>23</v>
@@ -5600,7 +5600,7 @@
         <v>5483</v>
       </c>
       <c r="B144" s="27" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C144" s="33" t="s">
         <v>27</v>
@@ -5630,7 +5630,7 @@
         <v>6453</v>
       </c>
       <c r="B145" s="27" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C145" s="33" t="s">
         <v>27</v>
@@ -5660,7 +5660,7 @@
         <v/>
       </c>
       <c r="B146" s="74" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C146" s="74"/>
       <c r="D146" s="74"/>
@@ -5677,7 +5677,7 @@
         <v>6470</v>
       </c>
       <c r="B147" s="29" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C147" s="32" t="s">
         <v>23</v>
@@ -5701,7 +5701,7 @@
         <v>6495</v>
       </c>
       <c r="B148" s="29" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C148" s="32" t="s">
         <v>27</v>
@@ -5727,7 +5727,7 @@
         <v>7235</v>
       </c>
       <c r="B149" s="29" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C149" s="32" t="s">
         <v>27</v>
@@ -5753,7 +5753,7 @@
         <v>6411</v>
       </c>
       <c r="B150" s="29" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C150" s="32" t="s">
         <v>27</v>
@@ -5779,7 +5779,7 @@
         <v>6866</v>
       </c>
       <c r="B151" s="29" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C151" s="32" t="s">
         <v>23</v>
@@ -5803,7 +5803,7 @@
         <v>3215</v>
       </c>
       <c r="B152" s="27" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C152" s="37" t="s">
         <v>27</v>
@@ -5833,7 +5833,7 @@
         <v>7245</v>
       </c>
       <c r="B153" s="27" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C153" s="37" t="s">
         <v>27</v>
@@ -5859,7 +5859,7 @@
         <v/>
       </c>
       <c r="B154" s="74" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C154" s="74"/>
       <c r="D154" s="74"/>
@@ -5876,7 +5876,7 @@
         <v>7090</v>
       </c>
       <c r="B155" s="47" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C155" s="35" t="s">
         <v>27</v>
@@ -5904,7 +5904,7 @@
         <v>4691</v>
       </c>
       <c r="B156" s="47" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C156" s="35" t="s">
         <v>27</v>
@@ -5930,7 +5930,7 @@
         <v>7187</v>
       </c>
       <c r="B157" s="47" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C157" s="35" t="s">
         <v>27</v>
@@ -5956,7 +5956,7 @@
         <v>6201</v>
       </c>
       <c r="B158" s="47" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C158" s="35" t="s">
         <v>27</v>
@@ -5982,7 +5982,7 @@
         <v>6842</v>
       </c>
       <c r="B159" s="47" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C159" s="35" t="s">
         <v>27</v>
@@ -6008,7 +6008,7 @@
         <v>6492</v>
       </c>
       <c r="B160" s="47" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C160" s="35" t="s">
         <v>27</v>
@@ -6034,7 +6034,7 @@
         <v>6279</v>
       </c>
       <c r="B161" s="47" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C161" s="35" t="s">
         <v>27</v>
@@ -6060,7 +6060,7 @@
         <v>4786</v>
       </c>
       <c r="B162" s="47" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C162" s="35" t="s">
         <v>27</v>
@@ -6086,7 +6086,7 @@
         <v>7052</v>
       </c>
       <c r="B163" s="47" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C163" s="35" t="s">
         <v>23</v>
@@ -6112,7 +6112,7 @@
         <v>7053</v>
       </c>
       <c r="B164" s="47" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C164" s="35" t="s">
         <v>23</v>
@@ -6138,7 +6138,7 @@
         <v>7092</v>
       </c>
       <c r="B165" s="27" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C165" s="33" t="s">
         <v>27</v>
@@ -6164,7 +6164,7 @@
         <v>7103</v>
       </c>
       <c r="B166" s="27" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C166" s="33" t="s">
         <v>27</v>
@@ -6190,7 +6190,7 @@
         <v>6919</v>
       </c>
       <c r="B167" s="47" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C167" s="35" t="s">
         <v>27</v>
@@ -6214,7 +6214,7 @@
         <v/>
       </c>
       <c r="B168" s="74" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C168" s="74"/>
       <c r="D168" s="74"/>
@@ -6231,7 +6231,7 @@
         <v/>
       </c>
       <c r="B169" s="74" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C169" s="74"/>
       <c r="D169" s="74"/>
@@ -6248,7 +6248,7 @@
         <v>6314</v>
       </c>
       <c r="B170" s="47" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C170" s="33" t="s">
         <v>27</v>
@@ -6278,7 +6278,7 @@
         <v>6155</v>
       </c>
       <c r="B171" s="47" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C171" s="33" t="s">
         <v>27</v>
@@ -6302,7 +6302,7 @@
         <v>6157</v>
       </c>
       <c r="B172" s="47" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C172" s="33" t="s">
         <v>27</v>
@@ -6326,7 +6326,7 @@
         <v>6313</v>
       </c>
       <c r="B173" s="47" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C173" s="36" t="s">
         <v>27</v>
@@ -6356,7 +6356,7 @@
         <v/>
       </c>
       <c r="B174" s="74" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C174" s="74"/>
       <c r="D174" s="74"/>
@@ -6373,7 +6373,7 @@
         <v>4945</v>
       </c>
       <c r="B175" s="47" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C175" s="36" t="s">
         <v>27</v>
@@ -6403,7 +6403,7 @@
         <v/>
       </c>
       <c r="B176" s="74" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C176" s="74"/>
       <c r="D176" s="74"/>
@@ -6420,7 +6420,7 @@
         <v>4956</v>
       </c>
       <c r="B177" s="89" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C177" s="90" t="s">
         <v>27</v>
@@ -6451,7 +6451,7 @@
         <v>1762</v>
       </c>
       <c r="B178" s="47" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C178" s="33" t="s">
         <v>27</v>
@@ -6481,7 +6481,7 @@
         <v>1764</v>
       </c>
       <c r="B179" s="47" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C179" s="36" t="s">
         <v>27</v>
@@ -6511,7 +6511,7 @@
         <v/>
       </c>
       <c r="B180" s="74" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C180" s="74"/>
       <c r="D180" s="74"/>
@@ -6528,7 +6528,7 @@
         <v/>
       </c>
       <c r="B181" s="74" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C181" s="74"/>
       <c r="D181" s="74"/>
@@ -6545,13 +6545,13 @@
         <v>6004</v>
       </c>
       <c r="B182" s="47" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C182" s="36" t="s">
         <v>27</v>
       </c>
       <c r="D182" s="68" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E182" s="24"/>
       <c r="F182" s="23">
@@ -6575,13 +6575,13 @@
         <v>5417</v>
       </c>
       <c r="B183" s="47" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C183" s="30" t="s">
         <v>23</v>
       </c>
       <c r="D183" s="68" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E183" s="24"/>
       <c r="F183" s="23">
@@ -6605,13 +6605,13 @@
         <v>6019</v>
       </c>
       <c r="B184" s="47" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C184" s="36" t="s">
         <v>27</v>
       </c>
       <c r="D184" s="69" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E184" s="24"/>
       <c r="F184" s="23">
@@ -6632,7 +6632,7 @@
     <row r="185" spans="1:11" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A185" s="77"/>
       <c r="B185" s="77" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C185" s="16"/>
       <c r="D185" s="48"/>
@@ -21931,24 +21931,24 @@
   <sheetData>
     <row r="1" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B1" s="27" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="2" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B2" s="58" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C2" s="81"/>
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B3" s="27" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C3" s="63"/>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B4" s="44" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C4" s="63"/>
     </row>
@@ -21959,13 +21959,13 @@
     </row>
     <row r="6" spans="2:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="65" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C6" s="61"/>
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B7" s="71" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C7" s="81"/>
     </row>
@@ -21976,13 +21976,13 @@
     </row>
     <row r="9" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B9" s="79" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C9" s="81"/>
     </row>
     <row r="10" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B10" s="29" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="11" spans="2:3" x14ac:dyDescent="0.25">
@@ -21992,17 +21992,17 @@
     </row>
     <row r="12" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B12" s="27" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="13" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B13" s="27" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="14" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B14" s="27" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="15" spans="2:3" x14ac:dyDescent="0.25">
@@ -22019,72 +22019,72 @@
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B17" s="27" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B18" s="27" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C18" s="62"/>
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B19" s="58" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C19" s="61"/>
     </row>
     <row r="20" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B20" s="70" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="21" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B21" s="58" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C21" s="81"/>
     </row>
     <row r="22" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B22" s="67" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C22" s="61"/>
     </row>
     <row r="23" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B23" s="27" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="24" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B24" s="27" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="25" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B25" s="27" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="26" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B26" s="27" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="27" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B27" s="70" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="28" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B28" s="78" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C28" s="61"/>
     </row>
     <row r="29" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B29" s="45" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="30" spans="2:3" x14ac:dyDescent="0.25">
@@ -22094,53 +22094,53 @@
     </row>
     <row r="31" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B31" s="66" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C31" s="61"/>
     </row>
     <row r="32" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B32" s="79" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C32" s="81"/>
     </row>
     <row r="33" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B33" s="79" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C33" s="61"/>
     </row>
     <row r="34" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B34" s="66" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C34" s="61"/>
     </row>
     <row r="35" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B35" s="27" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="36" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B36" s="27" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="37" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B37" s="79" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C37" s="81"/>
     </row>
     <row r="38" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B38" s="66" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C38" s="61"/>
     </row>
     <row r="39" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B39" s="27" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="40" spans="2:3" x14ac:dyDescent="0.25">
@@ -22166,252 +22166,252 @@
     </row>
     <row r="44" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B44" s="27" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="45" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B45" s="27" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="46" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B46" s="66" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C46" s="61"/>
     </row>
     <row r="47" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B47" s="27" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="48" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B48" s="66" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C48" s="61"/>
     </row>
     <row r="49" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B49" s="66" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C49" s="61"/>
     </row>
     <row r="50" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B50" s="66" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C50" s="61"/>
     </row>
     <row r="51" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B51" s="27" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C51" s="61"/>
     </row>
     <row r="52" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B52" s="79" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C52" s="61"/>
     </row>
     <row r="53" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B53" s="79" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C53" s="61"/>
     </row>
     <row r="54" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B54" s="79" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C54" s="61"/>
     </row>
     <row r="55" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B55" s="79" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C55" s="81"/>
     </row>
     <row r="56" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B56" s="70" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="57" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B57" s="27" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="58" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B58" s="79" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C58" s="61"/>
     </row>
     <row r="59" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B59" s="79" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C59" s="61"/>
     </row>
     <row r="60" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B60" s="79" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C60" s="81"/>
     </row>
     <row r="61" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B61" s="27" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="62" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B62" s="66" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C62" s="61"/>
     </row>
     <row r="63" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B63" s="79" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C63" s="81"/>
     </row>
     <row r="64" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B64" s="55" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="65" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B65" s="55" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C65" s="61"/>
     </row>
     <row r="66" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B66" s="55" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C66" s="61"/>
     </row>
     <row r="67" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B67" s="79" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C67" s="61"/>
     </row>
     <row r="68" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B68" s="79" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C68" s="61"/>
     </row>
     <row r="69" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B69" s="79" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C69" s="61"/>
     </row>
     <row r="70" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B70" s="79" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C70" s="61"/>
     </row>
     <row r="71" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B71" s="79" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C71" s="61"/>
     </row>
     <row r="72" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B72" s="79" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C72" s="81"/>
     </row>
     <row r="73" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B73" s="79" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C73" s="81"/>
     </row>
     <row r="74" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B74" s="79" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C74" s="81"/>
     </row>
     <row r="75" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B75" s="79" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C75" s="81"/>
     </row>
     <row r="76" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B76" s="60" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C76" s="61"/>
     </row>
     <row r="77" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B77" s="60" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C77" s="61"/>
     </row>
     <row r="78" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B78" s="60" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C78" s="61"/>
     </row>
     <row r="79" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B79" s="60" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C79" s="61"/>
     </row>
     <row r="80" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B80" s="60" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C80" s="61"/>
     </row>
     <row r="81" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B81" s="60" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C81" s="61"/>
     </row>
     <row r="82" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B82" s="60" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C82" s="61"/>
     </row>
     <row r="83" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B83" s="60" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C83" s="61"/>
     </row>
     <row r="84" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B84" s="60" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C84" s="61"/>
     </row>
     <row r="85" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B85" s="60" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C85" s="61"/>
     </row>
     <row r="86" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B86" s="67" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C86" s="61"/>
     </row>

--- a/в бланки заводов/Останкино КИ/ostankino_ki/SIMF/чистый бланк/ЗАКАЗ КРЫМ 04,12,25ц-выезд 06,12.xlsx
+++ b/в бланки заводов/Останкино КИ/ostankino_ki/SIMF/чистый бланк/ЗАКАЗ КРЫМ 04,12,25ц-выезд 06,12.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\2025_05\в бланки заводов\Останкино КИ\ostankino_ki\SIMF\чистый бланк\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{020247E6-88DC-43A5-BDC2-D8651A8DFF4C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CFD9AE5-B5F6-4C16-85F2-DFECEB73A9BB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="кск формула" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Дист 1'!$A$9:$J$185</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Дист 1'!$A$9:$J$186</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="447" uniqueCount="263">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="449" uniqueCount="264">
   <si>
     <t xml:space="preserve">Грузополучатель: </t>
   </si>
@@ -821,6 +821,9 @@
   </si>
   <si>
     <t>МЯСНЫЕ С ГОВЯД.ПМ сос п/о мгс 0.4кг 6шт.</t>
+  </si>
+  <si>
+    <t>ПРЕСИЖН с/к дек.спец. мгс 0.54кг</t>
   </si>
 </sst>
 </file>
@@ -2006,11 +2009,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:L1709"/>
+  <dimension ref="A1:L1710"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
-      <pane ySplit="9" topLeftCell="A182" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G188" sqref="G188"/>
+      <pane ySplit="9" topLeftCell="A183" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J194" sqref="J194"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2155,7 +2158,7 @@
     </row>
     <row r="11" spans="1:12" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A11" s="93" t="str">
-        <f>RIGHT(D11:D184,4)</f>
+        <f>RIGHT(D11:D185,4)</f>
         <v>5246</v>
       </c>
       <c r="B11" s="27" t="s">
@@ -2186,7 +2189,7 @@
     </row>
     <row r="12" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="93" t="str">
-        <f>RIGHT(D12:D185,4)</f>
+        <f>RIGHT(D12:D186,4)</f>
         <v>4555</v>
       </c>
       <c r="B12" s="27" t="s">
@@ -2211,7 +2214,7 @@
     </row>
     <row r="13" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="93" t="str">
-        <f>RIGHT(D13:D186,4)</f>
+        <f>RIGHT(D13:D187,4)</f>
         <v>6220</v>
       </c>
       <c r="B13" s="27" t="s">
@@ -2236,7 +2239,7 @@
     </row>
     <row r="14" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="93" t="str">
-        <f>RIGHT(D14:D185,4)</f>
+        <f>RIGHT(D14:D186,4)</f>
         <v>5992</v>
       </c>
       <c r="B14" s="27" t="s">
@@ -2260,7 +2263,7 @@
     </row>
     <row r="15" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="93" t="str">
-        <f>RIGHT(D15:D186,4)</f>
+        <f>RIGHT(D15:D187,4)</f>
         <v>6268</v>
       </c>
       <c r="B15" s="27" t="s">
@@ -2284,7 +2287,7 @@
     </row>
     <row r="16" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="93" t="str">
-        <f>RIGHT(D16:D187,4)</f>
+        <f>RIGHT(D16:D188,4)</f>
         <v>7126</v>
       </c>
       <c r="B16" s="27" t="s">
@@ -2310,7 +2313,7 @@
     </row>
     <row r="17" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="93" t="str">
-        <f>RIGHT(D17:D187,4)</f>
+        <f>RIGHT(D17:D188,4)</f>
         <v>6247</v>
       </c>
       <c r="B17" s="27" t="s">
@@ -2334,7 +2337,7 @@
     </row>
     <row r="18" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="93" t="str">
-        <f t="shared" ref="A18:A25" si="0">RIGHT(D18:D187,4)</f>
+        <f>RIGHT(D18:D188,4)</f>
         <v>6325</v>
       </c>
       <c r="B18" s="27" t="s">
@@ -2364,7 +2367,7 @@
     </row>
     <row r="19" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="93" t="str">
-        <f t="shared" si="0"/>
+        <f>RIGHT(D19:D189,4)</f>
         <v>6324</v>
       </c>
       <c r="B19" s="27" t="s">
@@ -2390,7 +2393,7 @@
     </row>
     <row r="20" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="93" t="str">
-        <f t="shared" si="0"/>
+        <f>RIGHT(D20:D190,4)</f>
         <v>6839</v>
       </c>
       <c r="B20" s="27" t="s">
@@ -2416,7 +2419,7 @@
     </row>
     <row r="21" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="93" t="str">
-        <f t="shared" si="0"/>
+        <f>RIGHT(D21:D191,4)</f>
         <v>7231</v>
       </c>
       <c r="B21" s="27" t="s">
@@ -2440,7 +2443,7 @@
     </row>
     <row r="22" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="93" t="str">
-        <f t="shared" si="0"/>
+        <f>RIGHT(D22:D192,4)</f>
         <v>4063</v>
       </c>
       <c r="B22" s="27" t="s">
@@ -2470,7 +2473,7 @@
     </row>
     <row r="23" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="93" t="str">
-        <f t="shared" si="0"/>
+        <f>RIGHT(D23:D193,4)</f>
         <v>6333</v>
       </c>
       <c r="B23" s="27" t="s">
@@ -2500,7 +2503,7 @@
     </row>
     <row r="24" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="93" t="str">
-        <f t="shared" si="0"/>
+        <f>RIGHT(D24:D194,4)</f>
         <v>4574</v>
       </c>
       <c r="B24" s="27" t="s">
@@ -2530,7 +2533,7 @@
     </row>
     <row r="25" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="93" t="str">
-        <f t="shared" si="0"/>
+        <f>RIGHT(D25:D195,4)</f>
         <v>6861</v>
       </c>
       <c r="B25" s="27" t="s">
@@ -2560,7 +2563,7 @@
     </row>
     <row r="26" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="93" t="str">
-        <f>RIGHT(D26:D198,4)</f>
+        <f>RIGHT(D26:D199,4)</f>
         <v>6862</v>
       </c>
       <c r="B26" s="27" t="s">
@@ -2584,7 +2587,7 @@
     </row>
     <row r="27" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="93" t="str">
-        <f>RIGHT(D27:D198,4)</f>
+        <f>RIGHT(D27:D199,4)</f>
         <v>6341</v>
       </c>
       <c r="B27" s="27" t="s">
@@ -2608,7 +2611,7 @@
     </row>
     <row r="28" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="93" t="str">
-        <f>RIGHT(D28:D199,4)</f>
+        <f>RIGHT(D28:D200,4)</f>
         <v>5247</v>
       </c>
       <c r="B28" s="27" t="s">
@@ -2638,7 +2641,7 @@
     </row>
     <row r="29" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="93" t="str">
-        <f t="shared" ref="A29:A35" si="1">RIGHT(D29:D202,4)</f>
+        <f>RIGHT(D29:D203,4)</f>
         <v>4813</v>
       </c>
       <c r="B29" s="27" t="s">
@@ -2668,7 +2671,7 @@
     </row>
     <row r="30" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="93" t="str">
-        <f t="shared" si="1"/>
+        <f>RIGHT(D30:D204,4)</f>
         <v>6392</v>
       </c>
       <c r="B30" s="27" t="s">
@@ -2698,7 +2701,7 @@
     </row>
     <row r="31" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="93" t="str">
-        <f t="shared" si="1"/>
+        <f>RIGHT(D31:D205,4)</f>
         <v>6801</v>
       </c>
       <c r="B31" s="27" t="s">
@@ -2724,7 +2727,7 @@
     </row>
     <row r="32" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="93" t="str">
-        <f t="shared" si="1"/>
+        <f>RIGHT(D32:D206,4)</f>
         <v>6802</v>
       </c>
       <c r="B32" s="27" t="s">
@@ -2748,7 +2751,7 @@
     </row>
     <row r="33" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="93" t="str">
-        <f t="shared" si="1"/>
+        <f>RIGHT(D33:D207,4)</f>
         <v>6877</v>
       </c>
       <c r="B33" s="27" t="s">
@@ -2772,7 +2775,7 @@
     </row>
     <row r="34" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="93" t="str">
-        <f t="shared" si="1"/>
+        <f>RIGHT(D34:D208,4)</f>
         <v>6888</v>
       </c>
       <c r="B34" s="27" t="s">
@@ -2798,7 +2801,7 @@
     </row>
     <row r="35" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="93" t="str">
-        <f t="shared" si="1"/>
+        <f>RIGHT(D35:D209,4)</f>
         <v>7343</v>
       </c>
       <c r="B35" s="27" t="s">
@@ -2824,7 +2827,7 @@
     </row>
     <row r="36" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="93" t="str">
-        <f>RIGHT(D36:D205,4)</f>
+        <f>RIGHT(D36:D206,4)</f>
         <v>5851</v>
       </c>
       <c r="B36" s="27" t="s">
@@ -2854,7 +2857,7 @@
     </row>
     <row r="37" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="93" t="str">
-        <f>RIGHT(D37:D206,4)</f>
+        <f>RIGHT(D37:D207,4)</f>
         <v>6159</v>
       </c>
       <c r="B37" s="27" t="s">
@@ -2878,7 +2881,7 @@
     </row>
     <row r="38" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="93" t="str">
-        <f>RIGHT(D38:D206,4)</f>
+        <f>RIGHT(D38:D207,4)</f>
         <v>6158</v>
       </c>
       <c r="B38" s="27" t="s">
@@ -2906,7 +2909,7 @@
     </row>
     <row r="39" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="93" t="str">
-        <f>RIGHT(D39:D208,4)</f>
+        <f>RIGHT(D39:D209,4)</f>
         <v>6340</v>
       </c>
       <c r="B39" s="95" t="s">
@@ -2934,7 +2937,7 @@
     </row>
     <row r="40" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="93" t="str">
-        <f>RIGHT(D40:D206,4)</f>
+        <f>RIGHT(D40:D207,4)</f>
         <v>6353</v>
       </c>
       <c r="B40" s="27" t="s">
@@ -2964,7 +2967,7 @@
     </row>
     <row r="41" spans="1:11" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="93" t="str">
-        <f>RIGHT(D41:D207,4)</f>
+        <f>RIGHT(D41:D208,4)</f>
         <v/>
       </c>
       <c r="B41" s="74" t="s">
@@ -2981,7 +2984,7 @@
     </row>
     <row r="42" spans="1:11" s="15" customFormat="1" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A42" s="93" t="str">
-        <f>RIGHT(D42:D210,4)</f>
+        <f>RIGHT(D42:D211,4)</f>
         <v>6870</v>
       </c>
       <c r="B42" s="27" t="s">
@@ -3006,7 +3009,7 @@
     </row>
     <row r="43" spans="1:11" s="15" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="93" t="str">
-        <f>RIGHT(D43:D212,4)</f>
+        <f>RIGHT(D43:D213,4)</f>
         <v>7038</v>
       </c>
       <c r="B43" s="27" t="s">
@@ -3031,7 +3034,7 @@
     </row>
     <row r="44" spans="1:11" s="15" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="93" t="str">
-        <f>RIGHT(D44:D213,4)</f>
+        <f>RIGHT(D44:D214,4)</f>
         <v>7040</v>
       </c>
       <c r="B44" s="27" t="s">
@@ -3058,7 +3061,7 @@
     </row>
     <row r="45" spans="1:11" s="15" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="93" t="str">
-        <f>RIGHT(D45:D212,4)</f>
+        <f>RIGHT(D45:D213,4)</f>
         <v>7075</v>
       </c>
       <c r="B45" s="27" t="s">
@@ -3083,7 +3086,7 @@
     </row>
     <row r="46" spans="1:11" s="15" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="93" t="str">
-        <f>RIGHT(D46:D213,4)</f>
+        <f>RIGHT(D46:D214,4)</f>
         <v>7070</v>
       </c>
       <c r="B46" s="27" t="s">
@@ -3108,7 +3111,7 @@
     </row>
     <row r="47" spans="1:11" s="15" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="93" t="str">
-        <f>RIGHT(D47:D211,4)</f>
+        <f>RIGHT(D47:D212,4)</f>
         <v>6253</v>
       </c>
       <c r="B47" s="27" t="s">
@@ -3133,7 +3136,7 @@
     </row>
     <row r="48" spans="1:11" s="15" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="93" t="str">
-        <f>RIGHT(D48:D210,4)</f>
+        <f>RIGHT(D48:D211,4)</f>
         <v>6602</v>
       </c>
       <c r="B48" s="27" t="s">
@@ -3158,7 +3161,7 @@
     </row>
     <row r="49" spans="1:11" s="15" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="93" t="str">
-        <f>RIGHT(D49:D213,4)</f>
+        <f>RIGHT(D49:D214,4)</f>
         <v>6768</v>
       </c>
       <c r="B49" s="27" t="s">
@@ -3183,7 +3186,7 @@
     </row>
     <row r="50" spans="1:11" s="15" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="93" t="str">
-        <f>RIGHT(D50:D214,4)</f>
+        <f>RIGHT(D50:D215,4)</f>
         <v>6770</v>
       </c>
       <c r="B50" s="27" t="s">
@@ -3208,7 +3211,7 @@
     </row>
     <row r="51" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="93" t="str">
-        <f>RIGHT(D51:D217,4)</f>
+        <f>RIGHT(D51:D218,4)</f>
         <v>6829</v>
       </c>
       <c r="B51" s="27" t="s">
@@ -3232,7 +3235,7 @@
     </row>
     <row r="52" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="93" t="str">
-        <f t="shared" ref="A52:A57" si="2">RIGHT(D52:D222,4)</f>
+        <f>RIGHT(D52:D223,4)</f>
         <v>7074</v>
       </c>
       <c r="B52" s="27" t="s">
@@ -3256,7 +3259,7 @@
     </row>
     <row r="53" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="93" t="str">
-        <f t="shared" si="2"/>
+        <f>RIGHT(D53:D224,4)</f>
         <v>7073</v>
       </c>
       <c r="B53" s="27" t="s">
@@ -3280,7 +3283,7 @@
     </row>
     <row r="54" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="93" t="str">
-        <f t="shared" si="2"/>
+        <f>RIGHT(D54:D225,4)</f>
         <v>6759</v>
       </c>
       <c r="B54" s="27" t="s">
@@ -3304,7 +3307,7 @@
     </row>
     <row r="55" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="93" t="str">
-        <f t="shared" si="2"/>
+        <f>RIGHT(D55:D226,4)</f>
         <v>6724</v>
       </c>
       <c r="B55" s="27" t="s">
@@ -3330,7 +3333,7 @@
     </row>
     <row r="56" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="93" t="str">
-        <f t="shared" si="2"/>
+        <f>RIGHT(D56:D227,4)</f>
         <v>6616</v>
       </c>
       <c r="B56" s="27" t="s">
@@ -3356,7 +3359,7 @@
     </row>
     <row r="57" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="93" t="str">
-        <f t="shared" si="2"/>
+        <f>RIGHT(D57:D228,4)</f>
         <v>7276</v>
       </c>
       <c r="B57" s="27" t="s">
@@ -3382,7 +3385,7 @@
     </row>
     <row r="58" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="93" t="str">
-        <f>RIGHT(D58:D225,4)</f>
+        <f>RIGHT(D58:D226,4)</f>
         <v>6901</v>
       </c>
       <c r="B58" s="27" t="s">
@@ -3408,7 +3411,7 @@
     </row>
     <row r="59" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="93" t="str">
-        <f>RIGHT(D59:D226,4)</f>
+        <f>RIGHT(D59:D227,4)</f>
         <v>6962</v>
       </c>
       <c r="B59" s="27" t="s">
@@ -3434,7 +3437,7 @@
     </row>
     <row r="60" spans="1:11" s="15" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="93" t="str">
-        <f>RIGHT(D60:D224,4)</f>
+        <f>RIGHT(D60:D225,4)</f>
         <v>6303</v>
       </c>
       <c r="B60" s="70" t="s">
@@ -3465,7 +3468,7 @@
     </row>
     <row r="61" spans="1:11" s="15" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="93" t="str">
-        <f>RIGHT(D61:D225,4)</f>
+        <f>RIGHT(D61:D226,4)</f>
         <v>7255</v>
       </c>
       <c r="B61" s="70" t="s">
@@ -3490,7 +3493,7 @@
     </row>
     <row r="62" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="93" t="str">
-        <f>RIGHT(D62:D225,4)</f>
+        <f>RIGHT(D62:D226,4)</f>
         <v>7080</v>
       </c>
       <c r="B62" s="45" t="s">
@@ -3520,7 +3523,7 @@
     </row>
     <row r="63" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="93" t="str">
-        <f>RIGHT(D63:D226,4)</f>
+        <f>RIGHT(D63:D227,4)</f>
         <v>6762</v>
       </c>
       <c r="B63" s="45" t="s">
@@ -3546,7 +3549,7 @@
     </row>
     <row r="64" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="93" t="str">
-        <f>RIGHT(D64:D226,4)</f>
+        <f>RIGHT(D64:D227,4)</f>
         <v>5820</v>
       </c>
       <c r="B64" s="45" t="s">
@@ -3572,7 +3575,7 @@
     </row>
     <row r="65" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="93" t="str">
-        <f>RIGHT(D65:D227,4)</f>
+        <f>RIGHT(D65:D228,4)</f>
         <v>7082</v>
       </c>
       <c r="B65" s="45" t="s">
@@ -3596,7 +3599,7 @@
     </row>
     <row r="66" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="93" t="str">
-        <f>RIGHT(D66:D228,4)</f>
+        <f>RIGHT(D66:D229,4)</f>
         <v>6764</v>
       </c>
       <c r="B66" s="45" t="s">
@@ -3620,7 +3623,7 @@
     </row>
     <row r="67" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="93" t="str">
-        <f>RIGHT(D67:D230,4)</f>
+        <f>RIGHT(D67:D231,4)</f>
         <v>6761</v>
       </c>
       <c r="B67" s="45" t="s">
@@ -3644,7 +3647,7 @@
     </row>
     <row r="68" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="93" t="str">
-        <f>RIGHT(D68:D231,4)</f>
+        <f>RIGHT(D68:D232,4)</f>
         <v>6767</v>
       </c>
       <c r="B68" s="45" t="s">
@@ -3668,7 +3671,7 @@
     </row>
     <row r="69" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="93" t="str">
-        <f>RIGHT(D69:D231,4)</f>
+        <f>RIGHT(D69:D232,4)</f>
         <v>6765</v>
       </c>
       <c r="B69" s="45" t="s">
@@ -3692,7 +3695,7 @@
     </row>
     <row r="70" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="93" t="str">
-        <f>RIGHT(D70:D232,4)</f>
+        <f>RIGHT(D70:D233,4)</f>
         <v>6909</v>
       </c>
       <c r="B70" s="45" t="s">
@@ -3718,7 +3721,7 @@
     </row>
     <row r="71" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="93" t="str">
-        <f>RIGHT(D71:D233,4)</f>
+        <f>RIGHT(D71:D234,4)</f>
         <v>7284</v>
       </c>
       <c r="B71" s="45" t="s">
@@ -3744,7 +3747,7 @@
     </row>
     <row r="72" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="93" t="str">
-        <f>RIGHT(D72:D233,4)</f>
+        <f>RIGHT(D72:D234,4)</f>
         <v>7250</v>
       </c>
       <c r="B72" s="45" t="s">
@@ -3770,7 +3773,7 @@
     </row>
     <row r="73" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="93" t="str">
-        <f>RIGHT(D73:D233,4)</f>
+        <f>RIGHT(D73:D234,4)</f>
         <v>6987</v>
       </c>
       <c r="B73" s="45" t="s">
@@ -3796,7 +3799,7 @@
     </row>
     <row r="74" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="93" t="str">
-        <f>RIGHT(D74:D231,4)</f>
+        <f>RIGHT(D74:D232,4)</f>
         <v>7066</v>
       </c>
       <c r="B74" s="45" t="s">
@@ -3826,7 +3829,7 @@
     </row>
     <row r="75" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="93" t="str">
-        <f>RIGHT(D75:D232,4)</f>
+        <f>RIGHT(D75:D233,4)</f>
         <v>6837</v>
       </c>
       <c r="B75" s="45" t="s">
@@ -3852,7 +3855,7 @@
     </row>
     <row r="76" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="93" t="str">
-        <f>RIGHT(D76:D233,4)</f>
+        <f>RIGHT(D76:D234,4)</f>
         <v>7271</v>
       </c>
       <c r="B76" s="45" t="s">
@@ -3876,7 +3879,7 @@
     </row>
     <row r="77" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="93" t="str">
-        <f>RIGHT(D77:D233,4)</f>
+        <f>RIGHT(D77:D234,4)</f>
         <v>7244</v>
       </c>
       <c r="B77" s="45" t="s">
@@ -3900,7 +3903,7 @@
     </row>
     <row r="78" spans="1:11" s="15" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="93" t="str">
-        <f>RIGHT(D78:D234,4)</f>
+        <f>RIGHT(D78:D235,4)</f>
         <v>6661</v>
       </c>
       <c r="B78" s="27" t="s">
@@ -3925,7 +3928,7 @@
     </row>
     <row r="79" spans="1:11" s="15" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A79" s="93" t="str">
-        <f>RIGHT(D79:D235,4)</f>
+        <f>RIGHT(D79:D236,4)</f>
         <v>6713</v>
       </c>
       <c r="B79" s="27" t="s">
@@ -3950,7 +3953,7 @@
     </row>
     <row r="80" spans="1:11" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A80" s="93" t="str">
-        <f>RIGHT(D80:D231,4)</f>
+        <f>RIGHT(D80:D232,4)</f>
         <v/>
       </c>
       <c r="B80" s="74" t="s">
@@ -3967,7 +3970,7 @@
     </row>
     <row r="81" spans="1:10" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A81" s="93" t="str">
-        <f>RIGHT(D81:D232,4)</f>
+        <f>RIGHT(D81:D233,4)</f>
         <v>5698</v>
       </c>
       <c r="B81" s="46" t="s">
@@ -3997,7 +4000,7 @@
     </row>
     <row r="82" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="93" t="str">
-        <f>RIGHT(D82:D235,4)</f>
+        <f>RIGHT(D82:D236,4)</f>
         <v>6528</v>
       </c>
       <c r="B82" s="46" t="s">
@@ -4021,7 +4024,7 @@
     </row>
     <row r="83" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="93" t="str">
-        <f>RIGHT(D83:D236,4)</f>
+        <f>RIGHT(D83:D237,4)</f>
         <v>7059</v>
       </c>
       <c r="B83" s="46" t="s">
@@ -4047,7 +4050,7 @@
     </row>
     <row r="84" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="93" t="str">
-        <f>RIGHT(D84:D236,4)</f>
+        <f>RIGHT(D84:D237,4)</f>
         <v>6609</v>
       </c>
       <c r="B84" s="46" t="s">
@@ -4073,7 +4076,7 @@
     </row>
     <row r="85" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="93" t="str">
-        <f>RIGHT(D85:D237,4)</f>
+        <f>RIGHT(D85:D238,4)</f>
         <v>7001</v>
       </c>
       <c r="B85" s="46" t="s">
@@ -4099,7 +4102,7 @@
     </row>
     <row r="86" spans="1:10" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A86" s="93" t="str">
-        <f>RIGHT(D86:D237,4)</f>
+        <f>RIGHT(D86:D238,4)</f>
         <v>6527</v>
       </c>
       <c r="B86" s="46" t="s">
@@ -4129,7 +4132,7 @@
     </row>
     <row r="87" spans="1:10" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A87" s="93" t="str">
-        <f>RIGHT(D87:D238,4)</f>
+        <f>RIGHT(D87:D239,4)</f>
         <v/>
       </c>
       <c r="B87" s="74" t="s">
@@ -4146,7 +4149,7 @@
     </row>
     <row r="88" spans="1:10" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A88" s="93" t="str">
-        <f>RIGHT(D88:D239,4)</f>
+        <f>RIGHT(D88:D240,4)</f>
         <v>7232</v>
       </c>
       <c r="B88" s="27" t="s">
@@ -4174,7 +4177,7 @@
     </row>
     <row r="89" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="93" t="str">
-        <f>RIGHT(D89:D240,4)</f>
+        <f>RIGHT(D89:D241,4)</f>
         <v>7332</v>
       </c>
       <c r="B89" s="27" t="s">
@@ -4200,7 +4203,7 @@
     </row>
     <row r="90" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="93" t="str">
-        <f>RIGHT(D90:D240,4)</f>
+        <f>RIGHT(D90:D241,4)</f>
         <v>6785</v>
       </c>
       <c r="B90" s="27" t="s">
@@ -4224,7 +4227,7 @@
     </row>
     <row r="91" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="93" t="str">
-        <f>RIGHT(D91:D241,4)</f>
+        <f>RIGHT(D91:D242,4)</f>
         <v>7149</v>
       </c>
       <c r="B91" s="96" t="s">
@@ -4252,7 +4255,7 @@
     </row>
     <row r="92" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="93" t="str">
-        <f>RIGHT(D92:D241,4)</f>
+        <f>RIGHT(D92:D242,4)</f>
         <v>6786</v>
       </c>
       <c r="B92" s="27" t="s">
@@ -4276,7 +4279,7 @@
     </row>
     <row r="93" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="93" t="str">
-        <f>RIGHT(D93:D242,4)</f>
+        <f>RIGHT(D93:D243,4)</f>
         <v>4903</v>
       </c>
       <c r="B93" s="27" t="s">
@@ -4300,7 +4303,7 @@
     </row>
     <row r="94" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="93" t="str">
-        <f>RIGHT(D94:D242,4)</f>
+        <f>RIGHT(D94:D243,4)</f>
         <v>7131</v>
       </c>
       <c r="B94" s="27" t="s">
@@ -4326,7 +4329,7 @@
     </row>
     <row r="95" spans="1:10" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A95" s="93" t="str">
-        <f>RIGHT(D95:D240,4)</f>
+        <f>RIGHT(D95:D241,4)</f>
         <v>7241</v>
       </c>
       <c r="B95" s="27" t="s">
@@ -4356,7 +4359,7 @@
     </row>
     <row r="96" spans="1:10" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A96" s="93" t="str">
-        <f>RIGHT(D96:D243,4)</f>
+        <f>RIGHT(D96:D244,4)</f>
         <v/>
       </c>
       <c r="B96" s="74" t="s">
@@ -4373,7 +4376,7 @@
     </row>
     <row r="97" spans="1:10" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A97" s="93" t="str">
-        <f>RIGHT(D97:D244,4)</f>
+        <f>RIGHT(D97:D245,4)</f>
         <v>7154</v>
       </c>
       <c r="B97" s="27" t="s">
@@ -4401,7 +4404,7 @@
     </row>
     <row r="98" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="93" t="str">
-        <f>RIGHT(D98:D246,4)</f>
+        <f>RIGHT(D98:D247,4)</f>
         <v>6793</v>
       </c>
       <c r="B98" s="27" t="s">
@@ -4425,7 +4428,7 @@
     </row>
     <row r="99" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="93" t="str">
-        <f>RIGHT(D99:D247,4)</f>
+        <f>RIGHT(D99:D248,4)</f>
         <v>6795</v>
       </c>
       <c r="B99" s="27" t="s">
@@ -4449,7 +4452,7 @@
     </row>
     <row r="100" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="93" t="str">
-        <f>RIGHT(D100:D247,4)</f>
+        <f>RIGHT(D100:D248,4)</f>
         <v>6807</v>
       </c>
       <c r="B100" s="27" t="s">
@@ -4473,7 +4476,7 @@
     </row>
     <row r="101" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="93" t="str">
-        <f>RIGHT(D101:D247,4)</f>
+        <f>RIGHT(D101:D248,4)</f>
         <v>7236</v>
       </c>
       <c r="B101" s="27" t="s">
@@ -4503,7 +4506,7 @@
     </row>
     <row r="102" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="93" t="str">
-        <f>RIGHT(D102:D248,4)</f>
+        <f>RIGHT(D102:D249,4)</f>
         <v>7333</v>
       </c>
       <c r="B102" s="27" t="s">
@@ -4529,7 +4532,7 @@
     </row>
     <row r="103" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="93" t="str">
-        <f>RIGHT(D103:D249,4)</f>
+        <f>RIGHT(D103:D250,4)</f>
         <v>6787</v>
       </c>
       <c r="B103" s="27" t="s">
@@ -4553,7 +4556,7 @@
     </row>
     <row r="104" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="93" t="str">
-        <f>RIGHT(D104:D250,4)</f>
+        <f>RIGHT(D104:D251,4)</f>
         <v>6788</v>
       </c>
       <c r="B104" s="27" t="s">
@@ -4577,7 +4580,7 @@
     </row>
     <row r="105" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="93" t="str">
-        <f>RIGHT(D105:D251,4)</f>
+        <f>RIGHT(D105:D252,4)</f>
         <v>7157</v>
       </c>
       <c r="B105" s="27" t="s">
@@ -4601,7 +4604,7 @@
     </row>
     <row r="106" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="93" t="str">
-        <f>RIGHT(D106:D251,4)</f>
+        <f>RIGHT(D106:D252,4)</f>
         <v>6790</v>
       </c>
       <c r="B106" s="27" t="s">
@@ -4625,7 +4628,7 @@
     </row>
     <row r="107" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="93" t="str">
-        <f>RIGHT(D107:D250,4)</f>
+        <f>RIGHT(D107:D251,4)</f>
         <v>7169</v>
       </c>
       <c r="B107" s="64" t="s">
@@ -4653,7 +4656,7 @@
     </row>
     <row r="108" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="93" t="str">
-        <f>RIGHT(D108:D251,4)</f>
+        <f>RIGHT(D108:D252,4)</f>
         <v>6791</v>
       </c>
       <c r="B108" s="64" t="s">
@@ -4677,7 +4680,7 @@
     </row>
     <row r="109" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="93" t="str">
-        <f>RIGHT(D109:D252,4)</f>
+        <f>RIGHT(D109:D253,4)</f>
         <v>7166</v>
       </c>
       <c r="B109" s="64" t="s">
@@ -4703,7 +4706,7 @@
     </row>
     <row r="110" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="93" t="str">
-        <f>RIGHT(D110:D253,4)</f>
+        <f>RIGHT(D110:D254,4)</f>
         <v>6459</v>
       </c>
       <c r="B110" s="64" t="s">
@@ -4729,7 +4732,7 @@
     </row>
     <row r="111" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="93" t="str">
-        <f>RIGHT(D111:D254,4)</f>
+        <f>RIGHT(D111:D255,4)</f>
         <v>6586</v>
       </c>
       <c r="B111" s="64" t="s">
@@ -4753,7 +4756,7 @@
     </row>
     <row r="112" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="93" t="str">
-        <f>RIGHT(D112:D252,4)</f>
+        <f>RIGHT(D112:D253,4)</f>
         <v>6228</v>
       </c>
       <c r="B112" s="64" t="s">
@@ -4777,7 +4780,7 @@
     </row>
     <row r="113" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="93" t="str">
-        <f>RIGHT(D113:D253,4)</f>
+        <f>RIGHT(D113:D254,4)</f>
         <v>7087</v>
       </c>
       <c r="B113" s="64" t="s">
@@ -4803,7 +4806,7 @@
     </row>
     <row r="114" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="93" t="str">
-        <f>RIGHT(D114:D252,4)</f>
+        <f>RIGHT(D114:D253,4)</f>
         <v>5544</v>
       </c>
       <c r="B114" s="27" t="s">
@@ -4833,7 +4836,7 @@
     </row>
     <row r="115" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A115" s="93" t="str">
-        <f t="shared" ref="A115:A120" si="3">RIGHT(D115:D254,4)</f>
+        <f>RIGHT(D115:D255,4)</f>
         <v>6697</v>
       </c>
       <c r="B115" s="27" t="s">
@@ -4863,7 +4866,7 @@
     </row>
     <row r="116" spans="1:10" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A116" s="93" t="str">
-        <f t="shared" si="3"/>
+        <f>RIGHT(D116:D256,4)</f>
         <v/>
       </c>
       <c r="B116" s="74" t="s">
@@ -4880,7 +4883,7 @@
     </row>
     <row r="117" spans="1:10" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A117" s="93" t="str">
-        <f t="shared" si="3"/>
+        <f>RIGHT(D117:D257,4)</f>
         <v>5706</v>
       </c>
       <c r="B117" s="27" t="s">
@@ -4910,7 +4913,7 @@
     </row>
     <row r="118" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="93" t="str">
-        <f t="shared" si="3"/>
+        <f>RIGHT(D118:D258,4)</f>
         <v>6454</v>
       </c>
       <c r="B118" s="27" t="s">
@@ -4940,7 +4943,7 @@
     </row>
     <row r="119" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="93" t="str">
-        <f t="shared" si="3"/>
+        <f>RIGHT(D119:D259,4)</f>
         <v>6222</v>
       </c>
       <c r="B119" s="27" t="s">
@@ -4964,7 +4967,7 @@
     </row>
     <row r="120" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="93" t="str">
-        <f t="shared" si="3"/>
+        <f>RIGHT(D120:D260,4)</f>
         <v>5931</v>
       </c>
       <c r="B120" s="27" t="s">
@@ -4994,7 +4997,7 @@
     </row>
     <row r="121" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="93" t="str">
-        <f>RIGHT(D121:D261,4)</f>
+        <f>RIGHT(D121:D262,4)</f>
         <v>5708</v>
       </c>
       <c r="B121" s="27" t="s">
@@ -5024,7 +5027,7 @@
     </row>
     <row r="122" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="93" t="str">
-        <f>RIGHT(D122:D262,4)</f>
+        <f>RIGHT(D122:D263,4)</f>
         <v>1146</v>
       </c>
       <c r="B122" s="27" t="s">
@@ -5048,7 +5051,7 @@
     </row>
     <row r="123" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="93" t="str">
-        <f>RIGHT(D123:D263,4)</f>
+        <f>RIGHT(D123:D264,4)</f>
         <v>7150</v>
       </c>
       <c r="B123" s="27" t="s">
@@ -5072,7 +5075,7 @@
     </row>
     <row r="124" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="93" t="str">
-        <f>RIGHT(D124:D264,4)</f>
+        <f>RIGHT(D124:D265,4)</f>
         <v>6832</v>
       </c>
       <c r="B124" s="27" t="s">
@@ -5096,7 +5099,7 @@
     </row>
     <row r="125" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="93" t="str">
-        <f>RIGHT(D125:D265,4)</f>
+        <f>RIGHT(D125:D266,4)</f>
         <v>7299</v>
       </c>
       <c r="B125" s="27" t="s">
@@ -5120,7 +5123,7 @@
     </row>
     <row r="126" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="93" t="str">
-        <f>RIGHT(D126:D262,4)</f>
+        <f>RIGHT(D126:D263,4)</f>
         <v>6834</v>
       </c>
       <c r="B126" s="27" t="s">
@@ -5144,7 +5147,7 @@
     </row>
     <row r="127" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="93" t="str">
-        <f>RIGHT(D127:D263,4)</f>
+        <f>RIGHT(D127:D264,4)</f>
         <v>6448</v>
       </c>
       <c r="B127" s="27" t="s">
@@ -5170,7 +5173,7 @@
     </row>
     <row r="128" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="93" t="str">
-        <f>RIGHT(D128:D264,4)</f>
+        <f>RIGHT(D128:D265,4)</f>
         <v>6221</v>
       </c>
       <c r="B128" s="27" t="s">
@@ -5196,7 +5199,7 @@
     </row>
     <row r="129" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="93" t="str">
-        <f>RIGHT(D129:D264,4)</f>
+        <f>RIGHT(D129:D265,4)</f>
         <v>5679</v>
       </c>
       <c r="B129" s="27" t="s">
@@ -5222,7 +5225,7 @@
     </row>
     <row r="130" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="93" t="str">
-        <f>RIGHT(D130:D266,4)</f>
+        <f>RIGHT(D130:D267,4)</f>
         <v>4993</v>
       </c>
       <c r="B130" s="27" t="s">
@@ -5252,7 +5255,7 @@
     </row>
     <row r="131" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="93" t="str">
-        <f>RIGHT(D131:D267,4)</f>
+        <f>RIGHT(D131:D268,4)</f>
         <v>3986</v>
       </c>
       <c r="B131" s="27" t="s">
@@ -5278,7 +5281,7 @@
     </row>
     <row r="132" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="93" t="str">
-        <f>RIGHT(D132:D267,4)</f>
+        <f>RIGHT(D132:D268,4)</f>
         <v>7105</v>
       </c>
       <c r="B132" s="27" t="s">
@@ -5295,7 +5298,7 @@
         <v>0.09</v>
       </c>
       <c r="G132" s="23">
-        <f t="shared" ref="G132:G140" si="4">F132*E132</f>
+        <f t="shared" ref="G132:G141" si="0">F132*E132</f>
         <v>0</v>
       </c>
       <c r="H132" s="14"/>
@@ -5304,7 +5307,7 @@
     </row>
     <row r="133" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="93" t="str">
-        <f>RIGHT(D133:D268,4)</f>
+        <f>RIGHT(D133:D269,4)</f>
         <v>7106</v>
       </c>
       <c r="B133" s="27" t="s">
@@ -5321,7 +5324,7 @@
         <v>0.09</v>
       </c>
       <c r="G133" s="23">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H133" s="14"/>
@@ -5330,7 +5333,7 @@
     </row>
     <row r="134" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="93" t="str">
-        <f>RIGHT(D134:D269,4)</f>
+        <f>RIGHT(D134:D270,4)</f>
         <v>7107</v>
       </c>
       <c r="B134" s="27" t="s">
@@ -5347,7 +5350,7 @@
         <v>0.09</v>
       </c>
       <c r="G134" s="23">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H134" s="14"/>
@@ -5356,7 +5359,7 @@
     </row>
     <row r="135" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="93" t="str">
-        <f>RIGHT(D135:D270,4)</f>
+        <f>RIGHT(D135:D271,4)</f>
         <v>7147</v>
       </c>
       <c r="B135" s="27" t="s">
@@ -5373,7 +5376,7 @@
         <v>0.22</v>
       </c>
       <c r="G135" s="23">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H135" s="14"/>
@@ -5382,7 +5385,7 @@
     </row>
     <row r="136" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="93" t="str">
-        <f>RIGHT(D136:D271,4)</f>
+        <f>RIGHT(D136:D272,4)</f>
         <v>7229</v>
       </c>
       <c r="B136" s="27" t="s">
@@ -5399,7 +5402,7 @@
         <v>0.18</v>
       </c>
       <c r="G136" s="23">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H136" s="14"/>
@@ -5408,7 +5411,7 @@
     </row>
     <row r="137" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="93" t="str">
-        <f>RIGHT(D137:D271,4)</f>
+        <f>RIGHT(D137:D272,4)</f>
         <v>7225</v>
       </c>
       <c r="B137" s="27" t="s">
@@ -5425,7 +5428,7 @@
         <v>0.18</v>
       </c>
       <c r="G137" s="23">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H137" s="14"/>
@@ -5434,7 +5437,7 @@
     </row>
     <row r="138" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="93" t="str">
-        <f>RIGHT(D138:D272,4)</f>
+        <f>RIGHT(D138:D273,4)</f>
         <v>7227</v>
       </c>
       <c r="B138" s="27" t="s">
@@ -5451,7 +5454,7 @@
         <v>0.18</v>
       </c>
       <c r="G138" s="23">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H138" s="14"/>
@@ -5460,7 +5463,7 @@
     </row>
     <row r="139" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="93" t="str">
-        <f>RIGHT(D139:D273,4)</f>
+        <f>RIGHT(D139:D274,4)</f>
         <v>7226</v>
       </c>
       <c r="B139" s="27" t="s">
@@ -5477,7 +5480,7 @@
         <v>0.18</v>
       </c>
       <c r="G139" s="23">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H139" s="14"/>
@@ -5486,7 +5489,7 @@
     </row>
     <row r="140" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="93" t="str">
-        <f>RIGHT(D140:D267,4)</f>
+        <f>RIGHT(D140:D268,4)</f>
         <v>3684</v>
       </c>
       <c r="B140" s="27" t="s">
@@ -5503,7 +5506,7 @@
         <v>0.25</v>
       </c>
       <c r="G140" s="23">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H140" s="14"/>
@@ -5512,209 +5515,209 @@
     </row>
     <row r="141" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="93" t="str">
-        <f>RIGHT(D141:D267,4)</f>
-        <v>7382</v>
+        <f>RIGHT(D141:D269,4)</f>
+        <v>7317</v>
       </c>
       <c r="B141" s="27" t="s">
-        <v>153</v>
+        <v>263</v>
       </c>
       <c r="C141" s="33" t="s">
         <v>27</v>
       </c>
       <c r="D141" s="28">
-        <v>1001203117382</v>
+        <v>1001066567317</v>
       </c>
       <c r="E141" s="24"/>
       <c r="F141" s="23">
-        <v>0.12</v>
+        <v>0.54</v>
       </c>
       <c r="G141" s="23">
-        <f>E141*0.12</f>
+        <f>F141*E141</f>
         <v>0</v>
       </c>
-      <c r="H141" s="14">
-        <v>0.96</v>
-      </c>
-      <c r="I141" s="14">
-        <v>60</v>
-      </c>
+      <c r="H141" s="14"/>
+      <c r="I141" s="14"/>
       <c r="J141" s="39"/>
     </row>
     <row r="142" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="93" t="str">
-        <f>RIGHT(D142:D270,4)</f>
-        <v>4117</v>
+        <f>RIGHT(D142:D268,4)</f>
+        <v>7382</v>
       </c>
       <c r="B142" s="27" t="s">
-        <v>154</v>
-      </c>
-      <c r="C142" s="30" t="s">
-        <v>23</v>
+        <v>153</v>
+      </c>
+      <c r="C142" s="33" t="s">
+        <v>27</v>
       </c>
       <c r="D142" s="28">
-        <v>1001062504117</v>
+        <v>1001203117382</v>
       </c>
       <c r="E142" s="24"/>
       <c r="F142" s="23">
-        <v>0.48749999999999999</v>
+        <v>0.12</v>
       </c>
       <c r="G142" s="23">
-        <f>E142*1</f>
+        <f>E142*0.12</f>
         <v>0</v>
       </c>
       <c r="H142" s="14">
-        <v>3.9</v>
+        <v>0.96</v>
       </c>
       <c r="I142" s="14">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="J142" s="39"/>
     </row>
     <row r="143" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="93" t="str">
         <f>RIGHT(D143:D271,4)</f>
-        <v>3680</v>
+        <v>4117</v>
       </c>
       <c r="B143" s="27" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C143" s="30" t="s">
         <v>23</v>
       </c>
       <c r="D143" s="28">
-        <v>1001062353680</v>
+        <v>1001062504117</v>
       </c>
       <c r="E143" s="24"/>
-      <c r="F143" s="23"/>
+      <c r="F143" s="23">
+        <v>0.48749999999999999</v>
+      </c>
       <c r="G143" s="23">
-        <f>E143</f>
+        <f>E143*1</f>
         <v>0</v>
       </c>
-      <c r="H143" s="14"/>
-      <c r="I143" s="14"/>
+      <c r="H143" s="14">
+        <v>3.9</v>
+      </c>
+      <c r="I143" s="14">
+        <v>120</v>
+      </c>
       <c r="J143" s="39"/>
     </row>
     <row r="144" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="93" t="str">
-        <f>RIGHT(D144:D271,4)</f>
-        <v>5483</v>
+        <f>RIGHT(D144:D272,4)</f>
+        <v>3680</v>
       </c>
       <c r="B144" s="27" t="s">
-        <v>156</v>
-      </c>
-      <c r="C144" s="33" t="s">
-        <v>27</v>
+        <v>155</v>
+      </c>
+      <c r="C144" s="30" t="s">
+        <v>23</v>
       </c>
       <c r="D144" s="28">
-        <v>1001062505483</v>
+        <v>1001062353680</v>
       </c>
       <c r="E144" s="24"/>
-      <c r="F144" s="23">
-        <v>0.25</v>
-      </c>
+      <c r="F144" s="23"/>
       <c r="G144" s="23">
-        <f>E144*0.25</f>
+        <f>E144</f>
         <v>0</v>
       </c>
-      <c r="H144" s="14">
-        <v>2</v>
-      </c>
-      <c r="I144" s="14">
-        <v>120</v>
-      </c>
+      <c r="H144" s="14"/>
+      <c r="I144" s="14"/>
       <c r="J144" s="39"/>
     </row>
-    <row r="145" spans="1:10" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="93" t="str">
         <f>RIGHT(D145:D272,4)</f>
-        <v>6453</v>
+        <v>5483</v>
       </c>
       <c r="B145" s="27" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C145" s="33" t="s">
         <v>27</v>
       </c>
       <c r="D145" s="28">
-        <v>1001202506453</v>
+        <v>1001062505483</v>
       </c>
       <c r="E145" s="24"/>
       <c r="F145" s="23">
-        <v>0.1</v>
+        <v>0.25</v>
       </c>
       <c r="G145" s="23">
-        <f>E145*0.1</f>
+        <f>E145*0.25</f>
         <v>0</v>
       </c>
       <c r="H145" s="14">
-        <v>0.8</v>
+        <v>2</v>
       </c>
       <c r="I145" s="14">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="J145" s="39"/>
     </row>
-    <row r="146" spans="1:10" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:10" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A146" s="93" t="str">
         <f>RIGHT(D146:D273,4)</f>
+        <v>6453</v>
+      </c>
+      <c r="B146" s="27" t="s">
+        <v>157</v>
+      </c>
+      <c r="C146" s="33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D146" s="28">
+        <v>1001202506453</v>
+      </c>
+      <c r="E146" s="24"/>
+      <c r="F146" s="23">
+        <v>0.1</v>
+      </c>
+      <c r="G146" s="23">
+        <f>E146*0.1</f>
+        <v>0</v>
+      </c>
+      <c r="H146" s="14">
+        <v>0.8</v>
+      </c>
+      <c r="I146" s="14">
+        <v>60</v>
+      </c>
+      <c r="J146" s="39"/>
+    </row>
+    <row r="147" spans="1:10" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A147" s="93" t="str">
+        <f>RIGHT(D147:D274,4)</f>
         <v/>
       </c>
-      <c r="B146" s="74" t="s">
+      <c r="B147" s="74" t="s">
         <v>158</v>
       </c>
-      <c r="C146" s="74"/>
-      <c r="D146" s="74"/>
-      <c r="E146" s="74"/>
-      <c r="F146" s="73"/>
-      <c r="G146" s="74"/>
-      <c r="H146" s="74"/>
-      <c r="I146" s="74"/>
-      <c r="J146" s="75"/>
-    </row>
-    <row r="147" spans="1:10" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A147" s="93" t="str">
-        <f>RIGHT(D147:D277,4)</f>
-        <v>6470</v>
-      </c>
-      <c r="B147" s="29" t="s">
-        <v>159</v>
-      </c>
-      <c r="C147" s="32" t="s">
-        <v>23</v>
-      </c>
-      <c r="D147" s="80">
-        <v>1001092436470</v>
-      </c>
-      <c r="E147" s="24"/>
-      <c r="F147" s="23"/>
-      <c r="G147" s="23">
-        <f>E147*1</f>
-        <v>0</v>
-      </c>
-      <c r="H147" s="14"/>
-      <c r="I147" s="14"/>
-      <c r="J147" s="39"/>
-    </row>
-    <row r="148" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C147" s="74"/>
+      <c r="D147" s="74"/>
+      <c r="E147" s="74"/>
+      <c r="F147" s="73"/>
+      <c r="G147" s="74"/>
+      <c r="H147" s="74"/>
+      <c r="I147" s="74"/>
+      <c r="J147" s="75"/>
+    </row>
+    <row r="148" spans="1:10" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A148" s="93" t="str">
         <f>RIGHT(D148:D278,4)</f>
-        <v>6495</v>
+        <v>6470</v>
       </c>
       <c r="B148" s="29" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C148" s="32" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D148" s="80">
-        <v>1001092436495</v>
+        <v>1001092436470</v>
       </c>
       <c r="E148" s="24"/>
-      <c r="F148" s="23">
-        <v>0.3</v>
-      </c>
+      <c r="F148" s="23"/>
       <c r="G148" s="23">
-        <f>F148*E148</f>
+        <f>E148*1</f>
         <v>0</v>
       </c>
       <c r="H148" s="14"/>
@@ -5724,20 +5727,20 @@
     <row r="149" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" s="93" t="str">
         <f>RIGHT(D149:D279,4)</f>
-        <v>7235</v>
+        <v>6495</v>
       </c>
       <c r="B149" s="29" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C149" s="32" t="s">
         <v>27</v>
       </c>
       <c r="D149" s="80">
-        <v>1001095227235</v>
+        <v>1001092436495</v>
       </c>
       <c r="E149" s="24"/>
       <c r="F149" s="23">
-        <v>0.35</v>
+        <v>0.3</v>
       </c>
       <c r="G149" s="23">
         <f>F149*E149</f>
@@ -5750,20 +5753,20 @@
     <row r="150" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" s="93" t="str">
         <f>RIGHT(D150:D280,4)</f>
-        <v>6411</v>
+        <v>7235</v>
       </c>
       <c r="B150" s="29" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C150" s="32" t="s">
         <v>27</v>
       </c>
       <c r="D150" s="80">
-        <v>1001093316411</v>
+        <v>1001095227235</v>
       </c>
       <c r="E150" s="24"/>
       <c r="F150" s="23">
-        <v>0.3</v>
+        <v>0.35</v>
       </c>
       <c r="G150" s="23">
         <f>F150*E150</f>
@@ -5775,22 +5778,24 @@
     </row>
     <row r="151" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" s="93" t="str">
-        <f>RIGHT(D151:D278,4)</f>
-        <v>6866</v>
+        <f>RIGHT(D151:D281,4)</f>
+        <v>6411</v>
       </c>
       <c r="B151" s="29" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C151" s="32" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="D151" s="80">
-        <v>1001095716866</v>
+        <v>1001093316411</v>
       </c>
       <c r="E151" s="24"/>
-      <c r="F151" s="23"/>
+      <c r="F151" s="23">
+        <v>0.3</v>
+      </c>
       <c r="G151" s="23">
-        <f>E151*1</f>
+        <f>F151*E151</f>
         <v>0</v>
       </c>
       <c r="H151" s="14"/>
@@ -5799,47 +5804,41 @@
     </row>
     <row r="152" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" s="93" t="str">
-        <f>RIGHT(D152:D275,4)</f>
-        <v>3215</v>
-      </c>
-      <c r="B152" s="27" t="s">
-        <v>164</v>
-      </c>
-      <c r="C152" s="37" t="s">
-        <v>27</v>
-      </c>
-      <c r="D152" s="51">
-        <v>1001094053215</v>
+        <f>RIGHT(D152:D279,4)</f>
+        <v>6866</v>
+      </c>
+      <c r="B152" s="29" t="s">
+        <v>163</v>
+      </c>
+      <c r="C152" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="D152" s="80">
+        <v>1001095716866</v>
       </c>
       <c r="E152" s="24"/>
-      <c r="F152" s="23">
-        <v>0.4</v>
-      </c>
+      <c r="F152" s="23"/>
       <c r="G152" s="23">
-        <f>E152*0.4</f>
+        <f>E152*1</f>
         <v>0</v>
       </c>
-      <c r="H152" s="14">
-        <v>3.2</v>
-      </c>
-      <c r="I152" s="14">
-        <v>60</v>
-      </c>
+      <c r="H152" s="14"/>
+      <c r="I152" s="14"/>
       <c r="J152" s="39"/>
     </row>
-    <row r="153" spans="1:10" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" s="93" t="str">
         <f>RIGHT(D153:D276,4)</f>
-        <v>7245</v>
+        <v>3215</v>
       </c>
       <c r="B153" s="27" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C153" s="37" t="s">
         <v>27</v>
       </c>
       <c r="D153" s="51">
-        <v>1001092687245</v>
+        <v>1001094053215</v>
       </c>
       <c r="E153" s="24"/>
       <c r="F153" s="23">
@@ -5849,101 +5848,105 @@
         <f>E153*0.4</f>
         <v>0</v>
       </c>
-      <c r="H153" s="14"/>
-      <c r="I153" s="14"/>
+      <c r="H153" s="14">
+        <v>3.2</v>
+      </c>
+      <c r="I153" s="14">
+        <v>60</v>
+      </c>
       <c r="J153" s="39"/>
     </row>
-    <row r="154" spans="1:10" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:10" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A154" s="93" t="str">
-        <f>RIGHT(D154:D278,4)</f>
+        <f>RIGHT(D154:D277,4)</f>
+        <v>7245</v>
+      </c>
+      <c r="B154" s="27" t="s">
+        <v>165</v>
+      </c>
+      <c r="C154" s="37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D154" s="51">
+        <v>1001092687245</v>
+      </c>
+      <c r="E154" s="24"/>
+      <c r="F154" s="23">
+        <v>0.4</v>
+      </c>
+      <c r="G154" s="23">
+        <f>E154*0.4</f>
+        <v>0</v>
+      </c>
+      <c r="H154" s="14"/>
+      <c r="I154" s="14"/>
+      <c r="J154" s="39"/>
+    </row>
+    <row r="155" spans="1:10" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A155" s="93" t="str">
+        <f>RIGHT(D155:D279,4)</f>
         <v/>
       </c>
-      <c r="B154" s="74" t="s">
+      <c r="B155" s="74" t="s">
         <v>166</v>
       </c>
-      <c r="C154" s="74"/>
-      <c r="D154" s="74"/>
-      <c r="E154" s="74"/>
-      <c r="F154" s="73"/>
-      <c r="G154" s="74"/>
-      <c r="H154" s="74"/>
-      <c r="I154" s="74"/>
-      <c r="J154" s="75"/>
-    </row>
-    <row r="155" spans="1:10" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A155" s="93" t="str">
-        <f>RIGHT(D155:D281,4)</f>
-        <v>7090</v>
-      </c>
-      <c r="B155" s="47" t="s">
-        <v>167</v>
-      </c>
-      <c r="C155" s="35" t="s">
-        <v>27</v>
-      </c>
-      <c r="D155" s="28">
-        <v>1001084217090</v>
-      </c>
-      <c r="E155" s="24"/>
-      <c r="F155" s="23">
-        <v>0.3</v>
-      </c>
-      <c r="G155" s="23">
-        <f>E155*F155</f>
-        <v>0</v>
-      </c>
-      <c r="H155" s="14"/>
-      <c r="I155" s="14">
-        <v>50</v>
-      </c>
-      <c r="J155" s="39"/>
-    </row>
-    <row r="156" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C155" s="74"/>
+      <c r="D155" s="74"/>
+      <c r="E155" s="74"/>
+      <c r="F155" s="73"/>
+      <c r="G155" s="74"/>
+      <c r="H155" s="74"/>
+      <c r="I155" s="74"/>
+      <c r="J155" s="75"/>
+    </row>
+    <row r="156" spans="1:10" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A156" s="93" t="str">
         <f>RIGHT(D156:D282,4)</f>
-        <v>4691</v>
+        <v>7090</v>
       </c>
       <c r="B156" s="47" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C156" s="35" t="s">
         <v>27</v>
       </c>
       <c r="D156" s="28">
-        <v>1001083424691</v>
+        <v>1001084217090</v>
       </c>
       <c r="E156" s="24"/>
       <c r="F156" s="23">
         <v>0.3</v>
       </c>
       <c r="G156" s="23">
-        <f t="shared" ref="G156:G162" si="5">F156*E156</f>
+        <f>E156*F156</f>
         <v>0</v>
       </c>
       <c r="H156" s="14"/>
-      <c r="I156" s="14"/>
-      <c r="J156" s="92"/>
+      <c r="I156" s="14">
+        <v>50</v>
+      </c>
+      <c r="J156" s="39"/>
     </row>
     <row r="157" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A157" s="93" t="str">
         <f>RIGHT(D157:D283,4)</f>
-        <v>7187</v>
+        <v>4691</v>
       </c>
       <c r="B157" s="47" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C157" s="35" t="s">
         <v>27</v>
       </c>
       <c r="D157" s="28">
-        <v>1001085637187</v>
+        <v>1001083424691</v>
       </c>
       <c r="E157" s="24"/>
       <c r="F157" s="23">
         <v>0.3</v>
       </c>
       <c r="G157" s="23">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="G157:G163" si="1">F157*E157</f>
         <v>0</v>
       </c>
       <c r="H157" s="14"/>
@@ -5953,23 +5956,23 @@
     <row r="158" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158" s="93" t="str">
         <f>RIGHT(D158:D284,4)</f>
-        <v>6201</v>
+        <v>7187</v>
       </c>
       <c r="B158" s="47" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C158" s="35" t="s">
         <v>27</v>
       </c>
       <c r="D158" s="28">
-        <v>1001225636201</v>
+        <v>1001085637187</v>
       </c>
       <c r="E158" s="24"/>
       <c r="F158" s="23">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="G158" s="23">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H158" s="14"/>
@@ -5978,24 +5981,24 @@
     </row>
     <row r="159" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A159" s="93" t="str">
-        <f>RIGHT(D159:D284,4)</f>
-        <v>6842</v>
+        <f>RIGHT(D159:D285,4)</f>
+        <v>6201</v>
       </c>
       <c r="B159" s="47" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C159" s="35" t="s">
         <v>27</v>
       </c>
       <c r="D159" s="28">
-        <v>1001080216842</v>
+        <v>1001225636201</v>
       </c>
       <c r="E159" s="24"/>
       <c r="F159" s="23">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="G159" s="23">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H159" s="14"/>
@@ -6004,24 +6007,24 @@
     </row>
     <row r="160" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160" s="93" t="str">
-        <f>RIGHT(D160:D284,4)</f>
-        <v>6492</v>
+        <f>RIGHT(D160:D285,4)</f>
+        <v>6842</v>
       </c>
       <c r="B160" s="47" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C160" s="35" t="s">
         <v>27</v>
       </c>
       <c r="D160" s="28">
-        <v>1001084226492</v>
+        <v>1001080216842</v>
       </c>
       <c r="E160" s="24"/>
       <c r="F160" s="23">
         <v>0.3</v>
       </c>
       <c r="G160" s="23">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H160" s="14"/>
@@ -6030,24 +6033,24 @@
     </row>
     <row r="161" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A161" s="93" t="str">
-        <f>RIGHT(D161:D282,4)</f>
-        <v>6279</v>
+        <f>RIGHT(D161:D285,4)</f>
+        <v>6492</v>
       </c>
       <c r="B161" s="47" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C161" s="35" t="s">
         <v>27</v>
       </c>
       <c r="D161" s="28">
-        <v>1001220286279</v>
+        <v>1001084226492</v>
       </c>
       <c r="E161" s="24"/>
       <c r="F161" s="23">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="G161" s="23">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H161" s="14"/>
@@ -6057,23 +6060,23 @@
     <row r="162" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A162" s="93" t="str">
         <f>RIGHT(D162:D283,4)</f>
-        <v>4786</v>
+        <v>6279</v>
       </c>
       <c r="B162" s="47" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C162" s="35" t="s">
         <v>27</v>
       </c>
       <c r="D162" s="28">
-        <v>1001053944786</v>
+        <v>1001220286279</v>
       </c>
       <c r="E162" s="24"/>
       <c r="F162" s="23">
-        <v>7.0000000000000007E-2</v>
+        <v>0.15</v>
       </c>
       <c r="G162" s="23">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H162" s="14"/>
@@ -6083,23 +6086,23 @@
     <row r="163" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A163" s="93" t="str">
         <f>RIGHT(D163:D284,4)</f>
-        <v>7052</v>
+        <v>4786</v>
       </c>
       <c r="B163" s="47" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C163" s="35" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="D163" s="28">
-        <v>1001204447052</v>
+        <v>1001053944786</v>
       </c>
       <c r="E163" s="24"/>
       <c r="F163" s="23">
-        <v>1</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="G163" s="23">
-        <f>E163</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H163" s="14"/>
@@ -6108,17 +6111,17 @@
     </row>
     <row r="164" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A164" s="93" t="str">
-        <f>RIGHT(D164:D284,4)</f>
-        <v>7053</v>
+        <f>RIGHT(D164:D285,4)</f>
+        <v>7052</v>
       </c>
       <c r="B164" s="47" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C164" s="35" t="s">
         <v>23</v>
       </c>
       <c r="D164" s="28">
-        <v>1001223297053</v>
+        <v>1001204447052</v>
       </c>
       <c r="E164" s="24"/>
       <c r="F164" s="23">
@@ -6134,47 +6137,47 @@
     </row>
     <row r="165" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A165" s="93" t="str">
-        <f>RIGHT(D165:D284,4)</f>
-        <v>7092</v>
-      </c>
-      <c r="B165" s="27" t="s">
-        <v>177</v>
-      </c>
-      <c r="C165" s="33" t="s">
-        <v>27</v>
+        <f>RIGHT(D165:D285,4)</f>
+        <v>7053</v>
+      </c>
+      <c r="B165" s="47" t="s">
+        <v>176</v>
+      </c>
+      <c r="C165" s="35" t="s">
+        <v>23</v>
       </c>
       <c r="D165" s="28">
-        <v>1001223297092</v>
+        <v>1001223297053</v>
       </c>
       <c r="E165" s="24"/>
       <c r="F165" s="23">
-        <v>0.14000000000000001</v>
+        <v>1</v>
       </c>
       <c r="G165" s="23">
-        <f>F165*E165</f>
+        <f>E165</f>
         <v>0</v>
       </c>
       <c r="H165" s="14"/>
       <c r="I165" s="14"/>
-      <c r="J165" s="39"/>
+      <c r="J165" s="92"/>
     </row>
     <row r="166" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A166" s="93" t="str">
         <f>RIGHT(D166:D285,4)</f>
-        <v>7103</v>
+        <v>7092</v>
       </c>
       <c r="B166" s="27" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C166" s="33" t="s">
         <v>27</v>
       </c>
       <c r="D166" s="28">
-        <v>1001223297103</v>
+        <v>1001223297092</v>
       </c>
       <c r="E166" s="24"/>
       <c r="F166" s="23">
-        <v>0.18</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="G166" s="23">
         <f>F166*E166</f>
@@ -6182,56 +6185,65 @@
       </c>
       <c r="H166" s="14"/>
       <c r="I166" s="14"/>
-      <c r="J166" s="92"/>
-    </row>
-    <row r="167" spans="1:10" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J166" s="39"/>
+    </row>
+    <row r="167" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A167" s="93" t="str">
-        <f>RIGHT(D167:D282,4)</f>
-        <v>6919</v>
-      </c>
-      <c r="B167" s="47" t="s">
-        <v>179</v>
-      </c>
-      <c r="C167" s="35" t="s">
+        <f>RIGHT(D167:D286,4)</f>
+        <v>7103</v>
+      </c>
+      <c r="B167" s="27" t="s">
+        <v>178</v>
+      </c>
+      <c r="C167" s="33" t="s">
         <v>27</v>
       </c>
       <c r="D167" s="28">
-        <v>1001223296919</v>
+        <v>1001223297103</v>
       </c>
       <c r="E167" s="24"/>
-      <c r="F167" s="23"/>
+      <c r="F167" s="23">
+        <v>0.18</v>
+      </c>
       <c r="G167" s="23">
-        <f>E167*0.18</f>
+        <f>F167*E167</f>
         <v>0</v>
       </c>
       <c r="H167" s="14"/>
       <c r="I167" s="14"/>
       <c r="J167" s="92"/>
     </row>
-    <row r="168" spans="1:10" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:10" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A168" s="93" t="str">
         <f>RIGHT(D168:D283,4)</f>
-        <v/>
-      </c>
-      <c r="B168" s="74" t="s">
-        <v>180</v>
-      </c>
-      <c r="C168" s="74"/>
-      <c r="D168" s="74"/>
-      <c r="E168" s="74"/>
-      <c r="F168" s="73"/>
-      <c r="G168" s="74"/>
-      <c r="H168" s="74"/>
-      <c r="I168" s="74"/>
-      <c r="J168" s="75"/>
+        <v>6919</v>
+      </c>
+      <c r="B168" s="47" t="s">
+        <v>179</v>
+      </c>
+      <c r="C168" s="35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D168" s="28">
+        <v>1001223296919</v>
+      </c>
+      <c r="E168" s="24"/>
+      <c r="F168" s="23"/>
+      <c r="G168" s="23">
+        <f>E168*0.18</f>
+        <v>0</v>
+      </c>
+      <c r="H168" s="14"/>
+      <c r="I168" s="14"/>
+      <c r="J168" s="92"/>
     </row>
     <row r="169" spans="1:10" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A169" s="93" t="str">
-        <f>RIGHT(D169:D286,4)</f>
+        <f>RIGHT(D169:D284,4)</f>
         <v/>
       </c>
       <c r="B169" s="74" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C169" s="74"/>
       <c r="D169" s="74"/>
@@ -6242,73 +6254,66 @@
       <c r="I169" s="74"/>
       <c r="J169" s="75"/>
     </row>
-    <row r="170" spans="1:10" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:10" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A170" s="93" t="str">
         <f>RIGHT(D170:D287,4)</f>
-        <v>6314</v>
-      </c>
-      <c r="B170" s="47" t="s">
-        <v>182</v>
-      </c>
-      <c r="C170" s="33" t="s">
-        <v>27</v>
-      </c>
-      <c r="D170" s="28">
-        <v>1002112606314</v>
-      </c>
-      <c r="E170" s="24"/>
-      <c r="F170" s="23">
-        <v>0.5</v>
-      </c>
-      <c r="G170" s="23">
-        <f>E170*0.5</f>
-        <v>0</v>
-      </c>
-      <c r="H170" s="14">
-        <v>8</v>
-      </c>
-      <c r="I170" s="72">
-        <v>120</v>
-      </c>
-      <c r="J170" s="39"/>
-    </row>
-    <row r="171" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v/>
+      </c>
+      <c r="B170" s="74" t="s">
+        <v>181</v>
+      </c>
+      <c r="C170" s="74"/>
+      <c r="D170" s="74"/>
+      <c r="E170" s="74"/>
+      <c r="F170" s="73"/>
+      <c r="G170" s="74"/>
+      <c r="H170" s="74"/>
+      <c r="I170" s="74"/>
+      <c r="J170" s="75"/>
+    </row>
+    <row r="171" spans="1:10" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A171" s="93" t="str">
         <f>RIGHT(D171:D288,4)</f>
-        <v>6155</v>
+        <v>6314</v>
       </c>
       <c r="B171" s="47" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C171" s="33" t="s">
         <v>27</v>
       </c>
       <c r="D171" s="28">
-        <v>1002115036155</v>
+        <v>1002112606314</v>
       </c>
       <c r="E171" s="24"/>
-      <c r="F171" s="23"/>
+      <c r="F171" s="23">
+        <v>0.5</v>
+      </c>
       <c r="G171" s="23">
-        <f>E171*0.45</f>
+        <f>E171*0.5</f>
         <v>0</v>
       </c>
-      <c r="H171" s="14"/>
-      <c r="I171" s="72"/>
+      <c r="H171" s="14">
+        <v>8</v>
+      </c>
+      <c r="I171" s="72">
+        <v>120</v>
+      </c>
       <c r="J171" s="39"/>
     </row>
     <row r="172" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A172" s="93" t="str">
         <f>RIGHT(D172:D289,4)</f>
-        <v>6157</v>
+        <v>6155</v>
       </c>
       <c r="B172" s="47" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C172" s="33" t="s">
         <v>27</v>
       </c>
       <c r="D172" s="28">
-        <v>1002115056157</v>
+        <v>1002115036155</v>
       </c>
       <c r="E172" s="24"/>
       <c r="F172" s="23"/>
@@ -6320,174 +6325,168 @@
       <c r="I172" s="72"/>
       <c r="J172" s="39"/>
     </row>
-    <row r="173" spans="1:10" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A173" s="93" t="str">
-        <f t="shared" ref="A173:A184" si="6">RIGHT(D173:D288,4)</f>
+        <f>RIGHT(D173:D290,4)</f>
+        <v>6157</v>
+      </c>
+      <c r="B173" s="47" t="s">
+        <v>184</v>
+      </c>
+      <c r="C173" s="33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D173" s="28">
+        <v>1002115056157</v>
+      </c>
+      <c r="E173" s="24"/>
+      <c r="F173" s="23"/>
+      <c r="G173" s="23">
+        <f>E173*0.45</f>
+        <v>0</v>
+      </c>
+      <c r="H173" s="14"/>
+      <c r="I173" s="72"/>
+      <c r="J173" s="39"/>
+    </row>
+    <row r="174" spans="1:10" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A174" s="93" t="str">
+        <f t="shared" ref="A174:A185" si="2">RIGHT(D174:D289,4)</f>
         <v>6313</v>
       </c>
-      <c r="B173" s="47" t="s">
+      <c r="B174" s="47" t="s">
         <v>185</v>
       </c>
-      <c r="C173" s="36" t="s">
+      <c r="C174" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="D173" s="28">
+      <c r="D174" s="28">
         <v>1002112606313</v>
       </c>
-      <c r="E173" s="24"/>
-      <c r="F173" s="23">
+      <c r="E174" s="24"/>
+      <c r="F174" s="23">
         <v>0.9</v>
       </c>
-      <c r="G173" s="23">
-        <f>E173*0.9</f>
+      <c r="G174" s="23">
+        <f>E174*0.9</f>
         <v>0</v>
       </c>
-      <c r="H173" s="14">
+      <c r="H174" s="14">
         <v>9</v>
       </c>
-      <c r="I173" s="72">
+      <c r="I174" s="72">
         <v>120</v>
       </c>
-      <c r="J173" s="39"/>
-    </row>
-    <row r="174" spans="1:10" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A174" s="93" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="B174" s="74" t="s">
-        <v>186</v>
-      </c>
-      <c r="C174" s="74"/>
-      <c r="D174" s="74"/>
-      <c r="E174" s="74"/>
-      <c r="F174" s="73"/>
-      <c r="G174" s="74"/>
-      <c r="H174" s="74"/>
-      <c r="I174" s="74"/>
-      <c r="J174" s="75"/>
+      <c r="J174" s="39"/>
     </row>
     <row r="175" spans="1:10" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A175" s="93" t="str">
-        <f t="shared" si="6"/>
-        <v>4945</v>
-      </c>
-      <c r="B175" s="47" t="s">
-        <v>187</v>
-      </c>
-      <c r="C175" s="36" t="s">
-        <v>27</v>
-      </c>
-      <c r="D175" s="28">
-        <v>1002151784945</v>
-      </c>
-      <c r="E175" s="24"/>
-      <c r="F175" s="23">
-        <v>0.5</v>
-      </c>
-      <c r="G175" s="23">
-        <f>E175*0.5</f>
-        <v>0</v>
-      </c>
-      <c r="H175" s="14">
-        <v>8</v>
-      </c>
-      <c r="I175" s="72">
-        <v>120</v>
-      </c>
-      <c r="J175" s="39"/>
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="B175" s="74" t="s">
+        <v>186</v>
+      </c>
+      <c r="C175" s="74"/>
+      <c r="D175" s="74"/>
+      <c r="E175" s="74"/>
+      <c r="F175" s="73"/>
+      <c r="G175" s="74"/>
+      <c r="H175" s="74"/>
+      <c r="I175" s="74"/>
+      <c r="J175" s="75"/>
     </row>
     <row r="176" spans="1:10" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A176" s="93" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
+        <v>4945</v>
+      </c>
+      <c r="B176" s="47" t="s">
+        <v>187</v>
+      </c>
+      <c r="C176" s="36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D176" s="28">
+        <v>1002151784945</v>
+      </c>
+      <c r="E176" s="24"/>
+      <c r="F176" s="23">
+        <v>0.5</v>
+      </c>
+      <c r="G176" s="23">
+        <f>E176*0.5</f>
+        <v>0</v>
+      </c>
+      <c r="H176" s="14">
+        <v>8</v>
+      </c>
+      <c r="I176" s="72">
+        <v>120</v>
+      </c>
+      <c r="J176" s="39"/>
+    </row>
+    <row r="177" spans="1:11" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A177" s="93" t="str">
+        <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="B176" s="74" t="s">
+      <c r="B177" s="74" t="s">
         <v>188</v>
       </c>
-      <c r="C176" s="74"/>
-      <c r="D176" s="74"/>
-      <c r="E176" s="74"/>
-      <c r="F176" s="73"/>
-      <c r="G176" s="74"/>
-      <c r="H176" s="74"/>
-      <c r="I176" s="74"/>
-      <c r="J176" s="75"/>
-    </row>
-    <row r="177" spans="1:11" s="88" customFormat="1" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A177" s="93" t="str">
-        <f t="shared" si="6"/>
+      <c r="C177" s="74"/>
+      <c r="D177" s="74"/>
+      <c r="E177" s="74"/>
+      <c r="F177" s="73"/>
+      <c r="G177" s="74"/>
+      <c r="H177" s="74"/>
+      <c r="I177" s="74"/>
+      <c r="J177" s="75"/>
+    </row>
+    <row r="178" spans="1:11" s="88" customFormat="1" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A178" s="93" t="str">
+        <f t="shared" si="2"/>
         <v>4956</v>
       </c>
-      <c r="B177" s="89" t="s">
+      <c r="B178" s="89" t="s">
         <v>189</v>
       </c>
-      <c r="C177" s="90" t="s">
+      <c r="C178" s="90" t="s">
         <v>27</v>
       </c>
-      <c r="D177" s="83">
+      <c r="D178" s="83">
         <v>1002133974956</v>
       </c>
-      <c r="E177" s="84"/>
-      <c r="F177" s="85">
+      <c r="E178" s="84"/>
+      <c r="F178" s="85">
         <v>0.42</v>
       </c>
-      <c r="G177" s="85">
-        <f>E177*0.42</f>
-        <v>0</v>
-      </c>
-      <c r="H177" s="86">
-        <v>4.2</v>
-      </c>
-      <c r="I177" s="91">
-        <v>120</v>
-      </c>
-      <c r="J177" s="86"/>
-      <c r="K177" s="87"/>
-    </row>
-    <row r="178" spans="1:11" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A178" s="93" t="str">
-        <f t="shared" si="6"/>
-        <v>1762</v>
-      </c>
-      <c r="B178" s="47" t="s">
-        <v>190</v>
-      </c>
-      <c r="C178" s="33" t="s">
-        <v>27</v>
-      </c>
-      <c r="D178" s="28">
-        <v>1002131151762</v>
-      </c>
-      <c r="E178" s="24"/>
-      <c r="F178" s="23">
-        <v>0.42</v>
-      </c>
-      <c r="G178" s="23">
+      <c r="G178" s="85">
         <f>E178*0.42</f>
         <v>0</v>
       </c>
-      <c r="H178" s="14">
+      <c r="H178" s="86">
         <v>4.2</v>
       </c>
-      <c r="I178" s="72">
+      <c r="I178" s="91">
         <v>120</v>
       </c>
-      <c r="J178" s="39"/>
-    </row>
-    <row r="179" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J178" s="86"/>
+      <c r="K178" s="87"/>
+    </row>
+    <row r="179" spans="1:11" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A179" s="93" t="str">
-        <f t="shared" si="6"/>
-        <v>1764</v>
+        <f t="shared" si="2"/>
+        <v>1762</v>
       </c>
       <c r="B179" s="47" t="s">
-        <v>191</v>
-      </c>
-      <c r="C179" s="36" t="s">
+        <v>190</v>
+      </c>
+      <c r="C179" s="33" t="s">
         <v>27</v>
       </c>
       <c r="D179" s="28">
-        <v>1002131181764</v>
+        <v>1002131151762</v>
       </c>
       <c r="E179" s="24"/>
       <c r="F179" s="23">
@@ -6505,30 +6504,43 @@
       </c>
       <c r="J179" s="39"/>
     </row>
-    <row r="180" spans="1:11" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A180" s="93" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="B180" s="74" t="s">
-        <v>192</v>
-      </c>
-      <c r="C180" s="74"/>
-      <c r="D180" s="74"/>
-      <c r="E180" s="74"/>
-      <c r="F180" s="73"/>
-      <c r="G180" s="74"/>
-      <c r="H180" s="74"/>
-      <c r="I180" s="74"/>
-      <c r="J180" s="75"/>
+        <f t="shared" si="2"/>
+        <v>1764</v>
+      </c>
+      <c r="B180" s="47" t="s">
+        <v>191</v>
+      </c>
+      <c r="C180" s="36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D180" s="28">
+        <v>1002131181764</v>
+      </c>
+      <c r="E180" s="24"/>
+      <c r="F180" s="23">
+        <v>0.42</v>
+      </c>
+      <c r="G180" s="23">
+        <f>E180*0.42</f>
+        <v>0</v>
+      </c>
+      <c r="H180" s="14">
+        <v>4.2</v>
+      </c>
+      <c r="I180" s="72">
+        <v>120</v>
+      </c>
+      <c r="J180" s="39"/>
     </row>
     <row r="181" spans="1:11" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A181" s="93" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="B181" s="74" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C181" s="74"/>
       <c r="D181" s="74"/>
@@ -6541,131 +6553,138 @@
     </row>
     <row r="182" spans="1:11" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A182" s="93" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="B182" s="74" t="s">
+        <v>193</v>
+      </c>
+      <c r="C182" s="74"/>
+      <c r="D182" s="74"/>
+      <c r="E182" s="74"/>
+      <c r="F182" s="73"/>
+      <c r="G182" s="74"/>
+      <c r="H182" s="74"/>
+      <c r="I182" s="74"/>
+      <c r="J182" s="75"/>
+    </row>
+    <row r="183" spans="1:11" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A183" s="93" t="str">
+        <f t="shared" si="2"/>
         <v>6004</v>
       </c>
-      <c r="B182" s="47" t="s">
+      <c r="B183" s="47" t="s">
         <v>194</v>
       </c>
-      <c r="C182" s="36" t="s">
+      <c r="C183" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="D182" s="68" t="s">
+      <c r="D183" s="68" t="s">
         <v>195</v>
-      </c>
-      <c r="E182" s="24"/>
-      <c r="F182" s="23">
-        <v>1</v>
-      </c>
-      <c r="G182" s="23">
-        <f>E182*1</f>
-        <v>0</v>
-      </c>
-      <c r="H182" s="14">
-        <v>8</v>
-      </c>
-      <c r="I182" s="72">
-        <v>120</v>
-      </c>
-      <c r="J182" s="39"/>
-    </row>
-    <row r="183" spans="1:11" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A183" s="93" t="str">
-        <f t="shared" si="6"/>
-        <v>5417</v>
-      </c>
-      <c r="B183" s="47" t="s">
-        <v>196</v>
-      </c>
-      <c r="C183" s="30" t="s">
-        <v>23</v>
-      </c>
-      <c r="D183" s="68" t="s">
-        <v>197</v>
       </c>
       <c r="E183" s="24"/>
       <c r="F183" s="23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G183" s="23">
         <f>E183*1</f>
         <v>0</v>
       </c>
       <c r="H183" s="14">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="I183" s="72">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="J183" s="39"/>
     </row>
-    <row r="184" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:11" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A184" s="93" t="str">
-        <f t="shared" si="6"/>
-        <v>6019</v>
+        <f t="shared" si="2"/>
+        <v>5417</v>
       </c>
       <c r="B184" s="47" t="s">
-        <v>198</v>
-      </c>
-      <c r="C184" s="36" t="s">
-        <v>27</v>
-      </c>
-      <c r="D184" s="69" t="s">
-        <v>199</v>
+        <v>196</v>
+      </c>
+      <c r="C184" s="30" t="s">
+        <v>23</v>
+      </c>
+      <c r="D184" s="68" t="s">
+        <v>197</v>
       </c>
       <c r="E184" s="24"/>
       <c r="F184" s="23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G184" s="23">
         <f>E184*1</f>
         <v>0</v>
       </c>
       <c r="H184" s="14">
+        <v>6</v>
+      </c>
+      <c r="I184" s="72">
+        <v>90</v>
+      </c>
+      <c r="J184" s="39"/>
+    </row>
+    <row r="185" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A185" s="93" t="str">
+        <f t="shared" si="2"/>
+        <v>6019</v>
+      </c>
+      <c r="B185" s="47" t="s">
+        <v>198</v>
+      </c>
+      <c r="C185" s="36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D185" s="69" t="s">
+        <v>199</v>
+      </c>
+      <c r="E185" s="24"/>
+      <c r="F185" s="23">
+        <v>1</v>
+      </c>
+      <c r="G185" s="23">
+        <f>E185*1</f>
+        <v>0</v>
+      </c>
+      <c r="H185" s="14">
         <v>12</v>
       </c>
-      <c r="I184" s="72">
+      <c r="I185" s="72">
         <v>120</v>
       </c>
-      <c r="J184" s="39"/>
-    </row>
-    <row r="185" spans="1:11" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A185" s="77"/>
-      <c r="B185" s="77" t="s">
+      <c r="J185" s="39"/>
+    </row>
+    <row r="186" spans="1:11" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A186" s="77"/>
+      <c r="B186" s="77" t="s">
         <v>200</v>
       </c>
-      <c r="C185" s="16"/>
-      <c r="D185" s="48"/>
-      <c r="E185" s="17">
-        <f>SUM(E5:E184)</f>
+      <c r="C186" s="16"/>
+      <c r="D186" s="48"/>
+      <c r="E186" s="17">
+        <f>SUM(E5:E185)</f>
         <v>0</v>
       </c>
-      <c r="F185" s="17">
-        <f>SUM(F10:F184)</f>
-        <v>46.96333333333331</v>
-      </c>
-      <c r="G185" s="17">
-        <f>SUM(G11:G184)</f>
+      <c r="F186" s="17">
+        <f>SUM(F10:F185)</f>
+        <v>47.503333333333309</v>
+      </c>
+      <c r="G186" s="17">
+        <f>SUM(G11:G185)</f>
         <v>0</v>
       </c>
-      <c r="H185" s="17">
-        <f>SUM(H10:H181)</f>
+      <c r="H186" s="17">
+        <f>SUM(H10:H182)</f>
         <v>128.91</v>
       </c>
-      <c r="I185" s="17"/>
-      <c r="J185" s="17"/>
-    </row>
-    <row r="186" spans="1:11" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B186" s="53"/>
-      <c r="C186" s="18"/>
-      <c r="D186" s="52"/>
-      <c r="F186" s="19"/>
-      <c r="G186" s="19"/>
-      <c r="H186" s="20"/>
-      <c r="I186" s="20"/>
-      <c r="J186" s="21"/>
-    </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I186" s="17"/>
+      <c r="J186" s="17"/>
+    </row>
+    <row r="187" spans="1:11" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B187" s="53"/>
       <c r="C187" s="18"/>
       <c r="D187" s="52"/>
@@ -21895,17 +21914,27 @@
       <c r="I1709" s="20"/>
       <c r="J1709" s="21"/>
     </row>
+    <row r="1710" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B1710" s="53"/>
+      <c r="C1710" s="18"/>
+      <c r="D1710" s="52"/>
+      <c r="F1710" s="19"/>
+      <c r="G1710" s="19"/>
+      <c r="H1710" s="20"/>
+      <c r="I1710" s="20"/>
+      <c r="J1710" s="21"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A9:J185" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A9:J186" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <mergeCells count="2">
     <mergeCell ref="E1:J1"/>
     <mergeCell ref="G3:J3"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="2">
-    <dataValidation type="textLength" operator="lessThanOrEqual" showInputMessage="1" showErrorMessage="1" sqref="B178" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="textLength" operator="lessThanOrEqual" showInputMessage="1" showErrorMessage="1" sqref="B179" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>40</formula1>
     </dataValidation>
-    <dataValidation type="textLength" operator="equal" showInputMessage="1" showErrorMessage="1" sqref="D182:D184" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="textLength" operator="equal" showInputMessage="1" showErrorMessage="1" sqref="D183:D185" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>13</formula1>
     </dataValidation>
   </dataValidations>

--- a/в бланки заводов/Останкино КИ/ostankino_ki/SIMF/чистый бланк/ЗАКАЗ КРЫМ 04,12,25ц-выезд 06,12.xlsx
+++ b/в бланки заводов/Останкино КИ/ostankino_ki/SIMF/чистый бланк/ЗАКАЗ КРЫМ 04,12,25ц-выезд 06,12.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\2025_05\в бланки заводов\Останкино КИ\ostankino_ki\SIMF\чистый бланк\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CFD9AE5-B5F6-4C16-85F2-DFECEB73A9BB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3718CEF2-9778-4E3E-BA59-F9683E598CAD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="кск формула" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Дист 1'!$A$9:$J$186</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Дист 1'!$A$9:$J$187</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="449" uniqueCount="264">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="451" uniqueCount="265">
   <si>
     <t xml:space="preserve">Грузополучатель: </t>
   </si>
@@ -824,6 +824,9 @@
   </si>
   <si>
     <t>ПРЕСИЖН с/к дек.спец. мгс 0.54кг</t>
+  </si>
+  <si>
+    <t>ВЕТЧ.С ИНДЕЙКОЙ ПМ в/у срез 0.3кг 6шт.</t>
   </si>
 </sst>
 </file>
@@ -2009,11 +2012,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:L1710"/>
+  <dimension ref="A1:L1711"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
-      <pane ySplit="9" topLeftCell="A183" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J194" sqref="J194"/>
+      <pane ySplit="9" topLeftCell="A184" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I194" sqref="I194"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2158,7 +2161,7 @@
     </row>
     <row r="11" spans="1:12" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A11" s="93" t="str">
-        <f>RIGHT(D11:D185,4)</f>
+        <f>RIGHT(D11:D186,4)</f>
         <v>5246</v>
       </c>
       <c r="B11" s="27" t="s">
@@ -2189,7 +2192,7 @@
     </row>
     <row r="12" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="93" t="str">
-        <f>RIGHT(D12:D186,4)</f>
+        <f>RIGHT(D12:D187,4)</f>
         <v>4555</v>
       </c>
       <c r="B12" s="27" t="s">
@@ -2214,7 +2217,7 @@
     </row>
     <row r="13" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="93" t="str">
-        <f>RIGHT(D13:D187,4)</f>
+        <f>RIGHT(D13:D188,4)</f>
         <v>6220</v>
       </c>
       <c r="B13" s="27" t="s">
@@ -2239,7 +2242,7 @@
     </row>
     <row r="14" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="93" t="str">
-        <f>RIGHT(D14:D186,4)</f>
+        <f>RIGHT(D14:D187,4)</f>
         <v>5992</v>
       </c>
       <c r="B14" s="27" t="s">
@@ -2263,7 +2266,7 @@
     </row>
     <row r="15" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="93" t="str">
-        <f>RIGHT(D15:D187,4)</f>
+        <f>RIGHT(D15:D188,4)</f>
         <v>6268</v>
       </c>
       <c r="B15" s="27" t="s">
@@ -2287,7 +2290,7 @@
     </row>
     <row r="16" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="93" t="str">
-        <f>RIGHT(D16:D188,4)</f>
+        <f>RIGHT(D16:D189,4)</f>
         <v>7126</v>
       </c>
       <c r="B16" s="27" t="s">
@@ -2313,7 +2316,7 @@
     </row>
     <row r="17" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="93" t="str">
-        <f>RIGHT(D17:D188,4)</f>
+        <f>RIGHT(D17:D189,4)</f>
         <v>6247</v>
       </c>
       <c r="B17" s="27" t="s">
@@ -2337,7 +2340,7 @@
     </row>
     <row r="18" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="93" t="str">
-        <f>RIGHT(D18:D188,4)</f>
+        <f>RIGHT(D18:D189,4)</f>
         <v>6325</v>
       </c>
       <c r="B18" s="27" t="s">
@@ -2367,7 +2370,7 @@
     </row>
     <row r="19" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="93" t="str">
-        <f>RIGHT(D19:D189,4)</f>
+        <f>RIGHT(D19:D190,4)</f>
         <v>6324</v>
       </c>
       <c r="B19" s="27" t="s">
@@ -2393,7 +2396,7 @@
     </row>
     <row r="20" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="93" t="str">
-        <f>RIGHT(D20:D190,4)</f>
+        <f>RIGHT(D20:D191,4)</f>
         <v>6839</v>
       </c>
       <c r="B20" s="27" t="s">
@@ -2419,7 +2422,7 @@
     </row>
     <row r="21" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="93" t="str">
-        <f>RIGHT(D21:D191,4)</f>
+        <f>RIGHT(D21:D192,4)</f>
         <v>7231</v>
       </c>
       <c r="B21" s="27" t="s">
@@ -2443,7 +2446,7 @@
     </row>
     <row r="22" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="93" t="str">
-        <f>RIGHT(D22:D192,4)</f>
+        <f>RIGHT(D22:D193,4)</f>
         <v>4063</v>
       </c>
       <c r="B22" s="27" t="s">
@@ -2473,7 +2476,7 @@
     </row>
     <row r="23" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="93" t="str">
-        <f>RIGHT(D23:D193,4)</f>
+        <f>RIGHT(D23:D194,4)</f>
         <v>6333</v>
       </c>
       <c r="B23" s="27" t="s">
@@ -2503,7 +2506,7 @@
     </row>
     <row r="24" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="93" t="str">
-        <f>RIGHT(D24:D194,4)</f>
+        <f>RIGHT(D24:D195,4)</f>
         <v>4574</v>
       </c>
       <c r="B24" s="27" t="s">
@@ -2533,7 +2536,7 @@
     </row>
     <row r="25" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="93" t="str">
-        <f>RIGHT(D25:D195,4)</f>
+        <f>RIGHT(D25:D196,4)</f>
         <v>6861</v>
       </c>
       <c r="B25" s="27" t="s">
@@ -2563,7 +2566,7 @@
     </row>
     <row r="26" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="93" t="str">
-        <f>RIGHT(D26:D199,4)</f>
+        <f>RIGHT(D26:D200,4)</f>
         <v>6862</v>
       </c>
       <c r="B26" s="27" t="s">
@@ -2587,7 +2590,7 @@
     </row>
     <row r="27" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="93" t="str">
-        <f>RIGHT(D27:D199,4)</f>
+        <f>RIGHT(D27:D200,4)</f>
         <v>6341</v>
       </c>
       <c r="B27" s="27" t="s">
@@ -2611,7 +2614,7 @@
     </row>
     <row r="28" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="93" t="str">
-        <f>RIGHT(D28:D200,4)</f>
+        <f>RIGHT(D28:D201,4)</f>
         <v>5247</v>
       </c>
       <c r="B28" s="27" t="s">
@@ -2641,7 +2644,7 @@
     </row>
     <row r="29" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="93" t="str">
-        <f>RIGHT(D29:D203,4)</f>
+        <f>RIGHT(D29:D204,4)</f>
         <v>4813</v>
       </c>
       <c r="B29" s="27" t="s">
@@ -2671,7 +2674,7 @@
     </row>
     <row r="30" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="93" t="str">
-        <f>RIGHT(D30:D204,4)</f>
+        <f>RIGHT(D30:D205,4)</f>
         <v>6392</v>
       </c>
       <c r="B30" s="27" t="s">
@@ -2701,7 +2704,7 @@
     </row>
     <row r="31" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="93" t="str">
-        <f>RIGHT(D31:D205,4)</f>
+        <f>RIGHT(D31:D206,4)</f>
         <v>6801</v>
       </c>
       <c r="B31" s="27" t="s">
@@ -2727,7 +2730,7 @@
     </row>
     <row r="32" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="93" t="str">
-        <f>RIGHT(D32:D206,4)</f>
+        <f>RIGHT(D32:D207,4)</f>
         <v>6802</v>
       </c>
       <c r="B32" s="27" t="s">
@@ -2751,7 +2754,7 @@
     </row>
     <row r="33" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="93" t="str">
-        <f>RIGHT(D33:D207,4)</f>
+        <f>RIGHT(D33:D208,4)</f>
         <v>6877</v>
       </c>
       <c r="B33" s="27" t="s">
@@ -2775,7 +2778,7 @@
     </row>
     <row r="34" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="93" t="str">
-        <f>RIGHT(D34:D208,4)</f>
+        <f>RIGHT(D34:D209,4)</f>
         <v>6888</v>
       </c>
       <c r="B34" s="27" t="s">
@@ -2801,7 +2804,7 @@
     </row>
     <row r="35" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="93" t="str">
-        <f>RIGHT(D35:D209,4)</f>
+        <f>RIGHT(D35:D210,4)</f>
         <v>7343</v>
       </c>
       <c r="B35" s="27" t="s">
@@ -2827,7 +2830,7 @@
     </row>
     <row r="36" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="93" t="str">
-        <f>RIGHT(D36:D206,4)</f>
+        <f>RIGHT(D36:D207,4)</f>
         <v>5851</v>
       </c>
       <c r="B36" s="27" t="s">
@@ -2857,7 +2860,7 @@
     </row>
     <row r="37" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="93" t="str">
-        <f>RIGHT(D37:D207,4)</f>
+        <f>RIGHT(D37:D208,4)</f>
         <v>6159</v>
       </c>
       <c r="B37" s="27" t="s">
@@ -2881,7 +2884,7 @@
     </row>
     <row r="38" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="93" t="str">
-        <f>RIGHT(D38:D207,4)</f>
+        <f>RIGHT(D38:D208,4)</f>
         <v>6158</v>
       </c>
       <c r="B38" s="27" t="s">
@@ -2909,7 +2912,7 @@
     </row>
     <row r="39" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="93" t="str">
-        <f>RIGHT(D39:D209,4)</f>
+        <f>RIGHT(D39:D210,4)</f>
         <v>6340</v>
       </c>
       <c r="B39" s="95" t="s">
@@ -2937,7 +2940,7 @@
     </row>
     <row r="40" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="93" t="str">
-        <f>RIGHT(D40:D207,4)</f>
+        <f>RIGHT(D40:D208,4)</f>
         <v>6353</v>
       </c>
       <c r="B40" s="27" t="s">
@@ -2967,7 +2970,7 @@
     </row>
     <row r="41" spans="1:11" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="93" t="str">
-        <f>RIGHT(D41:D208,4)</f>
+        <f>RIGHT(D41:D209,4)</f>
         <v/>
       </c>
       <c r="B41" s="74" t="s">
@@ -2984,7 +2987,7 @@
     </row>
     <row r="42" spans="1:11" s="15" customFormat="1" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A42" s="93" t="str">
-        <f>RIGHT(D42:D211,4)</f>
+        <f>RIGHT(D42:D212,4)</f>
         <v>6870</v>
       </c>
       <c r="B42" s="27" t="s">
@@ -3009,7 +3012,7 @@
     </row>
     <row r="43" spans="1:11" s="15" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="93" t="str">
-        <f>RIGHT(D43:D213,4)</f>
+        <f>RIGHT(D43:D214,4)</f>
         <v>7038</v>
       </c>
       <c r="B43" s="27" t="s">
@@ -3034,7 +3037,7 @@
     </row>
     <row r="44" spans="1:11" s="15" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="93" t="str">
-        <f>RIGHT(D44:D214,4)</f>
+        <f>RIGHT(D44:D215,4)</f>
         <v>7040</v>
       </c>
       <c r="B44" s="27" t="s">
@@ -3061,7 +3064,7 @@
     </row>
     <row r="45" spans="1:11" s="15" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="93" t="str">
-        <f>RIGHT(D45:D213,4)</f>
+        <f>RIGHT(D45:D214,4)</f>
         <v>7075</v>
       </c>
       <c r="B45" s="27" t="s">
@@ -3086,7 +3089,7 @@
     </row>
     <row r="46" spans="1:11" s="15" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="93" t="str">
-        <f>RIGHT(D46:D214,4)</f>
+        <f>RIGHT(D46:D215,4)</f>
         <v>7070</v>
       </c>
       <c r="B46" s="27" t="s">
@@ -3111,7 +3114,7 @@
     </row>
     <row r="47" spans="1:11" s="15" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="93" t="str">
-        <f>RIGHT(D47:D212,4)</f>
+        <f>RIGHT(D47:D213,4)</f>
         <v>6253</v>
       </c>
       <c r="B47" s="27" t="s">
@@ -3136,7 +3139,7 @@
     </row>
     <row r="48" spans="1:11" s="15" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="93" t="str">
-        <f>RIGHT(D48:D211,4)</f>
+        <f>RIGHT(D48:D212,4)</f>
         <v>6602</v>
       </c>
       <c r="B48" s="27" t="s">
@@ -3161,7 +3164,7 @@
     </row>
     <row r="49" spans="1:11" s="15" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="93" t="str">
-        <f>RIGHT(D49:D214,4)</f>
+        <f>RIGHT(D49:D215,4)</f>
         <v>6768</v>
       </c>
       <c r="B49" s="27" t="s">
@@ -3186,7 +3189,7 @@
     </row>
     <row r="50" spans="1:11" s="15" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="93" t="str">
-        <f>RIGHT(D50:D215,4)</f>
+        <f>RIGHT(D50:D216,4)</f>
         <v>6770</v>
       </c>
       <c r="B50" s="27" t="s">
@@ -3211,7 +3214,7 @@
     </row>
     <row r="51" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="93" t="str">
-        <f>RIGHT(D51:D218,4)</f>
+        <f>RIGHT(D51:D219,4)</f>
         <v>6829</v>
       </c>
       <c r="B51" s="27" t="s">
@@ -3235,7 +3238,7 @@
     </row>
     <row r="52" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="93" t="str">
-        <f>RIGHT(D52:D223,4)</f>
+        <f>RIGHT(D52:D224,4)</f>
         <v>7074</v>
       </c>
       <c r="B52" s="27" t="s">
@@ -3259,7 +3262,7 @@
     </row>
     <row r="53" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="93" t="str">
-        <f>RIGHT(D53:D224,4)</f>
+        <f>RIGHT(D53:D225,4)</f>
         <v>7073</v>
       </c>
       <c r="B53" s="27" t="s">
@@ -3283,7 +3286,7 @@
     </row>
     <row r="54" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="93" t="str">
-        <f>RIGHT(D54:D225,4)</f>
+        <f>RIGHT(D54:D226,4)</f>
         <v>6759</v>
       </c>
       <c r="B54" s="27" t="s">
@@ -3307,7 +3310,7 @@
     </row>
     <row r="55" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="93" t="str">
-        <f>RIGHT(D55:D226,4)</f>
+        <f>RIGHT(D55:D227,4)</f>
         <v>6724</v>
       </c>
       <c r="B55" s="27" t="s">
@@ -3333,7 +3336,7 @@
     </row>
     <row r="56" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="93" t="str">
-        <f>RIGHT(D56:D227,4)</f>
+        <f>RIGHT(D56:D228,4)</f>
         <v>6616</v>
       </c>
       <c r="B56" s="27" t="s">
@@ -3359,7 +3362,7 @@
     </row>
     <row r="57" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="93" t="str">
-        <f>RIGHT(D57:D228,4)</f>
+        <f>RIGHT(D57:D229,4)</f>
         <v>7276</v>
       </c>
       <c r="B57" s="27" t="s">
@@ -3385,7 +3388,7 @@
     </row>
     <row r="58" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="93" t="str">
-        <f>RIGHT(D58:D226,4)</f>
+        <f>RIGHT(D58:D227,4)</f>
         <v>6901</v>
       </c>
       <c r="B58" s="27" t="s">
@@ -3411,7 +3414,7 @@
     </row>
     <row r="59" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="93" t="str">
-        <f>RIGHT(D59:D227,4)</f>
+        <f>RIGHT(D59:D228,4)</f>
         <v>6962</v>
       </c>
       <c r="B59" s="27" t="s">
@@ -3437,7 +3440,7 @@
     </row>
     <row r="60" spans="1:11" s="15" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="93" t="str">
-        <f>RIGHT(D60:D225,4)</f>
+        <f>RIGHT(D60:D226,4)</f>
         <v>6303</v>
       </c>
       <c r="B60" s="70" t="s">
@@ -3468,7 +3471,7 @@
     </row>
     <row r="61" spans="1:11" s="15" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="93" t="str">
-        <f>RIGHT(D61:D226,4)</f>
+        <f>RIGHT(D61:D227,4)</f>
         <v>7255</v>
       </c>
       <c r="B61" s="70" t="s">
@@ -3493,7 +3496,7 @@
     </row>
     <row r="62" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="93" t="str">
-        <f>RIGHT(D62:D226,4)</f>
+        <f>RIGHT(D62:D227,4)</f>
         <v>7080</v>
       </c>
       <c r="B62" s="45" t="s">
@@ -3523,7 +3526,7 @@
     </row>
     <row r="63" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="93" t="str">
-        <f>RIGHT(D63:D227,4)</f>
+        <f>RIGHT(D63:D228,4)</f>
         <v>6762</v>
       </c>
       <c r="B63" s="45" t="s">
@@ -3549,7 +3552,7 @@
     </row>
     <row r="64" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="93" t="str">
-        <f>RIGHT(D64:D227,4)</f>
+        <f>RIGHT(D64:D228,4)</f>
         <v>5820</v>
       </c>
       <c r="B64" s="45" t="s">
@@ -3575,7 +3578,7 @@
     </row>
     <row r="65" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="93" t="str">
-        <f>RIGHT(D65:D228,4)</f>
+        <f>RIGHT(D65:D229,4)</f>
         <v>7082</v>
       </c>
       <c r="B65" s="45" t="s">
@@ -3599,7 +3602,7 @@
     </row>
     <row r="66" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="93" t="str">
-        <f>RIGHT(D66:D229,4)</f>
+        <f>RIGHT(D66:D230,4)</f>
         <v>6764</v>
       </c>
       <c r="B66" s="45" t="s">
@@ -3623,7 +3626,7 @@
     </row>
     <row r="67" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="93" t="str">
-        <f>RIGHT(D67:D231,4)</f>
+        <f>RIGHT(D67:D232,4)</f>
         <v>6761</v>
       </c>
       <c r="B67" s="45" t="s">
@@ -3647,7 +3650,7 @@
     </row>
     <row r="68" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="93" t="str">
-        <f>RIGHT(D68:D232,4)</f>
+        <f>RIGHT(D68:D233,4)</f>
         <v>6767</v>
       </c>
       <c r="B68" s="45" t="s">
@@ -3671,7 +3674,7 @@
     </row>
     <row r="69" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="93" t="str">
-        <f>RIGHT(D69:D232,4)</f>
+        <f>RIGHT(D69:D233,4)</f>
         <v>6765</v>
       </c>
       <c r="B69" s="45" t="s">
@@ -3695,7 +3698,7 @@
     </row>
     <row r="70" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="93" t="str">
-        <f>RIGHT(D70:D233,4)</f>
+        <f>RIGHT(D70:D234,4)</f>
         <v>6909</v>
       </c>
       <c r="B70" s="45" t="s">
@@ -3721,7 +3724,7 @@
     </row>
     <row r="71" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="93" t="str">
-        <f>RIGHT(D71:D234,4)</f>
+        <f>RIGHT(D71:D235,4)</f>
         <v>7284</v>
       </c>
       <c r="B71" s="45" t="s">
@@ -3747,7 +3750,7 @@
     </row>
     <row r="72" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="93" t="str">
-        <f>RIGHT(D72:D234,4)</f>
+        <f>RIGHT(D72:D235,4)</f>
         <v>7250</v>
       </c>
       <c r="B72" s="45" t="s">
@@ -3773,7 +3776,7 @@
     </row>
     <row r="73" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="93" t="str">
-        <f>RIGHT(D73:D234,4)</f>
+        <f>RIGHT(D73:D235,4)</f>
         <v>6987</v>
       </c>
       <c r="B73" s="45" t="s">
@@ -3799,7 +3802,7 @@
     </row>
     <row r="74" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="93" t="str">
-        <f>RIGHT(D74:D232,4)</f>
+        <f>RIGHT(D74:D233,4)</f>
         <v>7066</v>
       </c>
       <c r="B74" s="45" t="s">
@@ -3829,7 +3832,7 @@
     </row>
     <row r="75" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="93" t="str">
-        <f>RIGHT(D75:D233,4)</f>
+        <f>RIGHT(D75:D234,4)</f>
         <v>6837</v>
       </c>
       <c r="B75" s="45" t="s">
@@ -3855,7 +3858,7 @@
     </row>
     <row r="76" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="93" t="str">
-        <f>RIGHT(D76:D234,4)</f>
+        <f>RIGHT(D76:D235,4)</f>
         <v>7271</v>
       </c>
       <c r="B76" s="45" t="s">
@@ -3879,7 +3882,7 @@
     </row>
     <row r="77" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="93" t="str">
-        <f>RIGHT(D77:D234,4)</f>
+        <f>RIGHT(D77:D235,4)</f>
         <v>7244</v>
       </c>
       <c r="B77" s="45" t="s">
@@ -3903,7 +3906,7 @@
     </row>
     <row r="78" spans="1:11" s="15" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="93" t="str">
-        <f>RIGHT(D78:D235,4)</f>
+        <f>RIGHT(D78:D236,4)</f>
         <v>6661</v>
       </c>
       <c r="B78" s="27" t="s">
@@ -3928,7 +3931,7 @@
     </row>
     <row r="79" spans="1:11" s="15" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A79" s="93" t="str">
-        <f>RIGHT(D79:D236,4)</f>
+        <f>RIGHT(D79:D237,4)</f>
         <v>6713</v>
       </c>
       <c r="B79" s="27" t="s">
@@ -3953,7 +3956,7 @@
     </row>
     <row r="80" spans="1:11" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A80" s="93" t="str">
-        <f>RIGHT(D80:D232,4)</f>
+        <f>RIGHT(D80:D233,4)</f>
         <v/>
       </c>
       <c r="B80" s="74" t="s">
@@ -3970,7 +3973,7 @@
     </row>
     <row r="81" spans="1:10" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A81" s="93" t="str">
-        <f>RIGHT(D81:D233,4)</f>
+        <f>RIGHT(D81:D234,4)</f>
         <v>5698</v>
       </c>
       <c r="B81" s="46" t="s">
@@ -4000,7 +4003,7 @@
     </row>
     <row r="82" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="93" t="str">
-        <f>RIGHT(D82:D236,4)</f>
+        <f>RIGHT(D82:D237,4)</f>
         <v>6528</v>
       </c>
       <c r="B82" s="46" t="s">
@@ -4024,7 +4027,7 @@
     </row>
     <row r="83" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="93" t="str">
-        <f>RIGHT(D83:D237,4)</f>
+        <f>RIGHT(D83:D238,4)</f>
         <v>7059</v>
       </c>
       <c r="B83" s="46" t="s">
@@ -4050,7 +4053,7 @@
     </row>
     <row r="84" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="93" t="str">
-        <f>RIGHT(D84:D237,4)</f>
+        <f>RIGHT(D84:D238,4)</f>
         <v>6609</v>
       </c>
       <c r="B84" s="46" t="s">
@@ -4076,7 +4079,7 @@
     </row>
     <row r="85" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="93" t="str">
-        <f>RIGHT(D85:D238,4)</f>
+        <f>RIGHT(D85:D239,4)</f>
         <v>7001</v>
       </c>
       <c r="B85" s="46" t="s">
@@ -4102,7 +4105,7 @@
     </row>
     <row r="86" spans="1:10" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A86" s="93" t="str">
-        <f>RIGHT(D86:D238,4)</f>
+        <f>RIGHT(D86:D239,4)</f>
         <v>6527</v>
       </c>
       <c r="B86" s="46" t="s">
@@ -4132,7 +4135,7 @@
     </row>
     <row r="87" spans="1:10" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A87" s="93" t="str">
-        <f>RIGHT(D87:D239,4)</f>
+        <f>RIGHT(D87:D240,4)</f>
         <v/>
       </c>
       <c r="B87" s="74" t="s">
@@ -4149,7 +4152,7 @@
     </row>
     <row r="88" spans="1:10" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A88" s="93" t="str">
-        <f>RIGHT(D88:D240,4)</f>
+        <f>RIGHT(D88:D241,4)</f>
         <v>7232</v>
       </c>
       <c r="B88" s="27" t="s">
@@ -4177,7 +4180,7 @@
     </row>
     <row r="89" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="93" t="str">
-        <f>RIGHT(D89:D241,4)</f>
+        <f>RIGHT(D89:D242,4)</f>
         <v>7332</v>
       </c>
       <c r="B89" s="27" t="s">
@@ -4203,7 +4206,7 @@
     </row>
     <row r="90" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="93" t="str">
-        <f>RIGHT(D90:D241,4)</f>
+        <f>RIGHT(D90:D242,4)</f>
         <v>6785</v>
       </c>
       <c r="B90" s="27" t="s">
@@ -4227,7 +4230,7 @@
     </row>
     <row r="91" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="93" t="str">
-        <f>RIGHT(D91:D242,4)</f>
+        <f>RIGHT(D91:D243,4)</f>
         <v>7149</v>
       </c>
       <c r="B91" s="96" t="s">
@@ -4255,7 +4258,7 @@
     </row>
     <row r="92" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="93" t="str">
-        <f>RIGHT(D92:D242,4)</f>
+        <f>RIGHT(D92:D243,4)</f>
         <v>6786</v>
       </c>
       <c r="B92" s="27" t="s">
@@ -4279,7 +4282,7 @@
     </row>
     <row r="93" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="93" t="str">
-        <f>RIGHT(D93:D243,4)</f>
+        <f>RIGHT(D93:D244,4)</f>
         <v>4903</v>
       </c>
       <c r="B93" s="27" t="s">
@@ -4303,7 +4306,7 @@
     </row>
     <row r="94" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="93" t="str">
-        <f>RIGHT(D94:D243,4)</f>
+        <f>RIGHT(D94:D244,4)</f>
         <v>7131</v>
       </c>
       <c r="B94" s="27" t="s">
@@ -4329,7 +4332,7 @@
     </row>
     <row r="95" spans="1:10" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A95" s="93" t="str">
-        <f>RIGHT(D95:D241,4)</f>
+        <f>RIGHT(D95:D242,4)</f>
         <v>7241</v>
       </c>
       <c r="B95" s="27" t="s">
@@ -4359,7 +4362,7 @@
     </row>
     <row r="96" spans="1:10" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A96" s="93" t="str">
-        <f>RIGHT(D96:D244,4)</f>
+        <f>RIGHT(D96:D245,4)</f>
         <v/>
       </c>
       <c r="B96" s="74" t="s">
@@ -4376,7 +4379,7 @@
     </row>
     <row r="97" spans="1:10" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A97" s="93" t="str">
-        <f>RIGHT(D97:D245,4)</f>
+        <f>RIGHT(D97:D246,4)</f>
         <v>7154</v>
       </c>
       <c r="B97" s="27" t="s">
@@ -4404,7 +4407,7 @@
     </row>
     <row r="98" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="93" t="str">
-        <f>RIGHT(D98:D247,4)</f>
+        <f>RIGHT(D98:D248,4)</f>
         <v>6793</v>
       </c>
       <c r="B98" s="27" t="s">
@@ -4428,7 +4431,7 @@
     </row>
     <row r="99" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="93" t="str">
-        <f>RIGHT(D99:D248,4)</f>
+        <f>RIGHT(D99:D249,4)</f>
         <v>6795</v>
       </c>
       <c r="B99" s="27" t="s">
@@ -4452,7 +4455,7 @@
     </row>
     <row r="100" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="93" t="str">
-        <f>RIGHT(D100:D248,4)</f>
+        <f>RIGHT(D100:D249,4)</f>
         <v>6807</v>
       </c>
       <c r="B100" s="27" t="s">
@@ -4476,7 +4479,7 @@
     </row>
     <row r="101" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="93" t="str">
-        <f>RIGHT(D101:D248,4)</f>
+        <f>RIGHT(D101:D249,4)</f>
         <v>7236</v>
       </c>
       <c r="B101" s="27" t="s">
@@ -4506,7 +4509,7 @@
     </row>
     <row r="102" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="93" t="str">
-        <f>RIGHT(D102:D249,4)</f>
+        <f>RIGHT(D102:D250,4)</f>
         <v>7333</v>
       </c>
       <c r="B102" s="27" t="s">
@@ -4532,7 +4535,7 @@
     </row>
     <row r="103" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="93" t="str">
-        <f>RIGHT(D103:D250,4)</f>
+        <f>RIGHT(D103:D251,4)</f>
         <v>6787</v>
       </c>
       <c r="B103" s="27" t="s">
@@ -4556,7 +4559,7 @@
     </row>
     <row r="104" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="93" t="str">
-        <f>RIGHT(D104:D251,4)</f>
+        <f>RIGHT(D104:D252,4)</f>
         <v>6788</v>
       </c>
       <c r="B104" s="27" t="s">
@@ -4580,7 +4583,7 @@
     </row>
     <row r="105" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="93" t="str">
-        <f>RIGHT(D105:D252,4)</f>
+        <f>RIGHT(D105:D253,4)</f>
         <v>7157</v>
       </c>
       <c r="B105" s="27" t="s">
@@ -4604,7 +4607,7 @@
     </row>
     <row r="106" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="93" t="str">
-        <f>RIGHT(D106:D252,4)</f>
+        <f>RIGHT(D106:D253,4)</f>
         <v>6790</v>
       </c>
       <c r="B106" s="27" t="s">
@@ -4628,7 +4631,7 @@
     </row>
     <row r="107" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="93" t="str">
-        <f>RIGHT(D107:D251,4)</f>
+        <f>RIGHT(D107:D252,4)</f>
         <v>7169</v>
       </c>
       <c r="B107" s="64" t="s">
@@ -4656,7 +4659,7 @@
     </row>
     <row r="108" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="93" t="str">
-        <f>RIGHT(D108:D252,4)</f>
+        <f>RIGHT(D108:D253,4)</f>
         <v>6791</v>
       </c>
       <c r="B108" s="64" t="s">
@@ -4680,7 +4683,7 @@
     </row>
     <row r="109" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="93" t="str">
-        <f>RIGHT(D109:D253,4)</f>
+        <f>RIGHT(D109:D254,4)</f>
         <v>7166</v>
       </c>
       <c r="B109" s="64" t="s">
@@ -4706,7 +4709,7 @@
     </row>
     <row r="110" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="93" t="str">
-        <f>RIGHT(D110:D254,4)</f>
+        <f>RIGHT(D110:D255,4)</f>
         <v>6459</v>
       </c>
       <c r="B110" s="64" t="s">
@@ -4732,7 +4735,7 @@
     </row>
     <row r="111" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="93" t="str">
-        <f>RIGHT(D111:D255,4)</f>
+        <f>RIGHT(D111:D256,4)</f>
         <v>6586</v>
       </c>
       <c r="B111" s="64" t="s">
@@ -4756,7 +4759,7 @@
     </row>
     <row r="112" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="93" t="str">
-        <f>RIGHT(D112:D253,4)</f>
+        <f>RIGHT(D112:D254,4)</f>
         <v>6228</v>
       </c>
       <c r="B112" s="64" t="s">
@@ -4780,7 +4783,7 @@
     </row>
     <row r="113" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="93" t="str">
-        <f>RIGHT(D113:D254,4)</f>
+        <f>RIGHT(D113:D255,4)</f>
         <v>7087</v>
       </c>
       <c r="B113" s="64" t="s">
@@ -4806,7 +4809,7 @@
     </row>
     <row r="114" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="93" t="str">
-        <f>RIGHT(D114:D253,4)</f>
+        <f>RIGHT(D114:D254,4)</f>
         <v>5544</v>
       </c>
       <c r="B114" s="27" t="s">
@@ -4836,7 +4839,7 @@
     </row>
     <row r="115" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A115" s="93" t="str">
-        <f>RIGHT(D115:D255,4)</f>
+        <f>RIGHT(D115:D256,4)</f>
         <v>6697</v>
       </c>
       <c r="B115" s="27" t="s">
@@ -4866,7 +4869,7 @@
     </row>
     <row r="116" spans="1:10" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A116" s="93" t="str">
-        <f>RIGHT(D116:D256,4)</f>
+        <f>RIGHT(D116:D257,4)</f>
         <v/>
       </c>
       <c r="B116" s="74" t="s">
@@ -4883,7 +4886,7 @@
     </row>
     <row r="117" spans="1:10" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A117" s="93" t="str">
-        <f>RIGHT(D117:D257,4)</f>
+        <f>RIGHT(D117:D258,4)</f>
         <v>5706</v>
       </c>
       <c r="B117" s="27" t="s">
@@ -4913,7 +4916,7 @@
     </row>
     <row r="118" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="93" t="str">
-        <f>RIGHT(D118:D258,4)</f>
+        <f>RIGHT(D118:D259,4)</f>
         <v>6454</v>
       </c>
       <c r="B118" s="27" t="s">
@@ -4943,7 +4946,7 @@
     </row>
     <row r="119" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="93" t="str">
-        <f>RIGHT(D119:D259,4)</f>
+        <f>RIGHT(D119:D260,4)</f>
         <v>6222</v>
       </c>
       <c r="B119" s="27" t="s">
@@ -4967,7 +4970,7 @@
     </row>
     <row r="120" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="93" t="str">
-        <f>RIGHT(D120:D260,4)</f>
+        <f>RIGHT(D120:D261,4)</f>
         <v>5931</v>
       </c>
       <c r="B120" s="27" t="s">
@@ -4997,7 +5000,7 @@
     </row>
     <row r="121" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="93" t="str">
-        <f>RIGHT(D121:D262,4)</f>
+        <f>RIGHT(D121:D263,4)</f>
         <v>5708</v>
       </c>
       <c r="B121" s="27" t="s">
@@ -5027,7 +5030,7 @@
     </row>
     <row r="122" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="93" t="str">
-        <f>RIGHT(D122:D263,4)</f>
+        <f>RIGHT(D122:D264,4)</f>
         <v>1146</v>
       </c>
       <c r="B122" s="27" t="s">
@@ -5051,7 +5054,7 @@
     </row>
     <row r="123" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="93" t="str">
-        <f>RIGHT(D123:D264,4)</f>
+        <f>RIGHT(D123:D265,4)</f>
         <v>7150</v>
       </c>
       <c r="B123" s="27" t="s">
@@ -5075,7 +5078,7 @@
     </row>
     <row r="124" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="93" t="str">
-        <f>RIGHT(D124:D265,4)</f>
+        <f>RIGHT(D124:D266,4)</f>
         <v>6832</v>
       </c>
       <c r="B124" s="27" t="s">
@@ -5099,7 +5102,7 @@
     </row>
     <row r="125" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="93" t="str">
-        <f>RIGHT(D125:D266,4)</f>
+        <f>RIGHT(D125:D267,4)</f>
         <v>7299</v>
       </c>
       <c r="B125" s="27" t="s">
@@ -5123,7 +5126,7 @@
     </row>
     <row r="126" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="93" t="str">
-        <f>RIGHT(D126:D263,4)</f>
+        <f>RIGHT(D126:D264,4)</f>
         <v>6834</v>
       </c>
       <c r="B126" s="27" t="s">
@@ -5147,7 +5150,7 @@
     </row>
     <row r="127" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="93" t="str">
-        <f>RIGHT(D127:D264,4)</f>
+        <f>RIGHT(D127:D265,4)</f>
         <v>6448</v>
       </c>
       <c r="B127" s="27" t="s">
@@ -5173,7 +5176,7 @@
     </row>
     <row r="128" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="93" t="str">
-        <f>RIGHT(D128:D265,4)</f>
+        <f>RIGHT(D128:D266,4)</f>
         <v>6221</v>
       </c>
       <c r="B128" s="27" t="s">
@@ -5199,7 +5202,7 @@
     </row>
     <row r="129" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="93" t="str">
-        <f>RIGHT(D129:D265,4)</f>
+        <f>RIGHT(D129:D266,4)</f>
         <v>5679</v>
       </c>
       <c r="B129" s="27" t="s">
@@ -5225,7 +5228,7 @@
     </row>
     <row r="130" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="93" t="str">
-        <f>RIGHT(D130:D267,4)</f>
+        <f>RIGHT(D130:D268,4)</f>
         <v>4993</v>
       </c>
       <c r="B130" s="27" t="s">
@@ -5255,7 +5258,7 @@
     </row>
     <row r="131" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="93" t="str">
-        <f>RIGHT(D131:D268,4)</f>
+        <f>RIGHT(D131:D269,4)</f>
         <v>3986</v>
       </c>
       <c r="B131" s="27" t="s">
@@ -5281,7 +5284,7 @@
     </row>
     <row r="132" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="93" t="str">
-        <f>RIGHT(D132:D268,4)</f>
+        <f>RIGHT(D132:D269,4)</f>
         <v>7105</v>
       </c>
       <c r="B132" s="27" t="s">
@@ -5298,7 +5301,7 @@
         <v>0.09</v>
       </c>
       <c r="G132" s="23">
-        <f t="shared" ref="G132:G141" si="0">F132*E132</f>
+        <f t="shared" ref="G132:G140" si="0">F132*E132</f>
         <v>0</v>
       </c>
       <c r="H132" s="14"/>
@@ -5307,7 +5310,7 @@
     </row>
     <row r="133" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="93" t="str">
-        <f>RIGHT(D133:D269,4)</f>
+        <f>RIGHT(D133:D270,4)</f>
         <v>7106</v>
       </c>
       <c r="B133" s="27" t="s">
@@ -5333,7 +5336,7 @@
     </row>
     <row r="134" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="93" t="str">
-        <f>RIGHT(D134:D270,4)</f>
+        <f>RIGHT(D134:D271,4)</f>
         <v>7107</v>
       </c>
       <c r="B134" s="27" t="s">
@@ -5359,7 +5362,7 @@
     </row>
     <row r="135" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="93" t="str">
-        <f>RIGHT(D135:D271,4)</f>
+        <f>RIGHT(D135:D272,4)</f>
         <v>7147</v>
       </c>
       <c r="B135" s="27" t="s">
@@ -5385,7 +5388,7 @@
     </row>
     <row r="136" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="93" t="str">
-        <f>RIGHT(D136:D272,4)</f>
+        <f>RIGHT(D136:D273,4)</f>
         <v>7229</v>
       </c>
       <c r="B136" s="27" t="s">
@@ -5411,7 +5414,7 @@
     </row>
     <row r="137" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="93" t="str">
-        <f>RIGHT(D137:D272,4)</f>
+        <f>RIGHT(D137:D273,4)</f>
         <v>7225</v>
       </c>
       <c r="B137" s="27" t="s">
@@ -5437,7 +5440,7 @@
     </row>
     <row r="138" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="93" t="str">
-        <f>RIGHT(D138:D273,4)</f>
+        <f>RIGHT(D138:D274,4)</f>
         <v>7227</v>
       </c>
       <c r="B138" s="27" t="s">
@@ -5463,7 +5466,7 @@
     </row>
     <row r="139" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="93" t="str">
-        <f>RIGHT(D139:D274,4)</f>
+        <f>RIGHT(D139:D275,4)</f>
         <v>7226</v>
       </c>
       <c r="B139" s="27" t="s">
@@ -5489,7 +5492,7 @@
     </row>
     <row r="140" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="93" t="str">
-        <f>RIGHT(D140:D268,4)</f>
+        <f>RIGHT(D140:D269,4)</f>
         <v>3684</v>
       </c>
       <c r="B140" s="27" t="s">
@@ -5515,7 +5518,7 @@
     </row>
     <row r="141" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="93" t="str">
-        <f>RIGHT(D141:D269,4)</f>
+        <f>RIGHT(D141:D270,4)</f>
         <v>7317</v>
       </c>
       <c r="B141" s="27" t="s">
@@ -5541,7 +5544,7 @@
     </row>
     <row r="142" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="93" t="str">
-        <f>RIGHT(D142:D268,4)</f>
+        <f>RIGHT(D142:D269,4)</f>
         <v>7382</v>
       </c>
       <c r="B142" s="27" t="s">
@@ -5571,7 +5574,7 @@
     </row>
     <row r="143" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="93" t="str">
-        <f>RIGHT(D143:D271,4)</f>
+        <f>RIGHT(D143:D272,4)</f>
         <v>4117</v>
       </c>
       <c r="B143" s="27" t="s">
@@ -5601,7 +5604,7 @@
     </row>
     <row r="144" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="93" t="str">
-        <f>RIGHT(D144:D272,4)</f>
+        <f>RIGHT(D144:D273,4)</f>
         <v>3680</v>
       </c>
       <c r="B144" s="27" t="s">
@@ -5625,7 +5628,7 @@
     </row>
     <row r="145" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="93" t="str">
-        <f>RIGHT(D145:D272,4)</f>
+        <f>RIGHT(D145:D273,4)</f>
         <v>5483</v>
       </c>
       <c r="B145" s="27" t="s">
@@ -5655,7 +5658,7 @@
     </row>
     <row r="146" spans="1:10" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A146" s="93" t="str">
-        <f>RIGHT(D146:D273,4)</f>
+        <f>RIGHT(D146:D274,4)</f>
         <v>6453</v>
       </c>
       <c r="B146" s="27" t="s">
@@ -5685,7 +5688,7 @@
     </row>
     <row r="147" spans="1:10" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A147" s="93" t="str">
-        <f>RIGHT(D147:D274,4)</f>
+        <f>RIGHT(D147:D275,4)</f>
         <v/>
       </c>
       <c r="B147" s="74" t="s">
@@ -5702,7 +5705,7 @@
     </row>
     <row r="148" spans="1:10" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A148" s="93" t="str">
-        <f>RIGHT(D148:D278,4)</f>
+        <f>RIGHT(D148:D279,4)</f>
         <v>6470</v>
       </c>
       <c r="B148" s="29" t="s">
@@ -5726,7 +5729,7 @@
     </row>
     <row r="149" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" s="93" t="str">
-        <f>RIGHT(D149:D279,4)</f>
+        <f>RIGHT(D149:D280,4)</f>
         <v>6495</v>
       </c>
       <c r="B149" s="29" t="s">
@@ -5752,7 +5755,7 @@
     </row>
     <row r="150" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" s="93" t="str">
-        <f>RIGHT(D150:D280,4)</f>
+        <f>RIGHT(D150:D281,4)</f>
         <v>7235</v>
       </c>
       <c r="B150" s="29" t="s">
@@ -5778,7 +5781,7 @@
     </row>
     <row r="151" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" s="93" t="str">
-        <f>RIGHT(D151:D281,4)</f>
+        <f>RIGHT(D151:D282,4)</f>
         <v>6411</v>
       </c>
       <c r="B151" s="29" t="s">
@@ -5804,22 +5807,24 @@
     </row>
     <row r="152" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" s="93" t="str">
-        <f>RIGHT(D152:D279,4)</f>
-        <v>6866</v>
+        <f>RIGHT(D152:D283,4)</f>
+        <v>7377</v>
       </c>
       <c r="B152" s="29" t="s">
-        <v>163</v>
+        <v>264</v>
       </c>
       <c r="C152" s="32" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="D152" s="80">
-        <v>1001095716866</v>
+        <v>1001095027377</v>
       </c>
       <c r="E152" s="24"/>
-      <c r="F152" s="23"/>
+      <c r="F152" s="23">
+        <v>0.3</v>
+      </c>
       <c r="G152" s="23">
-        <f>E152*1</f>
+        <f>F152*E152</f>
         <v>0</v>
       </c>
       <c r="H152" s="14"/>
@@ -5828,47 +5833,41 @@
     </row>
     <row r="153" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" s="93" t="str">
-        <f>RIGHT(D153:D276,4)</f>
-        <v>3215</v>
-      </c>
-      <c r="B153" s="27" t="s">
-        <v>164</v>
-      </c>
-      <c r="C153" s="37" t="s">
-        <v>27</v>
-      </c>
-      <c r="D153" s="51">
-        <v>1001094053215</v>
+        <f>RIGHT(D153:D280,4)</f>
+        <v>6866</v>
+      </c>
+      <c r="B153" s="29" t="s">
+        <v>163</v>
+      </c>
+      <c r="C153" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="D153" s="80">
+        <v>1001095716866</v>
       </c>
       <c r="E153" s="24"/>
-      <c r="F153" s="23">
-        <v>0.4</v>
-      </c>
+      <c r="F153" s="23"/>
       <c r="G153" s="23">
-        <f>E153*0.4</f>
+        <f>E153*1</f>
         <v>0</v>
       </c>
-      <c r="H153" s="14">
-        <v>3.2</v>
-      </c>
-      <c r="I153" s="14">
-        <v>60</v>
-      </c>
+      <c r="H153" s="14"/>
+      <c r="I153" s="14"/>
       <c r="J153" s="39"/>
     </row>
-    <row r="154" spans="1:10" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" s="93" t="str">
         <f>RIGHT(D154:D277,4)</f>
-        <v>7245</v>
+        <v>3215</v>
       </c>
       <c r="B154" s="27" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C154" s="37" t="s">
         <v>27</v>
       </c>
       <c r="D154" s="51">
-        <v>1001092687245</v>
+        <v>1001094053215</v>
       </c>
       <c r="E154" s="24"/>
       <c r="F154" s="23">
@@ -5878,101 +5877,105 @@
         <f>E154*0.4</f>
         <v>0</v>
       </c>
-      <c r="H154" s="14"/>
-      <c r="I154" s="14"/>
+      <c r="H154" s="14">
+        <v>3.2</v>
+      </c>
+      <c r="I154" s="14">
+        <v>60</v>
+      </c>
       <c r="J154" s="39"/>
     </row>
-    <row r="155" spans="1:10" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:10" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A155" s="93" t="str">
-        <f>RIGHT(D155:D279,4)</f>
+        <f>RIGHT(D155:D278,4)</f>
+        <v>7245</v>
+      </c>
+      <c r="B155" s="27" t="s">
+        <v>165</v>
+      </c>
+      <c r="C155" s="37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D155" s="51">
+        <v>1001092687245</v>
+      </c>
+      <c r="E155" s="24"/>
+      <c r="F155" s="23">
+        <v>0.4</v>
+      </c>
+      <c r="G155" s="23">
+        <f>E155*0.4</f>
+        <v>0</v>
+      </c>
+      <c r="H155" s="14"/>
+      <c r="I155" s="14"/>
+      <c r="J155" s="39"/>
+    </row>
+    <row r="156" spans="1:10" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A156" s="93" t="str">
+        <f>RIGHT(D156:D280,4)</f>
         <v/>
       </c>
-      <c r="B155" s="74" t="s">
+      <c r="B156" s="74" t="s">
         <v>166</v>
       </c>
-      <c r="C155" s="74"/>
-      <c r="D155" s="74"/>
-      <c r="E155" s="74"/>
-      <c r="F155" s="73"/>
-      <c r="G155" s="74"/>
-      <c r="H155" s="74"/>
-      <c r="I155" s="74"/>
-      <c r="J155" s="75"/>
-    </row>
-    <row r="156" spans="1:10" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A156" s="93" t="str">
-        <f>RIGHT(D156:D282,4)</f>
-        <v>7090</v>
-      </c>
-      <c r="B156" s="47" t="s">
-        <v>167</v>
-      </c>
-      <c r="C156" s="35" t="s">
-        <v>27</v>
-      </c>
-      <c r="D156" s="28">
-        <v>1001084217090</v>
-      </c>
-      <c r="E156" s="24"/>
-      <c r="F156" s="23">
-        <v>0.3</v>
-      </c>
-      <c r="G156" s="23">
-        <f>E156*F156</f>
-        <v>0</v>
-      </c>
-      <c r="H156" s="14"/>
-      <c r="I156" s="14">
-        <v>50</v>
-      </c>
-      <c r="J156" s="39"/>
-    </row>
-    <row r="157" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C156" s="74"/>
+      <c r="D156" s="74"/>
+      <c r="E156" s="74"/>
+      <c r="F156" s="73"/>
+      <c r="G156" s="74"/>
+      <c r="H156" s="74"/>
+      <c r="I156" s="74"/>
+      <c r="J156" s="75"/>
+    </row>
+    <row r="157" spans="1:10" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A157" s="93" t="str">
         <f>RIGHT(D157:D283,4)</f>
-        <v>4691</v>
+        <v>7090</v>
       </c>
       <c r="B157" s="47" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C157" s="35" t="s">
         <v>27</v>
       </c>
       <c r="D157" s="28">
-        <v>1001083424691</v>
+        <v>1001084217090</v>
       </c>
       <c r="E157" s="24"/>
       <c r="F157" s="23">
         <v>0.3</v>
       </c>
       <c r="G157" s="23">
-        <f t="shared" ref="G157:G163" si="1">F157*E157</f>
+        <f>E157*F157</f>
         <v>0</v>
       </c>
       <c r="H157" s="14"/>
-      <c r="I157" s="14"/>
-      <c r="J157" s="92"/>
+      <c r="I157" s="14">
+        <v>50</v>
+      </c>
+      <c r="J157" s="39"/>
     </row>
     <row r="158" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158" s="93" t="str">
         <f>RIGHT(D158:D284,4)</f>
-        <v>7187</v>
+        <v>4691</v>
       </c>
       <c r="B158" s="47" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C158" s="35" t="s">
         <v>27</v>
       </c>
       <c r="D158" s="28">
-        <v>1001085637187</v>
+        <v>1001083424691</v>
       </c>
       <c r="E158" s="24"/>
       <c r="F158" s="23">
         <v>0.3</v>
       </c>
       <c r="G158" s="23">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="G158:G164" si="1">F158*E158</f>
         <v>0</v>
       </c>
       <c r="H158" s="14"/>
@@ -5982,20 +5985,20 @@
     <row r="159" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A159" s="93" t="str">
         <f>RIGHT(D159:D285,4)</f>
-        <v>6201</v>
+        <v>7187</v>
       </c>
       <c r="B159" s="47" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C159" s="35" t="s">
         <v>27</v>
       </c>
       <c r="D159" s="28">
-        <v>1001225636201</v>
+        <v>1001085637187</v>
       </c>
       <c r="E159" s="24"/>
       <c r="F159" s="23">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="G159" s="23">
         <f t="shared" si="1"/>
@@ -6007,21 +6010,21 @@
     </row>
     <row r="160" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160" s="93" t="str">
-        <f>RIGHT(D160:D285,4)</f>
-        <v>6842</v>
+        <f>RIGHT(D160:D286,4)</f>
+        <v>6201</v>
       </c>
       <c r="B160" s="47" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C160" s="35" t="s">
         <v>27</v>
       </c>
       <c r="D160" s="28">
-        <v>1001080216842</v>
+        <v>1001225636201</v>
       </c>
       <c r="E160" s="24"/>
       <c r="F160" s="23">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="G160" s="23">
         <f t="shared" si="1"/>
@@ -6033,17 +6036,17 @@
     </row>
     <row r="161" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A161" s="93" t="str">
-        <f>RIGHT(D161:D285,4)</f>
-        <v>6492</v>
+        <f>RIGHT(D161:D286,4)</f>
+        <v>6842</v>
       </c>
       <c r="B161" s="47" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C161" s="35" t="s">
         <v>27</v>
       </c>
       <c r="D161" s="28">
-        <v>1001084226492</v>
+        <v>1001080216842</v>
       </c>
       <c r="E161" s="24"/>
       <c r="F161" s="23">
@@ -6059,21 +6062,21 @@
     </row>
     <row r="162" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A162" s="93" t="str">
-        <f>RIGHT(D162:D283,4)</f>
-        <v>6279</v>
+        <f>RIGHT(D162:D286,4)</f>
+        <v>6492</v>
       </c>
       <c r="B162" s="47" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C162" s="35" t="s">
         <v>27</v>
       </c>
       <c r="D162" s="28">
-        <v>1001220286279</v>
+        <v>1001084226492</v>
       </c>
       <c r="E162" s="24"/>
       <c r="F162" s="23">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="G162" s="23">
         <f t="shared" si="1"/>
@@ -6086,20 +6089,20 @@
     <row r="163" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A163" s="93" t="str">
         <f>RIGHT(D163:D284,4)</f>
-        <v>4786</v>
+        <v>6279</v>
       </c>
       <c r="B163" s="47" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C163" s="35" t="s">
         <v>27</v>
       </c>
       <c r="D163" s="28">
-        <v>1001053944786</v>
+        <v>1001220286279</v>
       </c>
       <c r="E163" s="24"/>
       <c r="F163" s="23">
-        <v>7.0000000000000007E-2</v>
+        <v>0.15</v>
       </c>
       <c r="G163" s="23">
         <f t="shared" si="1"/>
@@ -6112,23 +6115,23 @@
     <row r="164" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A164" s="93" t="str">
         <f>RIGHT(D164:D285,4)</f>
-        <v>7052</v>
+        <v>4786</v>
       </c>
       <c r="B164" s="47" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C164" s="35" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="D164" s="28">
-        <v>1001204447052</v>
+        <v>1001053944786</v>
       </c>
       <c r="E164" s="24"/>
       <c r="F164" s="23">
-        <v>1</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="G164" s="23">
-        <f>E164</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H164" s="14"/>
@@ -6137,17 +6140,17 @@
     </row>
     <row r="165" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A165" s="93" t="str">
-        <f>RIGHT(D165:D285,4)</f>
-        <v>7053</v>
+        <f>RIGHT(D165:D286,4)</f>
+        <v>7052</v>
       </c>
       <c r="B165" s="47" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C165" s="35" t="s">
         <v>23</v>
       </c>
       <c r="D165" s="28">
-        <v>1001223297053</v>
+        <v>1001204447052</v>
       </c>
       <c r="E165" s="24"/>
       <c r="F165" s="23">
@@ -6163,47 +6166,47 @@
     </row>
     <row r="166" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A166" s="93" t="str">
-        <f>RIGHT(D166:D285,4)</f>
-        <v>7092</v>
-      </c>
-      <c r="B166" s="27" t="s">
-        <v>177</v>
-      </c>
-      <c r="C166" s="33" t="s">
-        <v>27</v>
+        <f>RIGHT(D166:D286,4)</f>
+        <v>7053</v>
+      </c>
+      <c r="B166" s="47" t="s">
+        <v>176</v>
+      </c>
+      <c r="C166" s="35" t="s">
+        <v>23</v>
       </c>
       <c r="D166" s="28">
-        <v>1001223297092</v>
+        <v>1001223297053</v>
       </c>
       <c r="E166" s="24"/>
       <c r="F166" s="23">
-        <v>0.14000000000000001</v>
+        <v>1</v>
       </c>
       <c r="G166" s="23">
-        <f>F166*E166</f>
+        <f>E166</f>
         <v>0</v>
       </c>
       <c r="H166" s="14"/>
       <c r="I166" s="14"/>
-      <c r="J166" s="39"/>
+      <c r="J166" s="92"/>
     </row>
     <row r="167" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A167" s="93" t="str">
         <f>RIGHT(D167:D286,4)</f>
-        <v>7103</v>
+        <v>7092</v>
       </c>
       <c r="B167" s="27" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C167" s="33" t="s">
         <v>27</v>
       </c>
       <c r="D167" s="28">
-        <v>1001223297103</v>
+        <v>1001223297092</v>
       </c>
       <c r="E167" s="24"/>
       <c r="F167" s="23">
-        <v>0.18</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="G167" s="23">
         <f>F167*E167</f>
@@ -6211,56 +6214,65 @@
       </c>
       <c r="H167" s="14"/>
       <c r="I167" s="14"/>
-      <c r="J167" s="92"/>
-    </row>
-    <row r="168" spans="1:10" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J167" s="39"/>
+    </row>
+    <row r="168" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A168" s="93" t="str">
-        <f>RIGHT(D168:D283,4)</f>
-        <v>6919</v>
-      </c>
-      <c r="B168" s="47" t="s">
-        <v>179</v>
-      </c>
-      <c r="C168" s="35" t="s">
+        <f>RIGHT(D168:D287,4)</f>
+        <v>7103</v>
+      </c>
+      <c r="B168" s="27" t="s">
+        <v>178</v>
+      </c>
+      <c r="C168" s="33" t="s">
         <v>27</v>
       </c>
       <c r="D168" s="28">
-        <v>1001223296919</v>
+        <v>1001223297103</v>
       </c>
       <c r="E168" s="24"/>
-      <c r="F168" s="23"/>
+      <c r="F168" s="23">
+        <v>0.18</v>
+      </c>
       <c r="G168" s="23">
-        <f>E168*0.18</f>
+        <f>F168*E168</f>
         <v>0</v>
       </c>
       <c r="H168" s="14"/>
       <c r="I168" s="14"/>
       <c r="J168" s="92"/>
     </row>
-    <row r="169" spans="1:10" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:10" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A169" s="93" t="str">
         <f>RIGHT(D169:D284,4)</f>
-        <v/>
-      </c>
-      <c r="B169" s="74" t="s">
-        <v>180</v>
-      </c>
-      <c r="C169" s="74"/>
-      <c r="D169" s="74"/>
-      <c r="E169" s="74"/>
-      <c r="F169" s="73"/>
-      <c r="G169" s="74"/>
-      <c r="H169" s="74"/>
-      <c r="I169" s="74"/>
-      <c r="J169" s="75"/>
+        <v>6919</v>
+      </c>
+      <c r="B169" s="47" t="s">
+        <v>179</v>
+      </c>
+      <c r="C169" s="35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D169" s="28">
+        <v>1001223296919</v>
+      </c>
+      <c r="E169" s="24"/>
+      <c r="F169" s="23"/>
+      <c r="G169" s="23">
+        <f>E169*0.18</f>
+        <v>0</v>
+      </c>
+      <c r="H169" s="14"/>
+      <c r="I169" s="14"/>
+      <c r="J169" s="92"/>
     </row>
     <row r="170" spans="1:10" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A170" s="93" t="str">
-        <f>RIGHT(D170:D287,4)</f>
+        <f>RIGHT(D170:D285,4)</f>
         <v/>
       </c>
       <c r="B170" s="74" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C170" s="74"/>
       <c r="D170" s="74"/>
@@ -6271,73 +6283,66 @@
       <c r="I170" s="74"/>
       <c r="J170" s="75"/>
     </row>
-    <row r="171" spans="1:10" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:10" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A171" s="93" t="str">
         <f>RIGHT(D171:D288,4)</f>
-        <v>6314</v>
-      </c>
-      <c r="B171" s="47" t="s">
-        <v>182</v>
-      </c>
-      <c r="C171" s="33" t="s">
-        <v>27</v>
-      </c>
-      <c r="D171" s="28">
-        <v>1002112606314</v>
-      </c>
-      <c r="E171" s="24"/>
-      <c r="F171" s="23">
-        <v>0.5</v>
-      </c>
-      <c r="G171" s="23">
-        <f>E171*0.5</f>
-        <v>0</v>
-      </c>
-      <c r="H171" s="14">
-        <v>8</v>
-      </c>
-      <c r="I171" s="72">
-        <v>120</v>
-      </c>
-      <c r="J171" s="39"/>
-    </row>
-    <row r="172" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v/>
+      </c>
+      <c r="B171" s="74" t="s">
+        <v>181</v>
+      </c>
+      <c r="C171" s="74"/>
+      <c r="D171" s="74"/>
+      <c r="E171" s="74"/>
+      <c r="F171" s="73"/>
+      <c r="G171" s="74"/>
+      <c r="H171" s="74"/>
+      <c r="I171" s="74"/>
+      <c r="J171" s="75"/>
+    </row>
+    <row r="172" spans="1:10" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A172" s="93" t="str">
         <f>RIGHT(D172:D289,4)</f>
-        <v>6155</v>
+        <v>6314</v>
       </c>
       <c r="B172" s="47" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C172" s="33" t="s">
         <v>27</v>
       </c>
       <c r="D172" s="28">
-        <v>1002115036155</v>
+        <v>1002112606314</v>
       </c>
       <c r="E172" s="24"/>
-      <c r="F172" s="23"/>
+      <c r="F172" s="23">
+        <v>0.5</v>
+      </c>
       <c r="G172" s="23">
-        <f>E172*0.45</f>
+        <f>E172*0.5</f>
         <v>0</v>
       </c>
-      <c r="H172" s="14"/>
-      <c r="I172" s="72"/>
+      <c r="H172" s="14">
+        <v>8</v>
+      </c>
+      <c r="I172" s="72">
+        <v>120</v>
+      </c>
       <c r="J172" s="39"/>
     </row>
     <row r="173" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A173" s="93" t="str">
         <f>RIGHT(D173:D290,4)</f>
-        <v>6157</v>
+        <v>6155</v>
       </c>
       <c r="B173" s="47" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C173" s="33" t="s">
         <v>27</v>
       </c>
       <c r="D173" s="28">
-        <v>1002115056157</v>
+        <v>1002115036155</v>
       </c>
       <c r="E173" s="24"/>
       <c r="F173" s="23"/>
@@ -6349,174 +6354,168 @@
       <c r="I173" s="72"/>
       <c r="J173" s="39"/>
     </row>
-    <row r="174" spans="1:10" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A174" s="93" t="str">
-        <f t="shared" ref="A174:A185" si="2">RIGHT(D174:D289,4)</f>
+        <f>RIGHT(D174:D291,4)</f>
+        <v>6157</v>
+      </c>
+      <c r="B174" s="47" t="s">
+        <v>184</v>
+      </c>
+      <c r="C174" s="33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D174" s="28">
+        <v>1002115056157</v>
+      </c>
+      <c r="E174" s="24"/>
+      <c r="F174" s="23"/>
+      <c r="G174" s="23">
+        <f>E174*0.45</f>
+        <v>0</v>
+      </c>
+      <c r="H174" s="14"/>
+      <c r="I174" s="72"/>
+      <c r="J174" s="39"/>
+    </row>
+    <row r="175" spans="1:10" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A175" s="93" t="str">
+        <f t="shared" ref="A175:A186" si="2">RIGHT(D175:D290,4)</f>
         <v>6313</v>
       </c>
-      <c r="B174" s="47" t="s">
+      <c r="B175" s="47" t="s">
         <v>185</v>
       </c>
-      <c r="C174" s="36" t="s">
+      <c r="C175" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="D174" s="28">
+      <c r="D175" s="28">
         <v>1002112606313</v>
       </c>
-      <c r="E174" s="24"/>
-      <c r="F174" s="23">
+      <c r="E175" s="24"/>
+      <c r="F175" s="23">
         <v>0.9</v>
       </c>
-      <c r="G174" s="23">
-        <f>E174*0.9</f>
+      <c r="G175" s="23">
+        <f>E175*0.9</f>
         <v>0</v>
       </c>
-      <c r="H174" s="14">
+      <c r="H175" s="14">
         <v>9</v>
       </c>
-      <c r="I174" s="72">
+      <c r="I175" s="72">
         <v>120</v>
       </c>
-      <c r="J174" s="39"/>
-    </row>
-    <row r="175" spans="1:10" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A175" s="93" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="B175" s="74" t="s">
-        <v>186</v>
-      </c>
-      <c r="C175" s="74"/>
-      <c r="D175" s="74"/>
-      <c r="E175" s="74"/>
-      <c r="F175" s="73"/>
-      <c r="G175" s="74"/>
-      <c r="H175" s="74"/>
-      <c r="I175" s="74"/>
-      <c r="J175" s="75"/>
+      <c r="J175" s="39"/>
     </row>
     <row r="176" spans="1:10" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A176" s="93" t="str">
         <f t="shared" si="2"/>
-        <v>4945</v>
-      </c>
-      <c r="B176" s="47" t="s">
-        <v>187</v>
-      </c>
-      <c r="C176" s="36" t="s">
-        <v>27</v>
-      </c>
-      <c r="D176" s="28">
-        <v>1002151784945</v>
-      </c>
-      <c r="E176" s="24"/>
-      <c r="F176" s="23">
-        <v>0.5</v>
-      </c>
-      <c r="G176" s="23">
-        <f>E176*0.5</f>
-        <v>0</v>
-      </c>
-      <c r="H176" s="14">
-        <v>8</v>
-      </c>
-      <c r="I176" s="72">
-        <v>120</v>
-      </c>
-      <c r="J176" s="39"/>
+        <v/>
+      </c>
+      <c r="B176" s="74" t="s">
+        <v>186</v>
+      </c>
+      <c r="C176" s="74"/>
+      <c r="D176" s="74"/>
+      <c r="E176" s="74"/>
+      <c r="F176" s="73"/>
+      <c r="G176" s="74"/>
+      <c r="H176" s="74"/>
+      <c r="I176" s="74"/>
+      <c r="J176" s="75"/>
     </row>
     <row r="177" spans="1:11" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A177" s="93" t="str">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="B177" s="74" t="s">
-        <v>188</v>
-      </c>
-      <c r="C177" s="74"/>
-      <c r="D177" s="74"/>
-      <c r="E177" s="74"/>
-      <c r="F177" s="73"/>
-      <c r="G177" s="74"/>
-      <c r="H177" s="74"/>
-      <c r="I177" s="74"/>
-      <c r="J177" s="75"/>
-    </row>
-    <row r="178" spans="1:11" s="88" customFormat="1" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>4945</v>
+      </c>
+      <c r="B177" s="47" t="s">
+        <v>187</v>
+      </c>
+      <c r="C177" s="36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D177" s="28">
+        <v>1002151784945</v>
+      </c>
+      <c r="E177" s="24"/>
+      <c r="F177" s="23">
+        <v>0.5</v>
+      </c>
+      <c r="G177" s="23">
+        <f>E177*0.5</f>
+        <v>0</v>
+      </c>
+      <c r="H177" s="14">
+        <v>8</v>
+      </c>
+      <c r="I177" s="72">
+        <v>120</v>
+      </c>
+      <c r="J177" s="39"/>
+    </row>
+    <row r="178" spans="1:11" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A178" s="93" t="str">
         <f t="shared" si="2"/>
-        <v>4956</v>
-      </c>
-      <c r="B178" s="89" t="s">
-        <v>189</v>
-      </c>
-      <c r="C178" s="90" t="s">
-        <v>27</v>
-      </c>
-      <c r="D178" s="83">
-        <v>1002133974956</v>
-      </c>
-      <c r="E178" s="84"/>
-      <c r="F178" s="85">
-        <v>0.42</v>
-      </c>
-      <c r="G178" s="85">
-        <f>E178*0.42</f>
-        <v>0</v>
-      </c>
-      <c r="H178" s="86">
-        <v>4.2</v>
-      </c>
-      <c r="I178" s="91">
-        <v>120</v>
-      </c>
-      <c r="J178" s="86"/>
-      <c r="K178" s="87"/>
-    </row>
-    <row r="179" spans="1:11" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+        <v/>
+      </c>
+      <c r="B178" s="74" t="s">
+        <v>188</v>
+      </c>
+      <c r="C178" s="74"/>
+      <c r="D178" s="74"/>
+      <c r="E178" s="74"/>
+      <c r="F178" s="73"/>
+      <c r="G178" s="74"/>
+      <c r="H178" s="74"/>
+      <c r="I178" s="74"/>
+      <c r="J178" s="75"/>
+    </row>
+    <row r="179" spans="1:11" s="88" customFormat="1" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A179" s="93" t="str">
         <f t="shared" si="2"/>
-        <v>1762</v>
-      </c>
-      <c r="B179" s="47" t="s">
-        <v>190</v>
-      </c>
-      <c r="C179" s="33" t="s">
+        <v>4956</v>
+      </c>
+      <c r="B179" s="89" t="s">
+        <v>189</v>
+      </c>
+      <c r="C179" s="90" t="s">
         <v>27</v>
       </c>
-      <c r="D179" s="28">
-        <v>1002131151762</v>
-      </c>
-      <c r="E179" s="24"/>
-      <c r="F179" s="23">
+      <c r="D179" s="83">
+        <v>1002133974956</v>
+      </c>
+      <c r="E179" s="84"/>
+      <c r="F179" s="85">
         <v>0.42</v>
       </c>
-      <c r="G179" s="23">
+      <c r="G179" s="85">
         <f>E179*0.42</f>
         <v>0</v>
       </c>
-      <c r="H179" s="14">
+      <c r="H179" s="86">
         <v>4.2</v>
       </c>
-      <c r="I179" s="72">
+      <c r="I179" s="91">
         <v>120</v>
       </c>
-      <c r="J179" s="39"/>
-    </row>
-    <row r="180" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J179" s="86"/>
+      <c r="K179" s="87"/>
+    </row>
+    <row r="180" spans="1:11" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A180" s="93" t="str">
         <f t="shared" si="2"/>
-        <v>1764</v>
+        <v>1762</v>
       </c>
       <c r="B180" s="47" t="s">
-        <v>191</v>
-      </c>
-      <c r="C180" s="36" t="s">
+        <v>190</v>
+      </c>
+      <c r="C180" s="33" t="s">
         <v>27</v>
       </c>
       <c r="D180" s="28">
-        <v>1002131181764</v>
+        <v>1002131151762</v>
       </c>
       <c r="E180" s="24"/>
       <c r="F180" s="23">
@@ -6534,22 +6533,35 @@
       </c>
       <c r="J180" s="39"/>
     </row>
-    <row r="181" spans="1:11" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A181" s="93" t="str">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="B181" s="74" t="s">
-        <v>192</v>
-      </c>
-      <c r="C181" s="74"/>
-      <c r="D181" s="74"/>
-      <c r="E181" s="74"/>
-      <c r="F181" s="73"/>
-      <c r="G181" s="74"/>
-      <c r="H181" s="74"/>
-      <c r="I181" s="74"/>
-      <c r="J181" s="75"/>
+        <v>1764</v>
+      </c>
+      <c r="B181" s="47" t="s">
+        <v>191</v>
+      </c>
+      <c r="C181" s="36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D181" s="28">
+        <v>1002131181764</v>
+      </c>
+      <c r="E181" s="24"/>
+      <c r="F181" s="23">
+        <v>0.42</v>
+      </c>
+      <c r="G181" s="23">
+        <f>E181*0.42</f>
+        <v>0</v>
+      </c>
+      <c r="H181" s="14">
+        <v>4.2</v>
+      </c>
+      <c r="I181" s="72">
+        <v>120</v>
+      </c>
+      <c r="J181" s="39"/>
     </row>
     <row r="182" spans="1:11" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A182" s="93" t="str">
@@ -6557,7 +6569,7 @@
         <v/>
       </c>
       <c r="B182" s="74" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C182" s="74"/>
       <c r="D182" s="74"/>
@@ -6571,130 +6583,137 @@
     <row r="183" spans="1:11" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A183" s="93" t="str">
         <f t="shared" si="2"/>
-        <v>6004</v>
-      </c>
-      <c r="B183" s="47" t="s">
-        <v>194</v>
-      </c>
-      <c r="C183" s="36" t="s">
-        <v>27</v>
-      </c>
-      <c r="D183" s="68" t="s">
-        <v>195</v>
-      </c>
-      <c r="E183" s="24"/>
-      <c r="F183" s="23">
-        <v>1</v>
-      </c>
-      <c r="G183" s="23">
-        <f>E183*1</f>
-        <v>0</v>
-      </c>
-      <c r="H183" s="14">
-        <v>8</v>
-      </c>
-      <c r="I183" s="72">
-        <v>120</v>
-      </c>
-      <c r="J183" s="39"/>
-    </row>
-    <row r="184" spans="1:11" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+        <v/>
+      </c>
+      <c r="B183" s="74" t="s">
+        <v>193</v>
+      </c>
+      <c r="C183" s="74"/>
+      <c r="D183" s="74"/>
+      <c r="E183" s="74"/>
+      <c r="F183" s="73"/>
+      <c r="G183" s="74"/>
+      <c r="H183" s="74"/>
+      <c r="I183" s="74"/>
+      <c r="J183" s="75"/>
+    </row>
+    <row r="184" spans="1:11" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A184" s="93" t="str">
         <f t="shared" si="2"/>
-        <v>5417</v>
+        <v>6004</v>
       </c>
       <c r="B184" s="47" t="s">
-        <v>196</v>
-      </c>
-      <c r="C184" s="30" t="s">
-        <v>23</v>
+        <v>194</v>
+      </c>
+      <c r="C184" s="36" t="s">
+        <v>27</v>
       </c>
       <c r="D184" s="68" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="E184" s="24"/>
       <c r="F184" s="23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G184" s="23">
         <f>E184*1</f>
         <v>0</v>
       </c>
       <c r="H184" s="14">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="I184" s="72">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="J184" s="39"/>
     </row>
-    <row r="185" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:11" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A185" s="93" t="str">
         <f t="shared" si="2"/>
-        <v>6019</v>
+        <v>5417</v>
       </c>
       <c r="B185" s="47" t="s">
-        <v>198</v>
-      </c>
-      <c r="C185" s="36" t="s">
-        <v>27</v>
-      </c>
-      <c r="D185" s="69" t="s">
-        <v>199</v>
+        <v>196</v>
+      </c>
+      <c r="C185" s="30" t="s">
+        <v>23</v>
+      </c>
+      <c r="D185" s="68" t="s">
+        <v>197</v>
       </c>
       <c r="E185" s="24"/>
       <c r="F185" s="23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G185" s="23">
         <f>E185*1</f>
         <v>0</v>
       </c>
       <c r="H185" s="14">
+        <v>6</v>
+      </c>
+      <c r="I185" s="72">
+        <v>90</v>
+      </c>
+      <c r="J185" s="39"/>
+    </row>
+    <row r="186" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A186" s="93" t="str">
+        <f t="shared" si="2"/>
+        <v>6019</v>
+      </c>
+      <c r="B186" s="47" t="s">
+        <v>198</v>
+      </c>
+      <c r="C186" s="36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D186" s="69" t="s">
+        <v>199</v>
+      </c>
+      <c r="E186" s="24"/>
+      <c r="F186" s="23">
+        <v>1</v>
+      </c>
+      <c r="G186" s="23">
+        <f>E186*1</f>
+        <v>0</v>
+      </c>
+      <c r="H186" s="14">
         <v>12</v>
       </c>
-      <c r="I185" s="72">
+      <c r="I186" s="72">
         <v>120</v>
       </c>
-      <c r="J185" s="39"/>
-    </row>
-    <row r="186" spans="1:11" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A186" s="77"/>
-      <c r="B186" s="77" t="s">
+      <c r="J186" s="39"/>
+    </row>
+    <row r="187" spans="1:11" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A187" s="77"/>
+      <c r="B187" s="77" t="s">
         <v>200</v>
       </c>
-      <c r="C186" s="16"/>
-      <c r="D186" s="48"/>
-      <c r="E186" s="17">
-        <f>SUM(E5:E185)</f>
+      <c r="C187" s="16"/>
+      <c r="D187" s="48"/>
+      <c r="E187" s="17">
+        <f>SUM(E5:E186)</f>
         <v>0</v>
       </c>
-      <c r="F186" s="17">
-        <f>SUM(F10:F185)</f>
-        <v>47.503333333333309</v>
-      </c>
-      <c r="G186" s="17">
-        <f>SUM(G11:G185)</f>
+      <c r="F187" s="17">
+        <f>SUM(F10:F186)</f>
+        <v>47.803333333333306</v>
+      </c>
+      <c r="G187" s="17">
+        <f>SUM(G11:G186)</f>
         <v>0</v>
       </c>
-      <c r="H186" s="17">
-        <f>SUM(H10:H182)</f>
+      <c r="H187" s="17">
+        <f>SUM(H10:H183)</f>
         <v>128.91</v>
       </c>
-      <c r="I186" s="17"/>
-      <c r="J186" s="17"/>
-    </row>
-    <row r="187" spans="1:11" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B187" s="53"/>
-      <c r="C187" s="18"/>
-      <c r="D187" s="52"/>
-      <c r="F187" s="19"/>
-      <c r="G187" s="19"/>
-      <c r="H187" s="20"/>
-      <c r="I187" s="20"/>
-      <c r="J187" s="21"/>
-    </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I187" s="17"/>
+      <c r="J187" s="17"/>
+    </row>
+    <row r="188" spans="1:11" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B188" s="53"/>
       <c r="C188" s="18"/>
       <c r="D188" s="52"/>
@@ -21924,17 +21943,27 @@
       <c r="I1710" s="20"/>
       <c r="J1710" s="21"/>
     </row>
+    <row r="1711" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B1711" s="53"/>
+      <c r="C1711" s="18"/>
+      <c r="D1711" s="52"/>
+      <c r="F1711" s="19"/>
+      <c r="G1711" s="19"/>
+      <c r="H1711" s="20"/>
+      <c r="I1711" s="20"/>
+      <c r="J1711" s="21"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A9:J186" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A9:J187" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <mergeCells count="2">
     <mergeCell ref="E1:J1"/>
     <mergeCell ref="G3:J3"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="2">
-    <dataValidation type="textLength" operator="lessThanOrEqual" showInputMessage="1" showErrorMessage="1" sqref="B179" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="textLength" operator="lessThanOrEqual" showInputMessage="1" showErrorMessage="1" sqref="B180" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>40</formula1>
     </dataValidation>
-    <dataValidation type="textLength" operator="equal" showInputMessage="1" showErrorMessage="1" sqref="D183:D185" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="textLength" operator="equal" showInputMessage="1" showErrorMessage="1" sqref="D184:D186" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>13</formula1>
     </dataValidation>
   </dataValidations>

--- a/в бланки заводов/Останкино КИ/ostankino_ki/SIMF/чистый бланк/ЗАКАЗ КРЫМ 04,12,25ц-выезд 06,12.xlsx
+++ b/в бланки заводов/Останкино КИ/ostankino_ki/SIMF/чистый бланк/ЗАКАЗ КРЫМ 04,12,25ц-выезд 06,12.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\2025_05\в бланки заводов\Останкино КИ\ostankino_ki\SIMF\чистый бланк\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3718CEF2-9778-4E3E-BA59-F9683E598CAD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CE84E5E-AF37-4561-A496-5D7B666C778C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="кск формула" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Дист 1'!$A$9:$J$187</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Дист 1'!$A$9:$J$189</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="451" uniqueCount="265">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="455" uniqueCount="267">
   <si>
     <t xml:space="preserve">Грузополучатель: </t>
   </si>
@@ -827,6 +827,12 @@
   </si>
   <si>
     <t>ВЕТЧ.С ИНДЕЙКОЙ ПМ в/у срез 0.3кг 6шт.</t>
+  </si>
+  <si>
+    <t>ЧОРИЗО Останкино с/к в/у 1/220 8шт.</t>
+  </si>
+  <si>
+    <t>САН-РЕМО Останкино с/в в/у 1/220 8шт.</t>
   </si>
 </sst>
 </file>
@@ -2012,11 +2018,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:L1711"/>
+  <dimension ref="A1:L1713"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
-      <pane ySplit="9" topLeftCell="A184" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I194" sqref="I194"/>
+      <pane ySplit="9" topLeftCell="A186" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H196" sqref="H196"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2161,7 +2167,7 @@
     </row>
     <row r="11" spans="1:12" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A11" s="93" t="str">
-        <f>RIGHT(D11:D186,4)</f>
+        <f>RIGHT(D11:D188,4)</f>
         <v>5246</v>
       </c>
       <c r="B11" s="27" t="s">
@@ -2192,7 +2198,7 @@
     </row>
     <row r="12" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="93" t="str">
-        <f>RIGHT(D12:D187,4)</f>
+        <f>RIGHT(D12:D189,4)</f>
         <v>4555</v>
       </c>
       <c r="B12" s="27" t="s">
@@ -2217,7 +2223,7 @@
     </row>
     <row r="13" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="93" t="str">
-        <f>RIGHT(D13:D188,4)</f>
+        <f>RIGHT(D13:D190,4)</f>
         <v>6220</v>
       </c>
       <c r="B13" s="27" t="s">
@@ -2242,7 +2248,7 @@
     </row>
     <row r="14" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="93" t="str">
-        <f>RIGHT(D14:D187,4)</f>
+        <f>RIGHT(D14:D189,4)</f>
         <v>5992</v>
       </c>
       <c r="B14" s="27" t="s">
@@ -2266,7 +2272,7 @@
     </row>
     <row r="15" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="93" t="str">
-        <f>RIGHT(D15:D188,4)</f>
+        <f>RIGHT(D15:D190,4)</f>
         <v>6268</v>
       </c>
       <c r="B15" s="27" t="s">
@@ -2290,7 +2296,7 @@
     </row>
     <row r="16" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="93" t="str">
-        <f>RIGHT(D16:D189,4)</f>
+        <f>RIGHT(D16:D191,4)</f>
         <v>7126</v>
       </c>
       <c r="B16" s="27" t="s">
@@ -2316,7 +2322,7 @@
     </row>
     <row r="17" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="93" t="str">
-        <f>RIGHT(D17:D189,4)</f>
+        <f>RIGHT(D17:D191,4)</f>
         <v>6247</v>
       </c>
       <c r="B17" s="27" t="s">
@@ -2340,7 +2346,7 @@
     </row>
     <row r="18" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="93" t="str">
-        <f>RIGHT(D18:D189,4)</f>
+        <f>RIGHT(D18:D191,4)</f>
         <v>6325</v>
       </c>
       <c r="B18" s="27" t="s">
@@ -2370,7 +2376,7 @@
     </row>
     <row r="19" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="93" t="str">
-        <f>RIGHT(D19:D190,4)</f>
+        <f>RIGHT(D19:D192,4)</f>
         <v>6324</v>
       </c>
       <c r="B19" s="27" t="s">
@@ -2396,7 +2402,7 @@
     </row>
     <row r="20" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="93" t="str">
-        <f>RIGHT(D20:D191,4)</f>
+        <f>RIGHT(D20:D193,4)</f>
         <v>6839</v>
       </c>
       <c r="B20" s="27" t="s">
@@ -2422,7 +2428,7 @@
     </row>
     <row r="21" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="93" t="str">
-        <f>RIGHT(D21:D192,4)</f>
+        <f>RIGHT(D21:D194,4)</f>
         <v>7231</v>
       </c>
       <c r="B21" s="27" t="s">
@@ -2446,7 +2452,7 @@
     </row>
     <row r="22" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="93" t="str">
-        <f>RIGHT(D22:D193,4)</f>
+        <f>RIGHT(D22:D195,4)</f>
         <v>4063</v>
       </c>
       <c r="B22" s="27" t="s">
@@ -2476,7 +2482,7 @@
     </row>
     <row r="23" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="93" t="str">
-        <f>RIGHT(D23:D194,4)</f>
+        <f>RIGHT(D23:D196,4)</f>
         <v>6333</v>
       </c>
       <c r="B23" s="27" t="s">
@@ -2506,7 +2512,7 @@
     </row>
     <row r="24" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="93" t="str">
-        <f>RIGHT(D24:D195,4)</f>
+        <f>RIGHT(D24:D197,4)</f>
         <v>4574</v>
       </c>
       <c r="B24" s="27" t="s">
@@ -2536,7 +2542,7 @@
     </row>
     <row r="25" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="93" t="str">
-        <f>RIGHT(D25:D196,4)</f>
+        <f>RIGHT(D25:D198,4)</f>
         <v>6861</v>
       </c>
       <c r="B25" s="27" t="s">
@@ -2566,7 +2572,7 @@
     </row>
     <row r="26" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="93" t="str">
-        <f>RIGHT(D26:D200,4)</f>
+        <f>RIGHT(D26:D202,4)</f>
         <v>6862</v>
       </c>
       <c r="B26" s="27" t="s">
@@ -2590,7 +2596,7 @@
     </row>
     <row r="27" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="93" t="str">
-        <f>RIGHT(D27:D200,4)</f>
+        <f>RIGHT(D27:D202,4)</f>
         <v>6341</v>
       </c>
       <c r="B27" s="27" t="s">
@@ -2614,7 +2620,7 @@
     </row>
     <row r="28" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="93" t="str">
-        <f>RIGHT(D28:D201,4)</f>
+        <f>RIGHT(D28:D203,4)</f>
         <v>5247</v>
       </c>
       <c r="B28" s="27" t="s">
@@ -2644,7 +2650,7 @@
     </row>
     <row r="29" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="93" t="str">
-        <f>RIGHT(D29:D204,4)</f>
+        <f>RIGHT(D29:D206,4)</f>
         <v>4813</v>
       </c>
       <c r="B29" s="27" t="s">
@@ -2674,7 +2680,7 @@
     </row>
     <row r="30" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="93" t="str">
-        <f>RIGHT(D30:D205,4)</f>
+        <f>RIGHT(D30:D207,4)</f>
         <v>6392</v>
       </c>
       <c r="B30" s="27" t="s">
@@ -2704,7 +2710,7 @@
     </row>
     <row r="31" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="93" t="str">
-        <f>RIGHT(D31:D206,4)</f>
+        <f>RIGHT(D31:D208,4)</f>
         <v>6801</v>
       </c>
       <c r="B31" s="27" t="s">
@@ -2730,7 +2736,7 @@
     </row>
     <row r="32" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="93" t="str">
-        <f>RIGHT(D32:D207,4)</f>
+        <f>RIGHT(D32:D209,4)</f>
         <v>6802</v>
       </c>
       <c r="B32" s="27" t="s">
@@ -2754,7 +2760,7 @@
     </row>
     <row r="33" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="93" t="str">
-        <f>RIGHT(D33:D208,4)</f>
+        <f>RIGHT(D33:D210,4)</f>
         <v>6877</v>
       </c>
       <c r="B33" s="27" t="s">
@@ -2778,7 +2784,7 @@
     </row>
     <row r="34" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="93" t="str">
-        <f>RIGHT(D34:D209,4)</f>
+        <f>RIGHT(D34:D211,4)</f>
         <v>6888</v>
       </c>
       <c r="B34" s="27" t="s">
@@ -2804,7 +2810,7 @@
     </row>
     <row r="35" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="93" t="str">
-        <f>RIGHT(D35:D210,4)</f>
+        <f>RIGHT(D35:D212,4)</f>
         <v>7343</v>
       </c>
       <c r="B35" s="27" t="s">
@@ -2830,7 +2836,7 @@
     </row>
     <row r="36" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="93" t="str">
-        <f>RIGHT(D36:D207,4)</f>
+        <f>RIGHT(D36:D209,4)</f>
         <v>5851</v>
       </c>
       <c r="B36" s="27" t="s">
@@ -2860,7 +2866,7 @@
     </row>
     <row r="37" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="93" t="str">
-        <f>RIGHT(D37:D208,4)</f>
+        <f>RIGHT(D37:D210,4)</f>
         <v>6159</v>
       </c>
       <c r="B37" s="27" t="s">
@@ -2884,7 +2890,7 @@
     </row>
     <row r="38" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="93" t="str">
-        <f>RIGHT(D38:D208,4)</f>
+        <f>RIGHT(D38:D210,4)</f>
         <v>6158</v>
       </c>
       <c r="B38" s="27" t="s">
@@ -2912,7 +2918,7 @@
     </row>
     <row r="39" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="93" t="str">
-        <f>RIGHT(D39:D210,4)</f>
+        <f>RIGHT(D39:D212,4)</f>
         <v>6340</v>
       </c>
       <c r="B39" s="95" t="s">
@@ -2940,7 +2946,7 @@
     </row>
     <row r="40" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="93" t="str">
-        <f>RIGHT(D40:D208,4)</f>
+        <f>RIGHT(D40:D210,4)</f>
         <v>6353</v>
       </c>
       <c r="B40" s="27" t="s">
@@ -2970,7 +2976,7 @@
     </row>
     <row r="41" spans="1:11" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="93" t="str">
-        <f>RIGHT(D41:D209,4)</f>
+        <f>RIGHT(D41:D211,4)</f>
         <v/>
       </c>
       <c r="B41" s="74" t="s">
@@ -2987,7 +2993,7 @@
     </row>
     <row r="42" spans="1:11" s="15" customFormat="1" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A42" s="93" t="str">
-        <f>RIGHT(D42:D212,4)</f>
+        <f>RIGHT(D42:D214,4)</f>
         <v>6870</v>
       </c>
       <c r="B42" s="27" t="s">
@@ -3012,7 +3018,7 @@
     </row>
     <row r="43" spans="1:11" s="15" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="93" t="str">
-        <f>RIGHT(D43:D214,4)</f>
+        <f>RIGHT(D43:D216,4)</f>
         <v>7038</v>
       </c>
       <c r="B43" s="27" t="s">
@@ -3037,7 +3043,7 @@
     </row>
     <row r="44" spans="1:11" s="15" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="93" t="str">
-        <f>RIGHT(D44:D215,4)</f>
+        <f>RIGHT(D44:D217,4)</f>
         <v>7040</v>
       </c>
       <c r="B44" s="27" t="s">
@@ -3064,7 +3070,7 @@
     </row>
     <row r="45" spans="1:11" s="15" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="93" t="str">
-        <f>RIGHT(D45:D214,4)</f>
+        <f>RIGHT(D45:D216,4)</f>
         <v>7075</v>
       </c>
       <c r="B45" s="27" t="s">
@@ -3089,7 +3095,7 @@
     </row>
     <row r="46" spans="1:11" s="15" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="93" t="str">
-        <f>RIGHT(D46:D215,4)</f>
+        <f>RIGHT(D46:D217,4)</f>
         <v>7070</v>
       </c>
       <c r="B46" s="27" t="s">
@@ -3114,7 +3120,7 @@
     </row>
     <row r="47" spans="1:11" s="15" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="93" t="str">
-        <f>RIGHT(D47:D213,4)</f>
+        <f>RIGHT(D47:D215,4)</f>
         <v>6253</v>
       </c>
       <c r="B47" s="27" t="s">
@@ -3139,7 +3145,7 @@
     </row>
     <row r="48" spans="1:11" s="15" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="93" t="str">
-        <f>RIGHT(D48:D212,4)</f>
+        <f>RIGHT(D48:D214,4)</f>
         <v>6602</v>
       </c>
       <c r="B48" s="27" t="s">
@@ -3164,7 +3170,7 @@
     </row>
     <row r="49" spans="1:11" s="15" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="93" t="str">
-        <f>RIGHT(D49:D215,4)</f>
+        <f>RIGHT(D49:D217,4)</f>
         <v>6768</v>
       </c>
       <c r="B49" s="27" t="s">
@@ -3189,7 +3195,7 @@
     </row>
     <row r="50" spans="1:11" s="15" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="93" t="str">
-        <f>RIGHT(D50:D216,4)</f>
+        <f>RIGHT(D50:D218,4)</f>
         <v>6770</v>
       </c>
       <c r="B50" s="27" t="s">
@@ -3214,7 +3220,7 @@
     </row>
     <row r="51" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="93" t="str">
-        <f>RIGHT(D51:D219,4)</f>
+        <f>RIGHT(D51:D221,4)</f>
         <v>6829</v>
       </c>
       <c r="B51" s="27" t="s">
@@ -3238,7 +3244,7 @@
     </row>
     <row r="52" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="93" t="str">
-        <f>RIGHT(D52:D224,4)</f>
+        <f>RIGHT(D52:D226,4)</f>
         <v>7074</v>
       </c>
       <c r="B52" s="27" t="s">
@@ -3262,7 +3268,7 @@
     </row>
     <row r="53" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="93" t="str">
-        <f>RIGHT(D53:D225,4)</f>
+        <f>RIGHT(D53:D227,4)</f>
         <v>7073</v>
       </c>
       <c r="B53" s="27" t="s">
@@ -3286,7 +3292,7 @@
     </row>
     <row r="54" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="93" t="str">
-        <f>RIGHT(D54:D226,4)</f>
+        <f>RIGHT(D54:D228,4)</f>
         <v>6759</v>
       </c>
       <c r="B54" s="27" t="s">
@@ -3310,7 +3316,7 @@
     </row>
     <row r="55" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="93" t="str">
-        <f>RIGHT(D55:D227,4)</f>
+        <f>RIGHT(D55:D229,4)</f>
         <v>6724</v>
       </c>
       <c r="B55" s="27" t="s">
@@ -3336,7 +3342,7 @@
     </row>
     <row r="56" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="93" t="str">
-        <f>RIGHT(D56:D228,4)</f>
+        <f>RIGHT(D56:D230,4)</f>
         <v>6616</v>
       </c>
       <c r="B56" s="27" t="s">
@@ -3362,7 +3368,7 @@
     </row>
     <row r="57" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="93" t="str">
-        <f>RIGHT(D57:D229,4)</f>
+        <f>RIGHT(D57:D231,4)</f>
         <v>7276</v>
       </c>
       <c r="B57" s="27" t="s">
@@ -3388,7 +3394,7 @@
     </row>
     <row r="58" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="93" t="str">
-        <f>RIGHT(D58:D227,4)</f>
+        <f>RIGHT(D58:D229,4)</f>
         <v>6901</v>
       </c>
       <c r="B58" s="27" t="s">
@@ -3414,7 +3420,7 @@
     </row>
     <row r="59" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="93" t="str">
-        <f>RIGHT(D59:D228,4)</f>
+        <f>RIGHT(D59:D230,4)</f>
         <v>6962</v>
       </c>
       <c r="B59" s="27" t="s">
@@ -3440,7 +3446,7 @@
     </row>
     <row r="60" spans="1:11" s="15" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="93" t="str">
-        <f>RIGHT(D60:D226,4)</f>
+        <f>RIGHT(D60:D228,4)</f>
         <v>6303</v>
       </c>
       <c r="B60" s="70" t="s">
@@ -3471,7 +3477,7 @@
     </row>
     <row r="61" spans="1:11" s="15" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="93" t="str">
-        <f>RIGHT(D61:D227,4)</f>
+        <f>RIGHT(D61:D229,4)</f>
         <v>7255</v>
       </c>
       <c r="B61" s="70" t="s">
@@ -3496,7 +3502,7 @@
     </row>
     <row r="62" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="93" t="str">
-        <f>RIGHT(D62:D227,4)</f>
+        <f>RIGHT(D62:D229,4)</f>
         <v>7080</v>
       </c>
       <c r="B62" s="45" t="s">
@@ -3526,7 +3532,7 @@
     </row>
     <row r="63" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="93" t="str">
-        <f>RIGHT(D63:D228,4)</f>
+        <f>RIGHT(D63:D230,4)</f>
         <v>6762</v>
       </c>
       <c r="B63" s="45" t="s">
@@ -3552,7 +3558,7 @@
     </row>
     <row r="64" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="93" t="str">
-        <f>RIGHT(D64:D228,4)</f>
+        <f>RIGHT(D64:D230,4)</f>
         <v>5820</v>
       </c>
       <c r="B64" s="45" t="s">
@@ -3578,7 +3584,7 @@
     </row>
     <row r="65" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="93" t="str">
-        <f>RIGHT(D65:D229,4)</f>
+        <f>RIGHT(D65:D231,4)</f>
         <v>7082</v>
       </c>
       <c r="B65" s="45" t="s">
@@ -3602,7 +3608,7 @@
     </row>
     <row r="66" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="93" t="str">
-        <f>RIGHT(D66:D230,4)</f>
+        <f>RIGHT(D66:D232,4)</f>
         <v>6764</v>
       </c>
       <c r="B66" s="45" t="s">
@@ -3626,7 +3632,7 @@
     </row>
     <row r="67" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="93" t="str">
-        <f>RIGHT(D67:D232,4)</f>
+        <f>RIGHT(D67:D234,4)</f>
         <v>6761</v>
       </c>
       <c r="B67" s="45" t="s">
@@ -3650,7 +3656,7 @@
     </row>
     <row r="68" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="93" t="str">
-        <f>RIGHT(D68:D233,4)</f>
+        <f>RIGHT(D68:D235,4)</f>
         <v>6767</v>
       </c>
       <c r="B68" s="45" t="s">
@@ -3674,7 +3680,7 @@
     </row>
     <row r="69" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="93" t="str">
-        <f>RIGHT(D69:D233,4)</f>
+        <f>RIGHT(D69:D235,4)</f>
         <v>6765</v>
       </c>
       <c r="B69" s="45" t="s">
@@ -3698,7 +3704,7 @@
     </row>
     <row r="70" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="93" t="str">
-        <f>RIGHT(D70:D234,4)</f>
+        <f>RIGHT(D70:D236,4)</f>
         <v>6909</v>
       </c>
       <c r="B70" s="45" t="s">
@@ -3724,7 +3730,7 @@
     </row>
     <row r="71" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="93" t="str">
-        <f>RIGHT(D71:D235,4)</f>
+        <f>RIGHT(D71:D237,4)</f>
         <v>7284</v>
       </c>
       <c r="B71" s="45" t="s">
@@ -3750,7 +3756,7 @@
     </row>
     <row r="72" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="93" t="str">
-        <f>RIGHT(D72:D235,4)</f>
+        <f>RIGHT(D72:D237,4)</f>
         <v>7250</v>
       </c>
       <c r="B72" s="45" t="s">
@@ -3776,7 +3782,7 @@
     </row>
     <row r="73" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="93" t="str">
-        <f>RIGHT(D73:D235,4)</f>
+        <f>RIGHT(D73:D237,4)</f>
         <v>6987</v>
       </c>
       <c r="B73" s="45" t="s">
@@ -3802,7 +3808,7 @@
     </row>
     <row r="74" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="93" t="str">
-        <f>RIGHT(D74:D233,4)</f>
+        <f>RIGHT(D74:D235,4)</f>
         <v>7066</v>
       </c>
       <c r="B74" s="45" t="s">
@@ -3832,7 +3838,7 @@
     </row>
     <row r="75" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="93" t="str">
-        <f>RIGHT(D75:D234,4)</f>
+        <f>RIGHT(D75:D236,4)</f>
         <v>6837</v>
       </c>
       <c r="B75" s="45" t="s">
@@ -3858,7 +3864,7 @@
     </row>
     <row r="76" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="93" t="str">
-        <f>RIGHT(D76:D235,4)</f>
+        <f>RIGHT(D76:D237,4)</f>
         <v>7271</v>
       </c>
       <c r="B76" s="45" t="s">
@@ -3882,7 +3888,7 @@
     </row>
     <row r="77" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="93" t="str">
-        <f>RIGHT(D77:D235,4)</f>
+        <f>RIGHT(D77:D237,4)</f>
         <v>7244</v>
       </c>
       <c r="B77" s="45" t="s">
@@ -3906,7 +3912,7 @@
     </row>
     <row r="78" spans="1:11" s="15" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="93" t="str">
-        <f>RIGHT(D78:D236,4)</f>
+        <f>RIGHT(D78:D238,4)</f>
         <v>6661</v>
       </c>
       <c r="B78" s="27" t="s">
@@ -3931,7 +3937,7 @@
     </row>
     <row r="79" spans="1:11" s="15" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A79" s="93" t="str">
-        <f>RIGHT(D79:D237,4)</f>
+        <f>RIGHT(D79:D239,4)</f>
         <v>6713</v>
       </c>
       <c r="B79" s="27" t="s">
@@ -3956,7 +3962,7 @@
     </row>
     <row r="80" spans="1:11" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A80" s="93" t="str">
-        <f>RIGHT(D80:D233,4)</f>
+        <f>RIGHT(D80:D235,4)</f>
         <v/>
       </c>
       <c r="B80" s="74" t="s">
@@ -3973,7 +3979,7 @@
     </row>
     <row r="81" spans="1:10" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A81" s="93" t="str">
-        <f>RIGHT(D81:D234,4)</f>
+        <f>RIGHT(D81:D236,4)</f>
         <v>5698</v>
       </c>
       <c r="B81" s="46" t="s">
@@ -4003,7 +4009,7 @@
     </row>
     <row r="82" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="93" t="str">
-        <f>RIGHT(D82:D237,4)</f>
+        <f>RIGHT(D82:D239,4)</f>
         <v>6528</v>
       </c>
       <c r="B82" s="46" t="s">
@@ -4027,7 +4033,7 @@
     </row>
     <row r="83" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="93" t="str">
-        <f>RIGHT(D83:D238,4)</f>
+        <f>RIGHT(D83:D240,4)</f>
         <v>7059</v>
       </c>
       <c r="B83" s="46" t="s">
@@ -4053,7 +4059,7 @@
     </row>
     <row r="84" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="93" t="str">
-        <f>RIGHT(D84:D238,4)</f>
+        <f>RIGHT(D84:D240,4)</f>
         <v>6609</v>
       </c>
       <c r="B84" s="46" t="s">
@@ -4079,7 +4085,7 @@
     </row>
     <row r="85" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="93" t="str">
-        <f>RIGHT(D85:D239,4)</f>
+        <f>RIGHT(D85:D241,4)</f>
         <v>7001</v>
       </c>
       <c r="B85" s="46" t="s">
@@ -4105,7 +4111,7 @@
     </row>
     <row r="86" spans="1:10" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A86" s="93" t="str">
-        <f>RIGHT(D86:D239,4)</f>
+        <f>RIGHT(D86:D241,4)</f>
         <v>6527</v>
       </c>
       <c r="B86" s="46" t="s">
@@ -4135,7 +4141,7 @@
     </row>
     <row r="87" spans="1:10" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A87" s="93" t="str">
-        <f>RIGHT(D87:D240,4)</f>
+        <f>RIGHT(D87:D242,4)</f>
         <v/>
       </c>
       <c r="B87" s="74" t="s">
@@ -4152,7 +4158,7 @@
     </row>
     <row r="88" spans="1:10" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A88" s="93" t="str">
-        <f>RIGHT(D88:D241,4)</f>
+        <f>RIGHT(D88:D243,4)</f>
         <v>7232</v>
       </c>
       <c r="B88" s="27" t="s">
@@ -4180,7 +4186,7 @@
     </row>
     <row r="89" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="93" t="str">
-        <f>RIGHT(D89:D242,4)</f>
+        <f>RIGHT(D89:D244,4)</f>
         <v>7332</v>
       </c>
       <c r="B89" s="27" t="s">
@@ -4206,7 +4212,7 @@
     </row>
     <row r="90" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="93" t="str">
-        <f>RIGHT(D90:D242,4)</f>
+        <f>RIGHT(D90:D244,4)</f>
         <v>6785</v>
       </c>
       <c r="B90" s="27" t="s">
@@ -4230,7 +4236,7 @@
     </row>
     <row r="91" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="93" t="str">
-        <f>RIGHT(D91:D243,4)</f>
+        <f>RIGHT(D91:D245,4)</f>
         <v>7149</v>
       </c>
       <c r="B91" s="96" t="s">
@@ -4258,7 +4264,7 @@
     </row>
     <row r="92" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="93" t="str">
-        <f>RIGHT(D92:D243,4)</f>
+        <f>RIGHT(D92:D245,4)</f>
         <v>6786</v>
       </c>
       <c r="B92" s="27" t="s">
@@ -4282,7 +4288,7 @@
     </row>
     <row r="93" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="93" t="str">
-        <f>RIGHT(D93:D244,4)</f>
+        <f>RIGHT(D93:D246,4)</f>
         <v>4903</v>
       </c>
       <c r="B93" s="27" t="s">
@@ -4306,7 +4312,7 @@
     </row>
     <row r="94" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="93" t="str">
-        <f>RIGHT(D94:D244,4)</f>
+        <f>RIGHT(D94:D246,4)</f>
         <v>7131</v>
       </c>
       <c r="B94" s="27" t="s">
@@ -4332,7 +4338,7 @@
     </row>
     <row r="95" spans="1:10" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A95" s="93" t="str">
-        <f>RIGHT(D95:D242,4)</f>
+        <f>RIGHT(D95:D244,4)</f>
         <v>7241</v>
       </c>
       <c r="B95" s="27" t="s">
@@ -4362,7 +4368,7 @@
     </row>
     <row r="96" spans="1:10" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A96" s="93" t="str">
-        <f>RIGHT(D96:D245,4)</f>
+        <f>RIGHT(D96:D247,4)</f>
         <v/>
       </c>
       <c r="B96" s="74" t="s">
@@ -4379,7 +4385,7 @@
     </row>
     <row r="97" spans="1:10" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A97" s="93" t="str">
-        <f>RIGHT(D97:D246,4)</f>
+        <f>RIGHT(D97:D248,4)</f>
         <v>7154</v>
       </c>
       <c r="B97" s="27" t="s">
@@ -4407,7 +4413,7 @@
     </row>
     <row r="98" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="93" t="str">
-        <f>RIGHT(D98:D248,4)</f>
+        <f>RIGHT(D98:D250,4)</f>
         <v>6793</v>
       </c>
       <c r="B98" s="27" t="s">
@@ -4431,7 +4437,7 @@
     </row>
     <row r="99" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="93" t="str">
-        <f>RIGHT(D99:D249,4)</f>
+        <f>RIGHT(D99:D251,4)</f>
         <v>6795</v>
       </c>
       <c r="B99" s="27" t="s">
@@ -4455,7 +4461,7 @@
     </row>
     <row r="100" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="93" t="str">
-        <f>RIGHT(D100:D249,4)</f>
+        <f>RIGHT(D100:D251,4)</f>
         <v>6807</v>
       </c>
       <c r="B100" s="27" t="s">
@@ -4479,7 +4485,7 @@
     </row>
     <row r="101" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="93" t="str">
-        <f>RIGHT(D101:D249,4)</f>
+        <f>RIGHT(D101:D251,4)</f>
         <v>7236</v>
       </c>
       <c r="B101" s="27" t="s">
@@ -4509,7 +4515,7 @@
     </row>
     <row r="102" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="93" t="str">
-        <f>RIGHT(D102:D250,4)</f>
+        <f>RIGHT(D102:D252,4)</f>
         <v>7333</v>
       </c>
       <c r="B102" s="27" t="s">
@@ -4535,7 +4541,7 @@
     </row>
     <row r="103" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="93" t="str">
-        <f>RIGHT(D103:D251,4)</f>
+        <f>RIGHT(D103:D253,4)</f>
         <v>6787</v>
       </c>
       <c r="B103" s="27" t="s">
@@ -4559,7 +4565,7 @@
     </row>
     <row r="104" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="93" t="str">
-        <f>RIGHT(D104:D252,4)</f>
+        <f>RIGHT(D104:D254,4)</f>
         <v>6788</v>
       </c>
       <c r="B104" s="27" t="s">
@@ -4583,7 +4589,7 @@
     </row>
     <row r="105" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="93" t="str">
-        <f>RIGHT(D105:D253,4)</f>
+        <f>RIGHT(D105:D255,4)</f>
         <v>7157</v>
       </c>
       <c r="B105" s="27" t="s">
@@ -4607,7 +4613,7 @@
     </row>
     <row r="106" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="93" t="str">
-        <f>RIGHT(D106:D253,4)</f>
+        <f>RIGHT(D106:D255,4)</f>
         <v>6790</v>
       </c>
       <c r="B106" s="27" t="s">
@@ -4631,7 +4637,7 @@
     </row>
     <row r="107" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="93" t="str">
-        <f>RIGHT(D107:D252,4)</f>
+        <f>RIGHT(D107:D254,4)</f>
         <v>7169</v>
       </c>
       <c r="B107" s="64" t="s">
@@ -4659,7 +4665,7 @@
     </row>
     <row r="108" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="93" t="str">
-        <f>RIGHT(D108:D253,4)</f>
+        <f>RIGHT(D108:D255,4)</f>
         <v>6791</v>
       </c>
       <c r="B108" s="64" t="s">
@@ -4683,7 +4689,7 @@
     </row>
     <row r="109" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="93" t="str">
-        <f>RIGHT(D109:D254,4)</f>
+        <f>RIGHT(D109:D256,4)</f>
         <v>7166</v>
       </c>
       <c r="B109" s="64" t="s">
@@ -4709,7 +4715,7 @@
     </row>
     <row r="110" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="93" t="str">
-        <f>RIGHT(D110:D255,4)</f>
+        <f>RIGHT(D110:D257,4)</f>
         <v>6459</v>
       </c>
       <c r="B110" s="64" t="s">
@@ -4735,7 +4741,7 @@
     </row>
     <row r="111" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="93" t="str">
-        <f>RIGHT(D111:D256,4)</f>
+        <f>RIGHT(D111:D258,4)</f>
         <v>6586</v>
       </c>
       <c r="B111" s="64" t="s">
@@ -4759,7 +4765,7 @@
     </row>
     <row r="112" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="93" t="str">
-        <f>RIGHT(D112:D254,4)</f>
+        <f>RIGHT(D112:D256,4)</f>
         <v>6228</v>
       </c>
       <c r="B112" s="64" t="s">
@@ -4783,7 +4789,7 @@
     </row>
     <row r="113" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="93" t="str">
-        <f>RIGHT(D113:D255,4)</f>
+        <f>RIGHT(D113:D257,4)</f>
         <v>7087</v>
       </c>
       <c r="B113" s="64" t="s">
@@ -4809,7 +4815,7 @@
     </row>
     <row r="114" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="93" t="str">
-        <f>RIGHT(D114:D254,4)</f>
+        <f>RIGHT(D114:D256,4)</f>
         <v>5544</v>
       </c>
       <c r="B114" s="27" t="s">
@@ -4839,7 +4845,7 @@
     </row>
     <row r="115" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A115" s="93" t="str">
-        <f>RIGHT(D115:D256,4)</f>
+        <f>RIGHT(D115:D258,4)</f>
         <v>6697</v>
       </c>
       <c r="B115" s="27" t="s">
@@ -4869,7 +4875,7 @@
     </row>
     <row r="116" spans="1:10" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A116" s="93" t="str">
-        <f>RIGHT(D116:D257,4)</f>
+        <f>RIGHT(D116:D259,4)</f>
         <v/>
       </c>
       <c r="B116" s="74" t="s">
@@ -4886,7 +4892,7 @@
     </row>
     <row r="117" spans="1:10" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A117" s="93" t="str">
-        <f>RIGHT(D117:D258,4)</f>
+        <f>RIGHT(D117:D260,4)</f>
         <v>5706</v>
       </c>
       <c r="B117" s="27" t="s">
@@ -4916,7 +4922,7 @@
     </row>
     <row r="118" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="93" t="str">
-        <f>RIGHT(D118:D259,4)</f>
+        <f>RIGHT(D118:D261,4)</f>
         <v>6454</v>
       </c>
       <c r="B118" s="27" t="s">
@@ -4946,7 +4952,7 @@
     </row>
     <row r="119" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="93" t="str">
-        <f>RIGHT(D119:D260,4)</f>
+        <f>RIGHT(D119:D262,4)</f>
         <v>6222</v>
       </c>
       <c r="B119" s="27" t="s">
@@ -4970,7 +4976,7 @@
     </row>
     <row r="120" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="93" t="str">
-        <f>RIGHT(D120:D261,4)</f>
+        <f>RIGHT(D120:D263,4)</f>
         <v>5931</v>
       </c>
       <c r="B120" s="27" t="s">
@@ -5000,52 +5006,50 @@
     </row>
     <row r="121" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="93" t="str">
-        <f>RIGHT(D121:D263,4)</f>
-        <v>5708</v>
+        <f>RIGHT(D121:D264,4)</f>
+        <v>7364</v>
       </c>
       <c r="B121" s="27" t="s">
-        <v>133</v>
-      </c>
-      <c r="C121" s="30" t="s">
-        <v>23</v>
+        <v>265</v>
+      </c>
+      <c r="C121" s="33" t="s">
+        <v>27</v>
       </c>
       <c r="D121" s="28">
-        <v>1001063145708</v>
+        <v>1001063217364</v>
       </c>
       <c r="E121" s="24"/>
       <c r="F121" s="23">
-        <v>0.51249999999999996</v>
+        <v>0.22</v>
       </c>
       <c r="G121" s="23">
-        <f>E121*1</f>
+        <f t="shared" ref="G121:G122" si="0">E121*0.22</f>
         <v>0</v>
       </c>
-      <c r="H121" s="14">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="I121" s="14">
-        <v>120</v>
-      </c>
+      <c r="H121" s="14"/>
+      <c r="I121" s="14"/>
       <c r="J121" s="39"/>
     </row>
     <row r="122" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="93" t="str">
-        <f>RIGHT(D122:D264,4)</f>
-        <v>1146</v>
+        <f>RIGHT(D122:D265,4)</f>
+        <v>7383</v>
       </c>
       <c r="B122" s="27" t="s">
-        <v>134</v>
-      </c>
-      <c r="C122" s="30" t="s">
-        <v>23</v>
+        <v>266</v>
+      </c>
+      <c r="C122" s="33" t="s">
+        <v>27</v>
       </c>
       <c r="D122" s="28">
-        <v>1001061971146</v>
+        <v>1001065467383</v>
       </c>
       <c r="E122" s="24"/>
-      <c r="F122" s="23"/>
+      <c r="F122" s="23">
+        <v>0.22</v>
+      </c>
       <c r="G122" s="23">
-        <f>E122</f>
+        <f>E122*0.22</f>
         <v>0</v>
       </c>
       <c r="H122" s="14"/>
@@ -5055,40 +5059,46 @@
     <row r="123" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="93" t="str">
         <f>RIGHT(D123:D265,4)</f>
-        <v>7150</v>
+        <v>5708</v>
       </c>
       <c r="B123" s="27" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C123" s="30" t="s">
         <v>23</v>
       </c>
       <c r="D123" s="28">
-        <v>1001063237150</v>
+        <v>1001063145708</v>
       </c>
       <c r="E123" s="24"/>
-      <c r="F123" s="23"/>
+      <c r="F123" s="23">
+        <v>0.51249999999999996</v>
+      </c>
       <c r="G123" s="23">
-        <f>E123</f>
+        <f>E123*1</f>
         <v>0</v>
       </c>
-      <c r="H123" s="14"/>
-      <c r="I123" s="14"/>
+      <c r="H123" s="14">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="I123" s="14">
+        <v>120</v>
+      </c>
       <c r="J123" s="39"/>
     </row>
     <row r="124" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="93" t="str">
         <f>RIGHT(D124:D266,4)</f>
-        <v>6832</v>
+        <v>1146</v>
       </c>
       <c r="B124" s="27" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C124" s="30" t="s">
         <v>23</v>
       </c>
       <c r="D124" s="28">
-        <v>1001065616832</v>
+        <v>1001061971146</v>
       </c>
       <c r="E124" s="24"/>
       <c r="F124" s="23"/>
@@ -5103,16 +5113,16 @@
     <row r="125" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="93" t="str">
         <f>RIGHT(D125:D267,4)</f>
-        <v>7299</v>
+        <v>7150</v>
       </c>
       <c r="B125" s="27" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C125" s="30" t="s">
         <v>23</v>
       </c>
       <c r="D125" s="28">
-        <v>1001060677299</v>
+        <v>1001063237150</v>
       </c>
       <c r="E125" s="24"/>
       <c r="F125" s="23"/>
@@ -5126,22 +5136,22 @@
     </row>
     <row r="126" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="93" t="str">
-        <f>RIGHT(D126:D264,4)</f>
-        <v>6834</v>
+        <f>RIGHT(D126:D268,4)</f>
+        <v>6832</v>
       </c>
       <c r="B126" s="27" t="s">
-        <v>138</v>
-      </c>
-      <c r="C126" s="33" t="s">
-        <v>27</v>
+        <v>136</v>
+      </c>
+      <c r="C126" s="30" t="s">
+        <v>23</v>
       </c>
       <c r="D126" s="28">
-        <v>1001203146834</v>
+        <v>1001065616832</v>
       </c>
       <c r="E126" s="24"/>
       <c r="F126" s="23"/>
       <c r="G126" s="23">
-        <f>E126*0.1</f>
+        <f>E126</f>
         <v>0</v>
       </c>
       <c r="H126" s="14"/>
@@ -5150,24 +5160,22 @@
     </row>
     <row r="127" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="93" t="str">
-        <f>RIGHT(D127:D265,4)</f>
-        <v>6448</v>
+        <f>RIGHT(D127:D269,4)</f>
+        <v>7299</v>
       </c>
       <c r="B127" s="27" t="s">
-        <v>139</v>
-      </c>
-      <c r="C127" s="33" t="s">
-        <v>27</v>
+        <v>137</v>
+      </c>
+      <c r="C127" s="30" t="s">
+        <v>23</v>
       </c>
       <c r="D127" s="28">
-        <v>1001234146448</v>
+        <v>1001060677299</v>
       </c>
       <c r="E127" s="24"/>
-      <c r="F127" s="23">
-        <v>0.1</v>
-      </c>
+      <c r="F127" s="23"/>
       <c r="G127" s="23">
-        <f>F127*E127</f>
+        <f>E127</f>
         <v>0</v>
       </c>
       <c r="H127" s="14"/>
@@ -5177,23 +5185,21 @@
     <row r="128" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="93" t="str">
         <f>RIGHT(D128:D266,4)</f>
-        <v>6221</v>
+        <v>6834</v>
       </c>
       <c r="B128" s="27" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C128" s="33" t="s">
         <v>27</v>
       </c>
       <c r="D128" s="28">
-        <v>1001205376221</v>
+        <v>1001203146834</v>
       </c>
       <c r="E128" s="24"/>
-      <c r="F128" s="23">
-        <v>0.09</v>
-      </c>
+      <c r="F128" s="23"/>
       <c r="G128" s="23">
-        <f>F128*E128</f>
+        <f>E128*0.1</f>
         <v>0</v>
       </c>
       <c r="H128" s="14"/>
@@ -5202,21 +5208,21 @@
     </row>
     <row r="129" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="93" t="str">
-        <f>RIGHT(D129:D266,4)</f>
-        <v>5679</v>
+        <f>RIGHT(D129:D267,4)</f>
+        <v>6448</v>
       </c>
       <c r="B129" s="27" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C129" s="33" t="s">
         <v>27</v>
       </c>
       <c r="D129" s="28">
-        <v>1001190765679</v>
+        <v>1001234146448</v>
       </c>
       <c r="E129" s="24"/>
       <c r="F129" s="23">
-        <v>0.15</v>
+        <v>0.1</v>
       </c>
       <c r="G129" s="23">
         <f>F129*E129</f>
@@ -5229,53 +5235,49 @@
     <row r="130" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="93" t="str">
         <f>RIGHT(D130:D268,4)</f>
-        <v>4993</v>
+        <v>6221</v>
       </c>
       <c r="B130" s="27" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C130" s="33" t="s">
         <v>27</v>
       </c>
       <c r="D130" s="28">
-        <v>1001060764993</v>
+        <v>1001205376221</v>
       </c>
       <c r="E130" s="24"/>
       <c r="F130" s="23">
-        <v>0.25</v>
+        <v>0.09</v>
       </c>
       <c r="G130" s="23">
-        <f>E130*0.25</f>
+        <f>F130*E130</f>
         <v>0</v>
       </c>
-      <c r="H130" s="14">
-        <v>2</v>
-      </c>
-      <c r="I130" s="14">
-        <v>120</v>
-      </c>
+      <c r="H130" s="14"/>
+      <c r="I130" s="14"/>
       <c r="J130" s="39"/>
     </row>
     <row r="131" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="93" t="str">
-        <f>RIGHT(D131:D269,4)</f>
-        <v>3986</v>
+        <f>RIGHT(D131:D268,4)</f>
+        <v>5679</v>
       </c>
       <c r="B131" s="27" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C131" s="33" t="s">
         <v>27</v>
       </c>
       <c r="D131" s="28">
-        <v>1001061973986</v>
+        <v>1001190765679</v>
       </c>
       <c r="E131" s="24"/>
       <c r="F131" s="23">
-        <v>0.25</v>
+        <v>0.15</v>
       </c>
       <c r="G131" s="23">
-        <f>E131*0.25</f>
+        <f>F131*E131</f>
         <v>0</v>
       </c>
       <c r="H131" s="14"/>
@@ -5284,50 +5286,54 @@
     </row>
     <row r="132" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="93" t="str">
-        <f>RIGHT(D132:D269,4)</f>
-        <v>7105</v>
+        <f>RIGHT(D132:D270,4)</f>
+        <v>4993</v>
       </c>
       <c r="B132" s="27" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C132" s="33" t="s">
         <v>27</v>
       </c>
       <c r="D132" s="28">
-        <v>1001203207105</v>
+        <v>1001060764993</v>
       </c>
       <c r="E132" s="24"/>
       <c r="F132" s="23">
-        <v>0.09</v>
+        <v>0.25</v>
       </c>
       <c r="G132" s="23">
-        <f t="shared" ref="G132:G140" si="0">F132*E132</f>
+        <f>E132*0.25</f>
         <v>0</v>
       </c>
-      <c r="H132" s="14"/>
-      <c r="I132" s="14"/>
+      <c r="H132" s="14">
+        <v>2</v>
+      </c>
+      <c r="I132" s="14">
+        <v>120</v>
+      </c>
       <c r="J132" s="39"/>
     </row>
     <row r="133" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="93" t="str">
-        <f>RIGHT(D133:D270,4)</f>
-        <v>7106</v>
+        <f>RIGHT(D133:D271,4)</f>
+        <v>3986</v>
       </c>
       <c r="B133" s="27" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C133" s="33" t="s">
         <v>27</v>
       </c>
       <c r="D133" s="28">
-        <v>1001205447106</v>
+        <v>1001061973986</v>
       </c>
       <c r="E133" s="24"/>
       <c r="F133" s="23">
-        <v>0.09</v>
+        <v>0.25</v>
       </c>
       <c r="G133" s="23">
-        <f t="shared" si="0"/>
+        <f>E133*0.25</f>
         <v>0</v>
       </c>
       <c r="H133" s="14"/>
@@ -5337,23 +5343,23 @@
     <row r="134" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="93" t="str">
         <f>RIGHT(D134:D271,4)</f>
-        <v>7107</v>
+        <v>7105</v>
       </c>
       <c r="B134" s="27" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C134" s="33" t="s">
         <v>27</v>
       </c>
       <c r="D134" s="28">
-        <v>1001205467107</v>
+        <v>1001203207105</v>
       </c>
       <c r="E134" s="24"/>
       <c r="F134" s="23">
         <v>0.09</v>
       </c>
       <c r="G134" s="23">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="G134:G142" si="1">F134*E134</f>
         <v>0</v>
       </c>
       <c r="H134" s="14"/>
@@ -5363,23 +5369,23 @@
     <row r="135" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="93" t="str">
         <f>RIGHT(D135:D272,4)</f>
-        <v>7147</v>
+        <v>7106</v>
       </c>
       <c r="B135" s="27" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C135" s="33" t="s">
         <v>27</v>
       </c>
       <c r="D135" s="28">
-        <v>1001063237147</v>
+        <v>1001205447106</v>
       </c>
       <c r="E135" s="24"/>
       <c r="F135" s="23">
-        <v>0.22</v>
+        <v>0.09</v>
       </c>
       <c r="G135" s="23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H135" s="14"/>
@@ -5389,23 +5395,23 @@
     <row r="136" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="93" t="str">
         <f>RIGHT(D136:D273,4)</f>
-        <v>7229</v>
+        <v>7107</v>
       </c>
       <c r="B136" s="27" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C136" s="33" t="s">
         <v>27</v>
       </c>
       <c r="D136" s="28">
-        <v>1001063237229</v>
+        <v>1001205467107</v>
       </c>
       <c r="E136" s="24"/>
       <c r="F136" s="23">
-        <v>0.18</v>
+        <v>0.09</v>
       </c>
       <c r="G136" s="23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H136" s="14"/>
@@ -5414,24 +5420,24 @@
     </row>
     <row r="137" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="93" t="str">
-        <f>RIGHT(D137:D273,4)</f>
-        <v>7225</v>
+        <f>RIGHT(D137:D274,4)</f>
+        <v>7147</v>
       </c>
       <c r="B137" s="27" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C137" s="33" t="s">
         <v>27</v>
       </c>
       <c r="D137" s="28">
-        <v>1001066537225</v>
+        <v>1001063237147</v>
       </c>
       <c r="E137" s="24"/>
       <c r="F137" s="23">
-        <v>0.18</v>
+        <v>0.22</v>
       </c>
       <c r="G137" s="23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H137" s="14"/>
@@ -5440,24 +5446,24 @@
     </row>
     <row r="138" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="93" t="str">
-        <f>RIGHT(D138:D274,4)</f>
-        <v>7227</v>
+        <f>RIGHT(D138:D275,4)</f>
+        <v>7229</v>
       </c>
       <c r="B138" s="27" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C138" s="33" t="s">
         <v>27</v>
       </c>
       <c r="D138" s="28">
-        <v>1001063097227</v>
+        <v>1001063237229</v>
       </c>
       <c r="E138" s="24"/>
       <c r="F138" s="23">
         <v>0.18</v>
       </c>
       <c r="G138" s="23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H138" s="14"/>
@@ -5467,23 +5473,23 @@
     <row r="139" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="93" t="str">
         <f>RIGHT(D139:D275,4)</f>
-        <v>7226</v>
+        <v>7225</v>
       </c>
       <c r="B139" s="27" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C139" s="33" t="s">
         <v>27</v>
       </c>
       <c r="D139" s="28">
-        <v>1001066527226</v>
+        <v>1001066537225</v>
       </c>
       <c r="E139" s="24"/>
       <c r="F139" s="23">
         <v>0.18</v>
       </c>
       <c r="G139" s="23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H139" s="14"/>
@@ -5492,24 +5498,24 @@
     </row>
     <row r="140" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="93" t="str">
-        <f>RIGHT(D140:D269,4)</f>
-        <v>3684</v>
+        <f>RIGHT(D140:D276,4)</f>
+        <v>7227</v>
       </c>
       <c r="B140" s="27" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C140" s="33" t="s">
         <v>27</v>
       </c>
       <c r="D140" s="28">
-        <v>1001062353684</v>
+        <v>1001063097227</v>
       </c>
       <c r="E140" s="24"/>
       <c r="F140" s="23">
-        <v>0.25</v>
+        <v>0.18</v>
       </c>
       <c r="G140" s="23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H140" s="14"/>
@@ -5518,24 +5524,24 @@
     </row>
     <row r="141" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="93" t="str">
-        <f>RIGHT(D141:D270,4)</f>
-        <v>7317</v>
+        <f>RIGHT(D141:D277,4)</f>
+        <v>7226</v>
       </c>
       <c r="B141" s="27" t="s">
-        <v>263</v>
+        <v>151</v>
       </c>
       <c r="C141" s="33" t="s">
         <v>27</v>
       </c>
       <c r="D141" s="28">
-        <v>1001066567317</v>
+        <v>1001066527226</v>
       </c>
       <c r="E141" s="24"/>
       <c r="F141" s="23">
-        <v>0.54</v>
+        <v>0.18</v>
       </c>
       <c r="G141" s="23">
-        <f>F141*E141</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H141" s="14"/>
@@ -5544,235 +5550,235 @@
     </row>
     <row r="142" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="93" t="str">
-        <f>RIGHT(D142:D269,4)</f>
-        <v>7382</v>
+        <f>RIGHT(D142:D271,4)</f>
+        <v>3684</v>
       </c>
       <c r="B142" s="27" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C142" s="33" t="s">
         <v>27</v>
       </c>
       <c r="D142" s="28">
-        <v>1001203117382</v>
+        <v>1001062353684</v>
       </c>
       <c r="E142" s="24"/>
       <c r="F142" s="23">
-        <v>0.12</v>
+        <v>0.25</v>
       </c>
       <c r="G142" s="23">
-        <f>E142*0.12</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H142" s="14">
-        <v>0.96</v>
-      </c>
-      <c r="I142" s="14">
-        <v>60</v>
-      </c>
+      <c r="H142" s="14"/>
+      <c r="I142" s="14"/>
       <c r="J142" s="39"/>
     </row>
     <row r="143" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="93" t="str">
         <f>RIGHT(D143:D272,4)</f>
-        <v>4117</v>
+        <v>7317</v>
       </c>
       <c r="B143" s="27" t="s">
-        <v>154</v>
-      </c>
-      <c r="C143" s="30" t="s">
-        <v>23</v>
+        <v>263</v>
+      </c>
+      <c r="C143" s="33" t="s">
+        <v>27</v>
       </c>
       <c r="D143" s="28">
-        <v>1001062504117</v>
+        <v>1001066567317</v>
       </c>
       <c r="E143" s="24"/>
       <c r="F143" s="23">
-        <v>0.48749999999999999</v>
+        <v>0.54</v>
       </c>
       <c r="G143" s="23">
-        <f>E143*1</f>
+        <f>F143*E143</f>
         <v>0</v>
       </c>
-      <c r="H143" s="14">
-        <v>3.9</v>
-      </c>
-      <c r="I143" s="14">
-        <v>120</v>
-      </c>
+      <c r="H143" s="14"/>
+      <c r="I143" s="14"/>
       <c r="J143" s="39"/>
     </row>
     <row r="144" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="93" t="str">
-        <f>RIGHT(D144:D273,4)</f>
-        <v>3680</v>
+        <f>RIGHT(D144:D271,4)</f>
+        <v>7382</v>
       </c>
       <c r="B144" s="27" t="s">
-        <v>155</v>
-      </c>
-      <c r="C144" s="30" t="s">
-        <v>23</v>
+        <v>153</v>
+      </c>
+      <c r="C144" s="33" t="s">
+        <v>27</v>
       </c>
       <c r="D144" s="28">
-        <v>1001062353680</v>
+        <v>1001203117382</v>
       </c>
       <c r="E144" s="24"/>
-      <c r="F144" s="23"/>
+      <c r="F144" s="23">
+        <v>0.12</v>
+      </c>
       <c r="G144" s="23">
-        <f>E144</f>
+        <f>E144*0.12</f>
         <v>0</v>
       </c>
-      <c r="H144" s="14"/>
-      <c r="I144" s="14"/>
+      <c r="H144" s="14">
+        <v>0.96</v>
+      </c>
+      <c r="I144" s="14">
+        <v>60</v>
+      </c>
       <c r="J144" s="39"/>
     </row>
     <row r="145" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="93" t="str">
-        <f>RIGHT(D145:D273,4)</f>
-        <v>5483</v>
+        <f>RIGHT(D145:D274,4)</f>
+        <v>4117</v>
       </c>
       <c r="B145" s="27" t="s">
-        <v>156</v>
-      </c>
-      <c r="C145" s="33" t="s">
-        <v>27</v>
+        <v>154</v>
+      </c>
+      <c r="C145" s="30" t="s">
+        <v>23</v>
       </c>
       <c r="D145" s="28">
-        <v>1001062505483</v>
+        <v>1001062504117</v>
       </c>
       <c r="E145" s="24"/>
       <c r="F145" s="23">
-        <v>0.25</v>
+        <v>0.48749999999999999</v>
       </c>
       <c r="G145" s="23">
-        <f>E145*0.25</f>
+        <f>E145*1</f>
         <v>0</v>
       </c>
       <c r="H145" s="14">
-        <v>2</v>
+        <v>3.9</v>
       </c>
       <c r="I145" s="14">
         <v>120</v>
       </c>
       <c r="J145" s="39"/>
     </row>
-    <row r="146" spans="1:10" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="93" t="str">
-        <f>RIGHT(D146:D274,4)</f>
-        <v>6453</v>
+        <f>RIGHT(D146:D275,4)</f>
+        <v>3680</v>
       </c>
       <c r="B146" s="27" t="s">
-        <v>157</v>
-      </c>
-      <c r="C146" s="33" t="s">
-        <v>27</v>
+        <v>155</v>
+      </c>
+      <c r="C146" s="30" t="s">
+        <v>23</v>
       </c>
       <c r="D146" s="28">
-        <v>1001202506453</v>
+        <v>1001062353680</v>
       </c>
       <c r="E146" s="24"/>
-      <c r="F146" s="23">
-        <v>0.1</v>
-      </c>
+      <c r="F146" s="23"/>
       <c r="G146" s="23">
-        <f>E146*0.1</f>
+        <f>E146</f>
         <v>0</v>
       </c>
-      <c r="H146" s="14">
-        <v>0.8</v>
-      </c>
-      <c r="I146" s="14">
-        <v>60</v>
-      </c>
+      <c r="H146" s="14"/>
+      <c r="I146" s="14"/>
       <c r="J146" s="39"/>
     </row>
-    <row r="147" spans="1:10" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" s="93" t="str">
         <f>RIGHT(D147:D275,4)</f>
+        <v>5483</v>
+      </c>
+      <c r="B147" s="27" t="s">
+        <v>156</v>
+      </c>
+      <c r="C147" s="33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D147" s="28">
+        <v>1001062505483</v>
+      </c>
+      <c r="E147" s="24"/>
+      <c r="F147" s="23">
+        <v>0.25</v>
+      </c>
+      <c r="G147" s="23">
+        <f>E147*0.25</f>
+        <v>0</v>
+      </c>
+      <c r="H147" s="14">
+        <v>2</v>
+      </c>
+      <c r="I147" s="14">
+        <v>120</v>
+      </c>
+      <c r="J147" s="39"/>
+    </row>
+    <row r="148" spans="1:10" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A148" s="93" t="str">
+        <f>RIGHT(D148:D276,4)</f>
+        <v>6453</v>
+      </c>
+      <c r="B148" s="27" t="s">
+        <v>157</v>
+      </c>
+      <c r="C148" s="33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D148" s="28">
+        <v>1001202506453</v>
+      </c>
+      <c r="E148" s="24"/>
+      <c r="F148" s="23">
+        <v>0.1</v>
+      </c>
+      <c r="G148" s="23">
+        <f>E148*0.1</f>
+        <v>0</v>
+      </c>
+      <c r="H148" s="14">
+        <v>0.8</v>
+      </c>
+      <c r="I148" s="14">
+        <v>60</v>
+      </c>
+      <c r="J148" s="39"/>
+    </row>
+    <row r="149" spans="1:10" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A149" s="93" t="str">
+        <f>RIGHT(D149:D277,4)</f>
         <v/>
       </c>
-      <c r="B147" s="74" t="s">
+      <c r="B149" s="74" t="s">
         <v>158</v>
       </c>
-      <c r="C147" s="74"/>
-      <c r="D147" s="74"/>
-      <c r="E147" s="74"/>
-      <c r="F147" s="73"/>
-      <c r="G147" s="74"/>
-      <c r="H147" s="74"/>
-      <c r="I147" s="74"/>
-      <c r="J147" s="75"/>
-    </row>
-    <row r="148" spans="1:10" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A148" s="93" t="str">
-        <f>RIGHT(D148:D279,4)</f>
-        <v>6470</v>
-      </c>
-      <c r="B148" s="29" t="s">
-        <v>159</v>
-      </c>
-      <c r="C148" s="32" t="s">
-        <v>23</v>
-      </c>
-      <c r="D148" s="80">
-        <v>1001092436470</v>
-      </c>
-      <c r="E148" s="24"/>
-      <c r="F148" s="23"/>
-      <c r="G148" s="23">
-        <f>E148*1</f>
-        <v>0</v>
-      </c>
-      <c r="H148" s="14"/>
-      <c r="I148" s="14"/>
-      <c r="J148" s="39"/>
-    </row>
-    <row r="149" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A149" s="93" t="str">
-        <f>RIGHT(D149:D280,4)</f>
-        <v>6495</v>
-      </c>
-      <c r="B149" s="29" t="s">
-        <v>160</v>
-      </c>
-      <c r="C149" s="32" t="s">
-        <v>27</v>
-      </c>
-      <c r="D149" s="80">
-        <v>1001092436495</v>
-      </c>
-      <c r="E149" s="24"/>
-      <c r="F149" s="23">
-        <v>0.3</v>
-      </c>
-      <c r="G149" s="23">
-        <f>F149*E149</f>
-        <v>0</v>
-      </c>
-      <c r="H149" s="14"/>
-      <c r="I149" s="14"/>
-      <c r="J149" s="39"/>
-    </row>
-    <row r="150" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C149" s="74"/>
+      <c r="D149" s="74"/>
+      <c r="E149" s="74"/>
+      <c r="F149" s="73"/>
+      <c r="G149" s="74"/>
+      <c r="H149" s="74"/>
+      <c r="I149" s="74"/>
+      <c r="J149" s="75"/>
+    </row>
+    <row r="150" spans="1:10" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A150" s="93" t="str">
         <f>RIGHT(D150:D281,4)</f>
-        <v>7235</v>
+        <v>6470</v>
       </c>
       <c r="B150" s="29" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C150" s="32" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D150" s="80">
-        <v>1001095227235</v>
+        <v>1001092436470</v>
       </c>
       <c r="E150" s="24"/>
-      <c r="F150" s="23">
-        <v>0.35</v>
-      </c>
+      <c r="F150" s="23"/>
       <c r="G150" s="23">
-        <f>F150*E150</f>
+        <f>E150*1</f>
         <v>0</v>
       </c>
       <c r="H150" s="14"/>
@@ -5782,16 +5788,16 @@
     <row r="151" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" s="93" t="str">
         <f>RIGHT(D151:D282,4)</f>
-        <v>6411</v>
+        <v>6495</v>
       </c>
       <c r="B151" s="29" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C151" s="32" t="s">
         <v>27</v>
       </c>
       <c r="D151" s="80">
-        <v>1001093316411</v>
+        <v>1001092436495</v>
       </c>
       <c r="E151" s="24"/>
       <c r="F151" s="23">
@@ -5808,20 +5814,20 @@
     <row r="152" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" s="93" t="str">
         <f>RIGHT(D152:D283,4)</f>
-        <v>7377</v>
+        <v>7235</v>
       </c>
       <c r="B152" s="29" t="s">
-        <v>264</v>
+        <v>161</v>
       </c>
       <c r="C152" s="32" t="s">
         <v>27</v>
       </c>
       <c r="D152" s="80">
-        <v>1001095027377</v>
+        <v>1001095227235</v>
       </c>
       <c r="E152" s="24"/>
       <c r="F152" s="23">
-        <v>0.3</v>
+        <v>0.35</v>
       </c>
       <c r="G152" s="23">
         <f>F152*E152</f>
@@ -5833,22 +5839,24 @@
     </row>
     <row r="153" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" s="93" t="str">
-        <f>RIGHT(D153:D280,4)</f>
-        <v>6866</v>
+        <f>RIGHT(D153:D284,4)</f>
+        <v>6411</v>
       </c>
       <c r="B153" s="29" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C153" s="32" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="D153" s="80">
-        <v>1001095716866</v>
+        <v>1001093316411</v>
       </c>
       <c r="E153" s="24"/>
-      <c r="F153" s="23"/>
+      <c r="F153" s="23">
+        <v>0.3</v>
+      </c>
       <c r="G153" s="23">
-        <f>E153*1</f>
+        <f>F153*E153</f>
         <v>0</v>
       </c>
       <c r="H153" s="14"/>
@@ -5857,177 +5865,175 @@
     </row>
     <row r="154" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" s="93" t="str">
-        <f>RIGHT(D154:D277,4)</f>
-        <v>3215</v>
-      </c>
-      <c r="B154" s="27" t="s">
-        <v>164</v>
-      </c>
-      <c r="C154" s="37" t="s">
+        <f>RIGHT(D154:D285,4)</f>
+        <v>7377</v>
+      </c>
+      <c r="B154" s="29" t="s">
+        <v>264</v>
+      </c>
+      <c r="C154" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="D154" s="51">
-        <v>1001094053215</v>
+      <c r="D154" s="80">
+        <v>1001095027377</v>
       </c>
       <c r="E154" s="24"/>
       <c r="F154" s="23">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="G154" s="23">
-        <f>E154*0.4</f>
+        <f>F154*E154</f>
         <v>0</v>
       </c>
-      <c r="H154" s="14">
-        <v>3.2</v>
-      </c>
-      <c r="I154" s="14">
-        <v>60</v>
-      </c>
+      <c r="H154" s="14"/>
+      <c r="I154" s="14"/>
       <c r="J154" s="39"/>
     </row>
-    <row r="155" spans="1:10" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155" s="93" t="str">
-        <f>RIGHT(D155:D278,4)</f>
-        <v>7245</v>
-      </c>
-      <c r="B155" s="27" t="s">
-        <v>165</v>
-      </c>
-      <c r="C155" s="37" t="s">
-        <v>27</v>
-      </c>
-      <c r="D155" s="51">
-        <v>1001092687245</v>
+        <f>RIGHT(D155:D282,4)</f>
+        <v>6866</v>
+      </c>
+      <c r="B155" s="29" t="s">
+        <v>163</v>
+      </c>
+      <c r="C155" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="D155" s="80">
+        <v>1001095716866</v>
       </c>
       <c r="E155" s="24"/>
-      <c r="F155" s="23">
-        <v>0.4</v>
-      </c>
+      <c r="F155" s="23"/>
       <c r="G155" s="23">
-        <f>E155*0.4</f>
+        <f>E155*1</f>
         <v>0</v>
       </c>
       <c r="H155" s="14"/>
       <c r="I155" s="14"/>
       <c r="J155" s="39"/>
     </row>
-    <row r="156" spans="1:10" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156" s="93" t="str">
-        <f>RIGHT(D156:D280,4)</f>
-        <v/>
-      </c>
-      <c r="B156" s="74" t="s">
-        <v>166</v>
-      </c>
-      <c r="C156" s="74"/>
-      <c r="D156" s="74"/>
-      <c r="E156" s="74"/>
-      <c r="F156" s="73"/>
-      <c r="G156" s="74"/>
-      <c r="H156" s="74"/>
-      <c r="I156" s="74"/>
-      <c r="J156" s="75"/>
-    </row>
-    <row r="157" spans="1:10" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+        <f>RIGHT(D156:D279,4)</f>
+        <v>3215</v>
+      </c>
+      <c r="B156" s="27" t="s">
+        <v>164</v>
+      </c>
+      <c r="C156" s="37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D156" s="51">
+        <v>1001094053215</v>
+      </c>
+      <c r="E156" s="24"/>
+      <c r="F156" s="23">
+        <v>0.4</v>
+      </c>
+      <c r="G156" s="23">
+        <f>E156*0.4</f>
+        <v>0</v>
+      </c>
+      <c r="H156" s="14">
+        <v>3.2</v>
+      </c>
+      <c r="I156" s="14">
+        <v>60</v>
+      </c>
+      <c r="J156" s="39"/>
+    </row>
+    <row r="157" spans="1:10" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A157" s="93" t="str">
-        <f>RIGHT(D157:D283,4)</f>
-        <v>7090</v>
-      </c>
-      <c r="B157" s="47" t="s">
-        <v>167</v>
-      </c>
-      <c r="C157" s="35" t="s">
+        <f>RIGHT(D157:D280,4)</f>
+        <v>7245</v>
+      </c>
+      <c r="B157" s="27" t="s">
+        <v>165</v>
+      </c>
+      <c r="C157" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="D157" s="28">
-        <v>1001084217090</v>
+      <c r="D157" s="51">
+        <v>1001092687245</v>
       </c>
       <c r="E157" s="24"/>
       <c r="F157" s="23">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="G157" s="23">
-        <f>E157*F157</f>
+        <f>E157*0.4</f>
         <v>0</v>
       </c>
       <c r="H157" s="14"/>
-      <c r="I157" s="14">
-        <v>50</v>
-      </c>
+      <c r="I157" s="14"/>
       <c r="J157" s="39"/>
     </row>
-    <row r="158" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:10" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A158" s="93" t="str">
-        <f>RIGHT(D158:D284,4)</f>
-        <v>4691</v>
-      </c>
-      <c r="B158" s="47" t="s">
-        <v>168</v>
-      </c>
-      <c r="C158" s="35" t="s">
-        <v>27</v>
-      </c>
-      <c r="D158" s="28">
-        <v>1001083424691</v>
-      </c>
-      <c r="E158" s="24"/>
-      <c r="F158" s="23">
-        <v>0.3</v>
-      </c>
-      <c r="G158" s="23">
-        <f t="shared" ref="G158:G164" si="1">F158*E158</f>
-        <v>0</v>
-      </c>
-      <c r="H158" s="14"/>
-      <c r="I158" s="14"/>
-      <c r="J158" s="92"/>
-    </row>
-    <row r="159" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+        <f>RIGHT(D158:D282,4)</f>
+        <v/>
+      </c>
+      <c r="B158" s="74" t="s">
+        <v>166</v>
+      </c>
+      <c r="C158" s="74"/>
+      <c r="D158" s="74"/>
+      <c r="E158" s="74"/>
+      <c r="F158" s="73"/>
+      <c r="G158" s="74"/>
+      <c r="H158" s="74"/>
+      <c r="I158" s="74"/>
+      <c r="J158" s="75"/>
+    </row>
+    <row r="159" spans="1:10" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A159" s="93" t="str">
         <f>RIGHT(D159:D285,4)</f>
-        <v>7187</v>
+        <v>7090</v>
       </c>
       <c r="B159" s="47" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C159" s="35" t="s">
         <v>27</v>
       </c>
       <c r="D159" s="28">
-        <v>1001085637187</v>
+        <v>1001084217090</v>
       </c>
       <c r="E159" s="24"/>
       <c r="F159" s="23">
         <v>0.3</v>
       </c>
       <c r="G159" s="23">
-        <f t="shared" si="1"/>
+        <f>E159*F159</f>
         <v>0</v>
       </c>
       <c r="H159" s="14"/>
-      <c r="I159" s="14"/>
-      <c r="J159" s="92"/>
+      <c r="I159" s="14">
+        <v>50</v>
+      </c>
+      <c r="J159" s="39"/>
     </row>
     <row r="160" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160" s="93" t="str">
         <f>RIGHT(D160:D286,4)</f>
-        <v>6201</v>
+        <v>4691</v>
       </c>
       <c r="B160" s="47" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C160" s="35" t="s">
         <v>27</v>
       </c>
       <c r="D160" s="28">
-        <v>1001225636201</v>
+        <v>1001083424691</v>
       </c>
       <c r="E160" s="24"/>
       <c r="F160" s="23">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="G160" s="23">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="G160:G166" si="2">F160*E160</f>
         <v>0</v>
       </c>
       <c r="H160" s="14"/>
@@ -6036,24 +6042,24 @@
     </row>
     <row r="161" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A161" s="93" t="str">
-        <f>RIGHT(D161:D286,4)</f>
-        <v>6842</v>
+        <f>RIGHT(D161:D287,4)</f>
+        <v>7187</v>
       </c>
       <c r="B161" s="47" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C161" s="35" t="s">
         <v>27</v>
       </c>
       <c r="D161" s="28">
-        <v>1001080216842</v>
+        <v>1001085637187</v>
       </c>
       <c r="E161" s="24"/>
       <c r="F161" s="23">
         <v>0.3</v>
       </c>
       <c r="G161" s="23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H161" s="14"/>
@@ -6062,24 +6068,24 @@
     </row>
     <row r="162" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A162" s="93" t="str">
-        <f>RIGHT(D162:D286,4)</f>
-        <v>6492</v>
+        <f>RIGHT(D162:D288,4)</f>
+        <v>6201</v>
       </c>
       <c r="B162" s="47" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C162" s="35" t="s">
         <v>27</v>
       </c>
       <c r="D162" s="28">
-        <v>1001084226492</v>
+        <v>1001225636201</v>
       </c>
       <c r="E162" s="24"/>
       <c r="F162" s="23">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="G162" s="23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H162" s="14"/>
@@ -6088,24 +6094,24 @@
     </row>
     <row r="163" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A163" s="93" t="str">
-        <f>RIGHT(D163:D284,4)</f>
-        <v>6279</v>
+        <f>RIGHT(D163:D288,4)</f>
+        <v>6842</v>
       </c>
       <c r="B163" s="47" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C163" s="35" t="s">
         <v>27</v>
       </c>
       <c r="D163" s="28">
-        <v>1001220286279</v>
+        <v>1001080216842</v>
       </c>
       <c r="E163" s="24"/>
       <c r="F163" s="23">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="G163" s="23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H163" s="14"/>
@@ -6114,24 +6120,24 @@
     </row>
     <row r="164" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A164" s="93" t="str">
-        <f>RIGHT(D164:D285,4)</f>
-        <v>4786</v>
+        <f>RIGHT(D164:D288,4)</f>
+        <v>6492</v>
       </c>
       <c r="B164" s="47" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C164" s="35" t="s">
         <v>27</v>
       </c>
       <c r="D164" s="28">
-        <v>1001053944786</v>
+        <v>1001084226492</v>
       </c>
       <c r="E164" s="24"/>
       <c r="F164" s="23">
-        <v>7.0000000000000007E-2</v>
+        <v>0.3</v>
       </c>
       <c r="G164" s="23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H164" s="14"/>
@@ -6141,23 +6147,23 @@
     <row r="165" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A165" s="93" t="str">
         <f>RIGHT(D165:D286,4)</f>
-        <v>7052</v>
+        <v>6279</v>
       </c>
       <c r="B165" s="47" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C165" s="35" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="D165" s="28">
-        <v>1001204447052</v>
+        <v>1001220286279</v>
       </c>
       <c r="E165" s="24"/>
       <c r="F165" s="23">
-        <v>1</v>
+        <v>0.15</v>
       </c>
       <c r="G165" s="23">
-        <f>E165</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H165" s="14"/>
@@ -6166,24 +6172,24 @@
     </row>
     <row r="166" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A166" s="93" t="str">
-        <f>RIGHT(D166:D286,4)</f>
-        <v>7053</v>
+        <f>RIGHT(D166:D287,4)</f>
+        <v>4786</v>
       </c>
       <c r="B166" s="47" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C166" s="35" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="D166" s="28">
-        <v>1001223297053</v>
+        <v>1001053944786</v>
       </c>
       <c r="E166" s="24"/>
       <c r="F166" s="23">
-        <v>1</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="G166" s="23">
-        <f>E166</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H166" s="14"/>
@@ -6192,263 +6198,268 @@
     </row>
     <row r="167" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A167" s="93" t="str">
-        <f>RIGHT(D167:D286,4)</f>
-        <v>7092</v>
-      </c>
-      <c r="B167" s="27" t="s">
-        <v>177</v>
-      </c>
-      <c r="C167" s="33" t="s">
-        <v>27</v>
+        <f>RIGHT(D167:D288,4)</f>
+        <v>7052</v>
+      </c>
+      <c r="B167" s="47" t="s">
+        <v>175</v>
+      </c>
+      <c r="C167" s="35" t="s">
+        <v>23</v>
       </c>
       <c r="D167" s="28">
-        <v>1001223297092</v>
+        <v>1001204447052</v>
       </c>
       <c r="E167" s="24"/>
       <c r="F167" s="23">
-        <v>0.14000000000000001</v>
+        <v>1</v>
       </c>
       <c r="G167" s="23">
-        <f>F167*E167</f>
+        <f>E167</f>
         <v>0</v>
       </c>
       <c r="H167" s="14"/>
       <c r="I167" s="14"/>
-      <c r="J167" s="39"/>
+      <c r="J167" s="92"/>
     </row>
     <row r="168" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A168" s="93" t="str">
-        <f>RIGHT(D168:D287,4)</f>
-        <v>7103</v>
-      </c>
-      <c r="B168" s="27" t="s">
-        <v>178</v>
-      </c>
-      <c r="C168" s="33" t="s">
-        <v>27</v>
+        <f>RIGHT(D168:D288,4)</f>
+        <v>7053</v>
+      </c>
+      <c r="B168" s="47" t="s">
+        <v>176</v>
+      </c>
+      <c r="C168" s="35" t="s">
+        <v>23</v>
       </c>
       <c r="D168" s="28">
-        <v>1001223297103</v>
+        <v>1001223297053</v>
       </c>
       <c r="E168" s="24"/>
       <c r="F168" s="23">
-        <v>0.18</v>
+        <v>1</v>
       </c>
       <c r="G168" s="23">
-        <f>F168*E168</f>
+        <f>E168</f>
         <v>0</v>
       </c>
       <c r="H168" s="14"/>
       <c r="I168" s="14"/>
       <c r="J168" s="92"/>
     </row>
-    <row r="169" spans="1:10" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A169" s="93" t="str">
-        <f>RIGHT(D169:D284,4)</f>
-        <v>6919</v>
-      </c>
-      <c r="B169" s="47" t="s">
-        <v>179</v>
-      </c>
-      <c r="C169" s="35" t="s">
+        <f>RIGHT(D169:D288,4)</f>
+        <v>7092</v>
+      </c>
+      <c r="B169" s="27" t="s">
+        <v>177</v>
+      </c>
+      <c r="C169" s="33" t="s">
         <v>27</v>
       </c>
       <c r="D169" s="28">
-        <v>1001223296919</v>
+        <v>1001223297092</v>
       </c>
       <c r="E169" s="24"/>
-      <c r="F169" s="23"/>
+      <c r="F169" s="23">
+        <v>0.14000000000000001</v>
+      </c>
       <c r="G169" s="23">
-        <f>E169*0.18</f>
+        <f>F169*E169</f>
         <v>0</v>
       </c>
       <c r="H169" s="14"/>
       <c r="I169" s="14"/>
-      <c r="J169" s="92"/>
-    </row>
-    <row r="170" spans="1:10" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J169" s="39"/>
+    </row>
+    <row r="170" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A170" s="93" t="str">
-        <f>RIGHT(D170:D285,4)</f>
+        <f>RIGHT(D170:D289,4)</f>
+        <v>7103</v>
+      </c>
+      <c r="B170" s="27" t="s">
+        <v>178</v>
+      </c>
+      <c r="C170" s="33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D170" s="28">
+        <v>1001223297103</v>
+      </c>
+      <c r="E170" s="24"/>
+      <c r="F170" s="23">
+        <v>0.18</v>
+      </c>
+      <c r="G170" s="23">
+        <f>F170*E170</f>
+        <v>0</v>
+      </c>
+      <c r="H170" s="14"/>
+      <c r="I170" s="14"/>
+      <c r="J170" s="92"/>
+    </row>
+    <row r="171" spans="1:10" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A171" s="93" t="str">
+        <f>RIGHT(D171:D286,4)</f>
+        <v>6919</v>
+      </c>
+      <c r="B171" s="47" t="s">
+        <v>179</v>
+      </c>
+      <c r="C171" s="35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D171" s="28">
+        <v>1001223296919</v>
+      </c>
+      <c r="E171" s="24"/>
+      <c r="F171" s="23"/>
+      <c r="G171" s="23">
+        <f>E171*0.18</f>
+        <v>0</v>
+      </c>
+      <c r="H171" s="14"/>
+      <c r="I171" s="14"/>
+      <c r="J171" s="92"/>
+    </row>
+    <row r="172" spans="1:10" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A172" s="93" t="str">
+        <f>RIGHT(D172:D287,4)</f>
         <v/>
       </c>
-      <c r="B170" s="74" t="s">
+      <c r="B172" s="74" t="s">
         <v>180</v>
       </c>
-      <c r="C170" s="74"/>
-      <c r="D170" s="74"/>
-      <c r="E170" s="74"/>
-      <c r="F170" s="73"/>
-      <c r="G170" s="74"/>
-      <c r="H170" s="74"/>
-      <c r="I170" s="74"/>
-      <c r="J170" s="75"/>
-    </row>
-    <row r="171" spans="1:10" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A171" s="93" t="str">
-        <f>RIGHT(D171:D288,4)</f>
-        <v/>
-      </c>
-      <c r="B171" s="74" t="s">
-        <v>181</v>
-      </c>
-      <c r="C171" s="74"/>
-      <c r="D171" s="74"/>
-      <c r="E171" s="74"/>
-      <c r="F171" s="73"/>
-      <c r="G171" s="74"/>
-      <c r="H171" s="74"/>
-      <c r="I171" s="74"/>
-      <c r="J171" s="75"/>
-    </row>
-    <row r="172" spans="1:10" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A172" s="93" t="str">
-        <f>RIGHT(D172:D289,4)</f>
-        <v>6314</v>
-      </c>
-      <c r="B172" s="47" t="s">
-        <v>182</v>
-      </c>
-      <c r="C172" s="33" t="s">
-        <v>27</v>
-      </c>
-      <c r="D172" s="28">
-        <v>1002112606314</v>
-      </c>
-      <c r="E172" s="24"/>
-      <c r="F172" s="23">
-        <v>0.5</v>
-      </c>
-      <c r="G172" s="23">
-        <f>E172*0.5</f>
-        <v>0</v>
-      </c>
-      <c r="H172" s="14">
-        <v>8</v>
-      </c>
-      <c r="I172" s="72">
-        <v>120</v>
-      </c>
-      <c r="J172" s="39"/>
-    </row>
-    <row r="173" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C172" s="74"/>
+      <c r="D172" s="74"/>
+      <c r="E172" s="74"/>
+      <c r="F172" s="73"/>
+      <c r="G172" s="74"/>
+      <c r="H172" s="74"/>
+      <c r="I172" s="74"/>
+      <c r="J172" s="75"/>
+    </row>
+    <row r="173" spans="1:10" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A173" s="93" t="str">
         <f>RIGHT(D173:D290,4)</f>
-        <v>6155</v>
-      </c>
-      <c r="B173" s="47" t="s">
-        <v>183</v>
-      </c>
-      <c r="C173" s="33" t="s">
-        <v>27</v>
-      </c>
-      <c r="D173" s="28">
-        <v>1002115036155</v>
-      </c>
-      <c r="E173" s="24"/>
-      <c r="F173" s="23"/>
-      <c r="G173" s="23">
-        <f>E173*0.45</f>
-        <v>0</v>
-      </c>
-      <c r="H173" s="14"/>
-      <c r="I173" s="72"/>
-      <c r="J173" s="39"/>
-    </row>
-    <row r="174" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v/>
+      </c>
+      <c r="B173" s="74" t="s">
+        <v>181</v>
+      </c>
+      <c r="C173" s="74"/>
+      <c r="D173" s="74"/>
+      <c r="E173" s="74"/>
+      <c r="F173" s="73"/>
+      <c r="G173" s="74"/>
+      <c r="H173" s="74"/>
+      <c r="I173" s="74"/>
+      <c r="J173" s="75"/>
+    </row>
+    <row r="174" spans="1:10" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A174" s="93" t="str">
         <f>RIGHT(D174:D291,4)</f>
-        <v>6157</v>
+        <v>6314</v>
       </c>
       <c r="B174" s="47" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C174" s="33" t="s">
         <v>27</v>
       </c>
       <c r="D174" s="28">
+        <v>1002112606314</v>
+      </c>
+      <c r="E174" s="24"/>
+      <c r="F174" s="23">
+        <v>0.5</v>
+      </c>
+      <c r="G174" s="23">
+        <f>E174*0.5</f>
+        <v>0</v>
+      </c>
+      <c r="H174" s="14">
+        <v>8</v>
+      </c>
+      <c r="I174" s="72">
+        <v>120</v>
+      </c>
+      <c r="J174" s="39"/>
+    </row>
+    <row r="175" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A175" s="93" t="str">
+        <f>RIGHT(D175:D292,4)</f>
+        <v>6155</v>
+      </c>
+      <c r="B175" s="47" t="s">
+        <v>183</v>
+      </c>
+      <c r="C175" s="33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D175" s="28">
+        <v>1002115036155</v>
+      </c>
+      <c r="E175" s="24"/>
+      <c r="F175" s="23"/>
+      <c r="G175" s="23">
+        <f>E175*0.45</f>
+        <v>0</v>
+      </c>
+      <c r="H175" s="14"/>
+      <c r="I175" s="72"/>
+      <c r="J175" s="39"/>
+    </row>
+    <row r="176" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A176" s="93" t="str">
+        <f>RIGHT(D176:D293,4)</f>
+        <v>6157</v>
+      </c>
+      <c r="B176" s="47" t="s">
+        <v>184</v>
+      </c>
+      <c r="C176" s="33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D176" s="28">
         <v>1002115056157</v>
       </c>
-      <c r="E174" s="24"/>
-      <c r="F174" s="23"/>
-      <c r="G174" s="23">
-        <f>E174*0.45</f>
+      <c r="E176" s="24"/>
+      <c r="F176" s="23"/>
+      <c r="G176" s="23">
+        <f>E176*0.45</f>
         <v>0</v>
       </c>
-      <c r="H174" s="14"/>
-      <c r="I174" s="72"/>
-      <c r="J174" s="39"/>
-    </row>
-    <row r="175" spans="1:10" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A175" s="93" t="str">
-        <f t="shared" ref="A175:A186" si="2">RIGHT(D175:D290,4)</f>
+      <c r="H176" s="14"/>
+      <c r="I176" s="72"/>
+      <c r="J176" s="39"/>
+    </row>
+    <row r="177" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A177" s="93" t="str">
+        <f t="shared" ref="A177:A188" si="3">RIGHT(D177:D292,4)</f>
         <v>6313</v>
       </c>
-      <c r="B175" s="47" t="s">
+      <c r="B177" s="47" t="s">
         <v>185</v>
-      </c>
-      <c r="C175" s="36" t="s">
-        <v>27</v>
-      </c>
-      <c r="D175" s="28">
-        <v>1002112606313</v>
-      </c>
-      <c r="E175" s="24"/>
-      <c r="F175" s="23">
-        <v>0.9</v>
-      </c>
-      <c r="G175" s="23">
-        <f>E175*0.9</f>
-        <v>0</v>
-      </c>
-      <c r="H175" s="14">
-        <v>9</v>
-      </c>
-      <c r="I175" s="72">
-        <v>120</v>
-      </c>
-      <c r="J175" s="39"/>
-    </row>
-    <row r="176" spans="1:10" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A176" s="93" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="B176" s="74" t="s">
-        <v>186</v>
-      </c>
-      <c r="C176" s="74"/>
-      <c r="D176" s="74"/>
-      <c r="E176" s="74"/>
-      <c r="F176" s="73"/>
-      <c r="G176" s="74"/>
-      <c r="H176" s="74"/>
-      <c r="I176" s="74"/>
-      <c r="J176" s="75"/>
-    </row>
-    <row r="177" spans="1:11" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A177" s="93" t="str">
-        <f t="shared" si="2"/>
-        <v>4945</v>
-      </c>
-      <c r="B177" s="47" t="s">
-        <v>187</v>
       </c>
       <c r="C177" s="36" t="s">
         <v>27</v>
       </c>
       <c r="D177" s="28">
-        <v>1002151784945</v>
+        <v>1002112606313</v>
       </c>
       <c r="E177" s="24"/>
       <c r="F177" s="23">
-        <v>0.5</v>
+        <v>0.9</v>
       </c>
       <c r="G177" s="23">
-        <f>E177*0.5</f>
+        <f>E177*0.9</f>
         <v>0</v>
       </c>
       <c r="H177" s="14">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I177" s="72">
         <v>120</v>
@@ -6457,11 +6468,11 @@
     </row>
     <row r="178" spans="1:11" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A178" s="93" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="B178" s="74" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C178" s="74"/>
       <c r="D178" s="74"/>
@@ -6472,204 +6483,191 @@
       <c r="I178" s="74"/>
       <c r="J178" s="75"/>
     </row>
-    <row r="179" spans="1:11" s="88" customFormat="1" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:11" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A179" s="93" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
+        <v>4945</v>
+      </c>
+      <c r="B179" s="47" t="s">
+        <v>187</v>
+      </c>
+      <c r="C179" s="36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D179" s="28">
+        <v>1002151784945</v>
+      </c>
+      <c r="E179" s="24"/>
+      <c r="F179" s="23">
+        <v>0.5</v>
+      </c>
+      <c r="G179" s="23">
+        <f>E179*0.5</f>
+        <v>0</v>
+      </c>
+      <c r="H179" s="14">
+        <v>8</v>
+      </c>
+      <c r="I179" s="72">
+        <v>120</v>
+      </c>
+      <c r="J179" s="39"/>
+    </row>
+    <row r="180" spans="1:11" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A180" s="93" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="B180" s="74" t="s">
+        <v>188</v>
+      </c>
+      <c r="C180" s="74"/>
+      <c r="D180" s="74"/>
+      <c r="E180" s="74"/>
+      <c r="F180" s="73"/>
+      <c r="G180" s="74"/>
+      <c r="H180" s="74"/>
+      <c r="I180" s="74"/>
+      <c r="J180" s="75"/>
+    </row>
+    <row r="181" spans="1:11" s="88" customFormat="1" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A181" s="93" t="str">
+        <f t="shared" si="3"/>
         <v>4956</v>
       </c>
-      <c r="B179" s="89" t="s">
+      <c r="B181" s="89" t="s">
         <v>189</v>
       </c>
-      <c r="C179" s="90" t="s">
+      <c r="C181" s="90" t="s">
         <v>27</v>
       </c>
-      <c r="D179" s="83">
+      <c r="D181" s="83">
         <v>1002133974956</v>
       </c>
-      <c r="E179" s="84"/>
-      <c r="F179" s="85">
+      <c r="E181" s="84"/>
+      <c r="F181" s="85">
         <v>0.42</v>
       </c>
-      <c r="G179" s="85">
-        <f>E179*0.42</f>
-        <v>0</v>
-      </c>
-      <c r="H179" s="86">
-        <v>4.2</v>
-      </c>
-      <c r="I179" s="91">
-        <v>120</v>
-      </c>
-      <c r="J179" s="86"/>
-      <c r="K179" s="87"/>
-    </row>
-    <row r="180" spans="1:11" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A180" s="93" t="str">
-        <f t="shared" si="2"/>
-        <v>1762</v>
-      </c>
-      <c r="B180" s="47" t="s">
-        <v>190</v>
-      </c>
-      <c r="C180" s="33" t="s">
-        <v>27</v>
-      </c>
-      <c r="D180" s="28">
-        <v>1002131151762</v>
-      </c>
-      <c r="E180" s="24"/>
-      <c r="F180" s="23">
-        <v>0.42</v>
-      </c>
-      <c r="G180" s="23">
-        <f>E180*0.42</f>
-        <v>0</v>
-      </c>
-      <c r="H180" s="14">
-        <v>4.2</v>
-      </c>
-      <c r="I180" s="72">
-        <v>120</v>
-      </c>
-      <c r="J180" s="39"/>
-    </row>
-    <row r="181" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A181" s="93" t="str">
-        <f t="shared" si="2"/>
-        <v>1764</v>
-      </c>
-      <c r="B181" s="47" t="s">
-        <v>191</v>
-      </c>
-      <c r="C181" s="36" t="s">
-        <v>27</v>
-      </c>
-      <c r="D181" s="28">
-        <v>1002131181764</v>
-      </c>
-      <c r="E181" s="24"/>
-      <c r="F181" s="23">
-        <v>0.42</v>
-      </c>
-      <c r="G181" s="23">
+      <c r="G181" s="85">
         <f>E181*0.42</f>
         <v>0</v>
       </c>
-      <c r="H181" s="14">
+      <c r="H181" s="86">
         <v>4.2</v>
       </c>
-      <c r="I181" s="72">
+      <c r="I181" s="91">
         <v>120</v>
       </c>
-      <c r="J181" s="39"/>
-    </row>
-    <row r="182" spans="1:11" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J181" s="86"/>
+      <c r="K181" s="87"/>
+    </row>
+    <row r="182" spans="1:11" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A182" s="93" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="B182" s="74" t="s">
-        <v>192</v>
-      </c>
-      <c r="C182" s="74"/>
-      <c r="D182" s="74"/>
-      <c r="E182" s="74"/>
-      <c r="F182" s="73"/>
-      <c r="G182" s="74"/>
-      <c r="H182" s="74"/>
-      <c r="I182" s="74"/>
-      <c r="J182" s="75"/>
-    </row>
-    <row r="183" spans="1:11" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="3"/>
+        <v>1762</v>
+      </c>
+      <c r="B182" s="47" t="s">
+        <v>190</v>
+      </c>
+      <c r="C182" s="33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D182" s="28">
+        <v>1002131151762</v>
+      </c>
+      <c r="E182" s="24"/>
+      <c r="F182" s="23">
+        <v>0.42</v>
+      </c>
+      <c r="G182" s="23">
+        <f>E182*0.42</f>
+        <v>0</v>
+      </c>
+      <c r="H182" s="14">
+        <v>4.2</v>
+      </c>
+      <c r="I182" s="72">
+        <v>120</v>
+      </c>
+      <c r="J182" s="39"/>
+    </row>
+    <row r="183" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A183" s="93" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="B183" s="74" t="s">
-        <v>193</v>
-      </c>
-      <c r="C183" s="74"/>
-      <c r="D183" s="74"/>
-      <c r="E183" s="74"/>
-      <c r="F183" s="73"/>
-      <c r="G183" s="74"/>
-      <c r="H183" s="74"/>
-      <c r="I183" s="74"/>
-      <c r="J183" s="75"/>
+        <f t="shared" si="3"/>
+        <v>1764</v>
+      </c>
+      <c r="B183" s="47" t="s">
+        <v>191</v>
+      </c>
+      <c r="C183" s="36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D183" s="28">
+        <v>1002131181764</v>
+      </c>
+      <c r="E183" s="24"/>
+      <c r="F183" s="23">
+        <v>0.42</v>
+      </c>
+      <c r="G183" s="23">
+        <f>E183*0.42</f>
+        <v>0</v>
+      </c>
+      <c r="H183" s="14">
+        <v>4.2</v>
+      </c>
+      <c r="I183" s="72">
+        <v>120</v>
+      </c>
+      <c r="J183" s="39"/>
     </row>
     <row r="184" spans="1:11" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A184" s="93" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="B184" s="74" t="s">
+        <v>192</v>
+      </c>
+      <c r="C184" s="74"/>
+      <c r="D184" s="74"/>
+      <c r="E184" s="74"/>
+      <c r="F184" s="73"/>
+      <c r="G184" s="74"/>
+      <c r="H184" s="74"/>
+      <c r="I184" s="74"/>
+      <c r="J184" s="75"/>
+    </row>
+    <row r="185" spans="1:11" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A185" s="93" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="B185" s="74" t="s">
+        <v>193</v>
+      </c>
+      <c r="C185" s="74"/>
+      <c r="D185" s="74"/>
+      <c r="E185" s="74"/>
+      <c r="F185" s="73"/>
+      <c r="G185" s="74"/>
+      <c r="H185" s="74"/>
+      <c r="I185" s="74"/>
+      <c r="J185" s="75"/>
+    </row>
+    <row r="186" spans="1:11" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A186" s="93" t="str">
+        <f t="shared" si="3"/>
         <v>6004</v>
       </c>
-      <c r="B184" s="47" t="s">
+      <c r="B186" s="47" t="s">
         <v>194</v>
-      </c>
-      <c r="C184" s="36" t="s">
-        <v>27</v>
-      </c>
-      <c r="D184" s="68" t="s">
-        <v>195</v>
-      </c>
-      <c r="E184" s="24"/>
-      <c r="F184" s="23">
-        <v>1</v>
-      </c>
-      <c r="G184" s="23">
-        <f>E184*1</f>
-        <v>0</v>
-      </c>
-      <c r="H184" s="14">
-        <v>8</v>
-      </c>
-      <c r="I184" s="72">
-        <v>120</v>
-      </c>
-      <c r="J184" s="39"/>
-    </row>
-    <row r="185" spans="1:11" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A185" s="93" t="str">
-        <f t="shared" si="2"/>
-        <v>5417</v>
-      </c>
-      <c r="B185" s="47" t="s">
-        <v>196</v>
-      </c>
-      <c r="C185" s="30" t="s">
-        <v>23</v>
-      </c>
-      <c r="D185" s="68" t="s">
-        <v>197</v>
-      </c>
-      <c r="E185" s="24"/>
-      <c r="F185" s="23">
-        <v>2</v>
-      </c>
-      <c r="G185" s="23">
-        <f>E185*1</f>
-        <v>0</v>
-      </c>
-      <c r="H185" s="14">
-        <v>6</v>
-      </c>
-      <c r="I185" s="72">
-        <v>90</v>
-      </c>
-      <c r="J185" s="39"/>
-    </row>
-    <row r="186" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A186" s="93" t="str">
-        <f t="shared" si="2"/>
-        <v>6019</v>
-      </c>
-      <c r="B186" s="47" t="s">
-        <v>198</v>
       </c>
       <c r="C186" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="D186" s="69" t="s">
-        <v>199</v>
+      <c r="D186" s="68" t="s">
+        <v>195</v>
       </c>
       <c r="E186" s="24"/>
       <c r="F186" s="23">
@@ -6680,60 +6678,100 @@
         <v>0</v>
       </c>
       <c r="H186" s="14">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="I186" s="72">
         <v>120</v>
       </c>
       <c r="J186" s="39"/>
     </row>
-    <row r="187" spans="1:11" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A187" s="77"/>
-      <c r="B187" s="77" t="s">
+    <row r="187" spans="1:11" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A187" s="93" t="str">
+        <f t="shared" si="3"/>
+        <v>5417</v>
+      </c>
+      <c r="B187" s="47" t="s">
+        <v>196</v>
+      </c>
+      <c r="C187" s="30" t="s">
+        <v>23</v>
+      </c>
+      <c r="D187" s="68" t="s">
+        <v>197</v>
+      </c>
+      <c r="E187" s="24"/>
+      <c r="F187" s="23">
+        <v>2</v>
+      </c>
+      <c r="G187" s="23">
+        <f>E187*1</f>
+        <v>0</v>
+      </c>
+      <c r="H187" s="14">
+        <v>6</v>
+      </c>
+      <c r="I187" s="72">
+        <v>90</v>
+      </c>
+      <c r="J187" s="39"/>
+    </row>
+    <row r="188" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A188" s="93" t="str">
+        <f t="shared" si="3"/>
+        <v>6019</v>
+      </c>
+      <c r="B188" s="47" t="s">
+        <v>198</v>
+      </c>
+      <c r="C188" s="36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D188" s="69" t="s">
+        <v>199</v>
+      </c>
+      <c r="E188" s="24"/>
+      <c r="F188" s="23">
+        <v>1</v>
+      </c>
+      <c r="G188" s="23">
+        <f>E188*1</f>
+        <v>0</v>
+      </c>
+      <c r="H188" s="14">
+        <v>12</v>
+      </c>
+      <c r="I188" s="72">
+        <v>120</v>
+      </c>
+      <c r="J188" s="39"/>
+    </row>
+    <row r="189" spans="1:11" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A189" s="77"/>
+      <c r="B189" s="77" t="s">
         <v>200</v>
       </c>
-      <c r="C187" s="16"/>
-      <c r="D187" s="48"/>
-      <c r="E187" s="17">
-        <f>SUM(E5:E186)</f>
+      <c r="C189" s="16"/>
+      <c r="D189" s="48"/>
+      <c r="E189" s="17">
+        <f>SUM(E5:E188)</f>
         <v>0</v>
       </c>
-      <c r="F187" s="17">
-        <f>SUM(F10:F186)</f>
-        <v>47.803333333333306</v>
-      </c>
-      <c r="G187" s="17">
-        <f>SUM(G11:G186)</f>
+      <c r="F189" s="17">
+        <f>SUM(F10:F188)</f>
+        <v>48.243333333333311</v>
+      </c>
+      <c r="G189" s="17">
+        <f>SUM(G11:G188)</f>
         <v>0</v>
       </c>
-      <c r="H187" s="17">
-        <f>SUM(H10:H183)</f>
+      <c r="H189" s="17">
+        <f>SUM(H10:H185)</f>
         <v>128.91</v>
       </c>
-      <c r="I187" s="17"/>
-      <c r="J187" s="17"/>
-    </row>
-    <row r="188" spans="1:11" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B188" s="53"/>
-      <c r="C188" s="18"/>
-      <c r="D188" s="52"/>
-      <c r="F188" s="19"/>
-      <c r="G188" s="19"/>
-      <c r="H188" s="20"/>
-      <c r="I188" s="20"/>
-      <c r="J188" s="21"/>
-    </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B189" s="53"/>
-      <c r="C189" s="18"/>
-      <c r="D189" s="52"/>
-      <c r="F189" s="19"/>
-      <c r="G189" s="19"/>
-      <c r="H189" s="20"/>
-      <c r="I189" s="20"/>
-      <c r="J189" s="21"/>
-    </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I189" s="17"/>
+      <c r="J189" s="17"/>
+    </row>
+    <row r="190" spans="1:11" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B190" s="53"/>
       <c r="C190" s="18"/>
       <c r="D190" s="52"/>
@@ -21953,17 +21991,37 @@
       <c r="I1711" s="20"/>
       <c r="J1711" s="21"/>
     </row>
+    <row r="1712" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B1712" s="53"/>
+      <c r="C1712" s="18"/>
+      <c r="D1712" s="52"/>
+      <c r="F1712" s="19"/>
+      <c r="G1712" s="19"/>
+      <c r="H1712" s="20"/>
+      <c r="I1712" s="20"/>
+      <c r="J1712" s="21"/>
+    </row>
+    <row r="1713" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B1713" s="53"/>
+      <c r="C1713" s="18"/>
+      <c r="D1713" s="52"/>
+      <c r="F1713" s="19"/>
+      <c r="G1713" s="19"/>
+      <c r="H1713" s="20"/>
+      <c r="I1713" s="20"/>
+      <c r="J1713" s="21"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A9:J187" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A9:J189" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <mergeCells count="2">
     <mergeCell ref="E1:J1"/>
     <mergeCell ref="G3:J3"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="2">
-    <dataValidation type="textLength" operator="lessThanOrEqual" showInputMessage="1" showErrorMessage="1" sqref="B180" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="textLength" operator="lessThanOrEqual" showInputMessage="1" showErrorMessage="1" sqref="B182" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>40</formula1>
     </dataValidation>
-    <dataValidation type="textLength" operator="equal" showInputMessage="1" showErrorMessage="1" sqref="D184:D186" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="textLength" operator="equal" showInputMessage="1" showErrorMessage="1" sqref="D186:D188" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>13</formula1>
     </dataValidation>
   </dataValidations>
